--- a/src/test/java/Subscriptions/Data/Option_Positions_Subscription.xlsx
+++ b/src/test/java/Subscriptions/Data/Option_Positions_Subscription.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ajmal.syed.LOGICIELSERVICE\eclipse-workspace\OMS_API\src\test\java\Subscriptions\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Automation_OMSAPI\src\test\java\Subscriptions\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76D858C6-2A47-49F3-92E7-B58E490560B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0D38162-BF3C-4F05-86B8-A6C980DA5DB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="363" firstSheet="3" activeTab="3" xr2:uid="{A77A0332-03F7-4C79-B0EA-4DB171BB1F0C}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="363" firstSheet="1" activeTab="2" xr2:uid="{A77A0332-03F7-4C79-B0EA-4DB171BB1F0C}"/>
   </bookViews>
   <sheets>
     <sheet name="SubscribeBUYOption_Positions" sheetId="10" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1400" uniqueCount="265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1301" uniqueCount="265">
   <si>
     <t>Content_Type</t>
   </si>
@@ -1014,7 +1014,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -1057,6 +1057,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1371,10 +1372,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41536820-D56A-41BA-A388-6D13CFA1508B}">
-  <dimension ref="A1:CU2"/>
+  <dimension ref="A1:CD2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1388,96 +1389,82 @@
     <col min="7" max="7" width="27" style="14" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="27.5703125" style="14" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="30.42578125" style="14" bestFit="1" customWidth="1"/>
-    <col min="10" max="12" width="30.42578125" style="14" customWidth="1"/>
-    <col min="13" max="13" width="22.28515625" style="14" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="28.7109375" style="14" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="24.28515625" style="14" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="14" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="22.85546875" style="14" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="22.140625" style="14" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="16" style="14" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="17.85546875" style="14" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="17.85546875" style="14" customWidth="1"/>
-    <col min="23" max="23" width="27" style="14" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="22.28515625" style="14" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="17.85546875" style="14" customWidth="1"/>
-    <col min="27" max="27" width="23.5703125" style="14" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="26.28515625" style="14" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="30.140625" style="14" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="155.42578125" style="14" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="32" style="14" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="30.5703125" style="14" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="49.28515625" style="14" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="11" style="14" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="28.85546875" style="14" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="32.42578125" style="14" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="26.7109375" style="14" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="33.28515625" style="14" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="30.140625" style="14" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="33.28515625" style="14" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="23.42578125" style="14" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="30.42578125" style="14" customWidth="1"/>
+    <col min="12" max="12" width="30.140625" style="14" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="155.42578125" style="14" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="32" style="14" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="30.5703125" style="14" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="49.28515625" style="14" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11" style="14" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="28.85546875" style="14" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="32.42578125" style="14" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="26.7109375" style="14" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="33.28515625" style="14" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="30.140625" style="14" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="33.28515625" style="14" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="23.42578125" style="14" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="31.28515625" style="14" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="36.7109375" style="14" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="47.42578125" style="14" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="31.85546875" style="14" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="24.5703125" style="14" customWidth="1"/>
+    <col min="30" max="30" width="26" style="14" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="21.7109375" style="14" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="24.42578125" style="14" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="25" style="14" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="26.28515625" style="14" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="22.28515625" style="14" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="27.42578125" style="14" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="28.28515625" style="14" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="27.28515625" style="14" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="23.28515625" style="14" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="21.7109375" style="14" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="26.7109375" style="14" bestFit="1" customWidth="1"/>
     <col min="42" max="42" width="31.28515625" style="14" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="36.7109375" style="14" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="47.42578125" style="14" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="31.85546875" style="14" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="24.5703125" style="14" customWidth="1"/>
-    <col min="47" max="47" width="26" style="14" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="21.7109375" style="14" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="24.42578125" style="14" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="25" style="14" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="26.28515625" style="14" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="22.28515625" style="14" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="27.42578125" style="14" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="28.28515625" style="14" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="27.28515625" style="14" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="23.28515625" style="14" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="21.7109375" style="14" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="26.7109375" style="14" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="31.28515625" style="14" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="36.42578125" style="14" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="27.85546875" style="14" bestFit="1" customWidth="1"/>
-    <col min="62" max="62" width="29" style="14" bestFit="1" customWidth="1"/>
-    <col min="63" max="63" width="26.85546875" style="14" bestFit="1" customWidth="1"/>
-    <col min="64" max="64" width="31.140625" style="14" bestFit="1" customWidth="1"/>
-    <col min="65" max="65" width="35.42578125" style="14" bestFit="1" customWidth="1"/>
-    <col min="66" max="66" width="33" style="14" bestFit="1" customWidth="1"/>
-    <col min="67" max="67" width="32.140625" style="14" bestFit="1" customWidth="1"/>
-    <col min="68" max="68" width="38.5703125" style="14" bestFit="1" customWidth="1"/>
-    <col min="69" max="69" width="35" style="14" bestFit="1" customWidth="1"/>
-    <col min="70" max="70" width="31.42578125" style="14" bestFit="1" customWidth="1"/>
-    <col min="71" max="71" width="41.140625" style="14" bestFit="1" customWidth="1"/>
-    <col min="72" max="72" width="35.85546875" style="14" bestFit="1" customWidth="1"/>
-    <col min="73" max="73" width="38.42578125" style="14" bestFit="1" customWidth="1"/>
-    <col min="74" max="74" width="37" style="14" bestFit="1" customWidth="1"/>
-    <col min="75" max="75" width="31.42578125" style="14" bestFit="1" customWidth="1"/>
-    <col min="76" max="76" width="31.7109375" style="14" bestFit="1" customWidth="1"/>
-    <col min="77" max="77" width="41.42578125" style="14" bestFit="1" customWidth="1"/>
-    <col min="78" max="78" width="37.140625" style="14" bestFit="1" customWidth="1"/>
-    <col min="79" max="79" width="36.7109375" style="14" bestFit="1" customWidth="1"/>
-    <col min="80" max="80" width="35.5703125" style="14" bestFit="1" customWidth="1"/>
-    <col min="81" max="81" width="42.5703125" style="14" bestFit="1" customWidth="1"/>
-    <col min="82" max="82" width="46.5703125" style="14" bestFit="1" customWidth="1"/>
-    <col min="83" max="83" width="36.42578125" style="14" bestFit="1" customWidth="1"/>
-    <col min="84" max="84" width="34.140625" style="14" bestFit="1" customWidth="1"/>
-    <col min="85" max="85" width="35.5703125" style="14" bestFit="1" customWidth="1"/>
-    <col min="86" max="86" width="33" style="14" bestFit="1" customWidth="1"/>
-    <col min="87" max="87" width="46.5703125" style="14" bestFit="1" customWidth="1"/>
-    <col min="88" max="88" width="44" style="14" bestFit="1" customWidth="1"/>
-    <col min="89" max="89" width="41.7109375" style="14" bestFit="1" customWidth="1"/>
-    <col min="90" max="90" width="39.28515625" style="14" bestFit="1" customWidth="1"/>
-    <col min="91" max="91" width="39.85546875" style="14" bestFit="1" customWidth="1"/>
-    <col min="92" max="92" width="34.140625" style="14" bestFit="1" customWidth="1"/>
-    <col min="93" max="93" width="28.7109375" style="14" bestFit="1" customWidth="1"/>
-    <col min="94" max="94" width="34.42578125" style="14" bestFit="1" customWidth="1"/>
-    <col min="95" max="95" width="31" style="14" bestFit="1" customWidth="1"/>
-    <col min="96" max="96" width="37.140625" style="14" bestFit="1" customWidth="1"/>
-    <col min="97" max="97" width="33.85546875" style="14" bestFit="1" customWidth="1"/>
-    <col min="98" max="98" width="42.85546875" style="14" bestFit="1" customWidth="1"/>
-    <col min="99" max="99" width="31.42578125" style="14" bestFit="1" customWidth="1"/>
-    <col min="100" max="16384" width="9.140625" style="14"/>
+    <col min="43" max="43" width="36.42578125" style="14" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="27.85546875" style="14" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="29" style="14" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="26.85546875" style="14" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="31.140625" style="14" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="35.42578125" style="14" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="33" style="14" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="32.140625" style="14" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="38.5703125" style="14" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="35" style="14" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="31.42578125" style="14" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="41.140625" style="14" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="35.85546875" style="14" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="38.42578125" style="14" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="37" style="14" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="31.42578125" style="14" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="31.7109375" style="14" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="41.42578125" style="14" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="37.140625" style="14" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="36.7109375" style="14" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="35.5703125" style="14" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="42.5703125" style="14" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="46.5703125" style="14" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="36.42578125" style="14" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="34.140625" style="14" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="35.5703125" style="14" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="33" style="14" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="46.5703125" style="14" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="44" style="14" bestFit="1" customWidth="1"/>
+    <col min="72" max="72" width="41.7109375" style="14" bestFit="1" customWidth="1"/>
+    <col min="73" max="73" width="39.28515625" style="14" bestFit="1" customWidth="1"/>
+    <col min="74" max="74" width="39.85546875" style="14" bestFit="1" customWidth="1"/>
+    <col min="75" max="75" width="34.140625" style="14" bestFit="1" customWidth="1"/>
+    <col min="76" max="76" width="28.7109375" style="14" bestFit="1" customWidth="1"/>
+    <col min="77" max="77" width="34.42578125" style="14" bestFit="1" customWidth="1"/>
+    <col min="78" max="78" width="31" style="14" bestFit="1" customWidth="1"/>
+    <col min="79" max="79" width="37.140625" style="14" bestFit="1" customWidth="1"/>
+    <col min="80" max="80" width="33.85546875" style="14" bestFit="1" customWidth="1"/>
+    <col min="81" max="81" width="42.85546875" style="14" bestFit="1" customWidth="1"/>
+    <col min="82" max="82" width="31.42578125" style="14" bestFit="1" customWidth="1"/>
+    <col min="83" max="16384" width="9.140625" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:99" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>153</v>
       </c>
@@ -1512,271 +1499,220 @@
         <v>159</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>152</v>
+        <v>187</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>14</v>
+        <v>168</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>67</v>
+        <v>169</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>227</v>
+        <v>170</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>68</v>
+        <v>171</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>69</v>
+        <v>27</v>
       </c>
       <c r="R1" s="2" t="s">
-        <v>70</v>
+        <v>178</v>
       </c>
       <c r="S1" s="2" t="s">
-        <v>71</v>
+        <v>179</v>
       </c>
       <c r="T1" s="2" t="s">
-        <v>72</v>
+        <v>180</v>
       </c>
       <c r="U1" s="2" t="s">
-        <v>228</v>
+        <v>181</v>
       </c>
       <c r="V1" s="2" t="s">
-        <v>229</v>
+        <v>182</v>
       </c>
       <c r="W1" s="2" t="s">
-        <v>230</v>
+        <v>183</v>
       </c>
       <c r="X1" s="2" t="s">
-        <v>231</v>
+        <v>184</v>
       </c>
       <c r="Y1" s="2" t="s">
-        <v>232</v>
+        <v>185</v>
       </c>
       <c r="Z1" s="2" t="s">
-        <v>233</v>
+        <v>186</v>
       </c>
       <c r="AA1" s="2" t="s">
-        <v>234</v>
+        <v>29</v>
       </c>
       <c r="AB1" s="2" t="s">
-        <v>73</v>
+        <v>30</v>
       </c>
       <c r="AC1" s="2" t="s">
-        <v>187</v>
+        <v>31</v>
       </c>
       <c r="AD1" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="AE1" s="2" t="s">
-        <v>169</v>
+        <v>32</v>
+      </c>
+      <c r="AE1" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="AF1" s="2" t="s">
-        <v>170</v>
+        <v>34</v>
       </c>
       <c r="AG1" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="AH1" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="AI1" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="AJ1" s="2" t="s">
-        <v>179</v>
+        <v>35</v>
+      </c>
+      <c r="AH1" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="AI1" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="AJ1" s="6" t="s">
+        <v>38</v>
       </c>
       <c r="AK1" s="2" t="s">
-        <v>180</v>
+        <v>39</v>
       </c>
       <c r="AL1" s="2" t="s">
-        <v>181</v>
+        <v>40</v>
       </c>
       <c r="AM1" s="2" t="s">
-        <v>182</v>
+        <v>41</v>
       </c>
       <c r="AN1" s="2" t="s">
-        <v>183</v>
+        <v>42</v>
       </c>
       <c r="AO1" s="2" t="s">
-        <v>184</v>
+        <v>43</v>
       </c>
       <c r="AP1" s="2" t="s">
-        <v>185</v>
+        <v>146</v>
       </c>
       <c r="AQ1" s="2" t="s">
-        <v>186</v>
+        <v>44</v>
       </c>
       <c r="AR1" s="2" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="AS1" s="2" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="AT1" s="2" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="AU1" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AV1" s="6" t="s">
-        <v>33</v>
+        <v>48</v>
+      </c>
+      <c r="AV1" s="2" t="s">
+        <v>49</v>
       </c>
       <c r="AW1" s="2" t="s">
-        <v>34</v>
+        <v>188</v>
       </c>
       <c r="AX1" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="AY1" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="AZ1" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="BA1" s="6" t="s">
-        <v>38</v>
+        <v>189</v>
+      </c>
+      <c r="AY1" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="AZ1" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="BA1" s="2" t="s">
+        <v>192</v>
       </c>
       <c r="BB1" s="2" t="s">
-        <v>39</v>
+        <v>193</v>
       </c>
       <c r="BC1" s="2" t="s">
-        <v>40</v>
+        <v>194</v>
       </c>
       <c r="BD1" s="2" t="s">
-        <v>41</v>
+        <v>195</v>
       </c>
       <c r="BE1" s="2" t="s">
-        <v>42</v>
+        <v>196</v>
       </c>
       <c r="BF1" s="2" t="s">
-        <v>43</v>
+        <v>197</v>
       </c>
       <c r="BG1" s="2" t="s">
-        <v>146</v>
+        <v>198</v>
       </c>
       <c r="BH1" s="2" t="s">
-        <v>44</v>
+        <v>199</v>
       </c>
       <c r="BI1" s="2" t="s">
-        <v>45</v>
+        <v>200</v>
       </c>
       <c r="BJ1" s="2" t="s">
-        <v>46</v>
+        <v>201</v>
       </c>
       <c r="BK1" s="2" t="s">
-        <v>47</v>
+        <v>202</v>
       </c>
       <c r="BL1" s="2" t="s">
-        <v>48</v>
+        <v>203</v>
       </c>
       <c r="BM1" s="2" t="s">
-        <v>49</v>
+        <v>204</v>
       </c>
       <c r="BN1" s="2" t="s">
-        <v>188</v>
+        <v>205</v>
       </c>
       <c r="BO1" s="2" t="s">
-        <v>189</v>
+        <v>206</v>
       </c>
       <c r="BP1" s="2" t="s">
-        <v>190</v>
+        <v>207</v>
       </c>
       <c r="BQ1" s="2" t="s">
-        <v>191</v>
+        <v>208</v>
       </c>
       <c r="BR1" s="2" t="s">
-        <v>192</v>
+        <v>209</v>
       </c>
       <c r="BS1" s="2" t="s">
-        <v>193</v>
+        <v>210</v>
       </c>
       <c r="BT1" s="2" t="s">
-        <v>194</v>
+        <v>211</v>
       </c>
       <c r="BU1" s="2" t="s">
-        <v>195</v>
+        <v>212</v>
       </c>
       <c r="BV1" s="2" t="s">
-        <v>196</v>
+        <v>213</v>
       </c>
       <c r="BW1" s="2" t="s">
-        <v>197</v>
+        <v>214</v>
       </c>
       <c r="BX1" s="2" t="s">
-        <v>198</v>
+        <v>215</v>
       </c>
       <c r="BY1" s="2" t="s">
-        <v>199</v>
+        <v>216</v>
       </c>
       <c r="BZ1" s="2" t="s">
-        <v>200</v>
+        <v>217</v>
       </c>
       <c r="CA1" s="2" t="s">
-        <v>201</v>
+        <v>75</v>
       </c>
       <c r="CB1" s="2" t="s">
-        <v>202</v>
+        <v>144</v>
       </c>
       <c r="CC1" s="2" t="s">
-        <v>203</v>
+        <v>145</v>
       </c>
       <c r="CD1" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="CE1" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="CF1" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="CG1" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="CH1" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="CI1" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="CJ1" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="CK1" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="CL1" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="CM1" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="CN1" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="CO1" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="CP1" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="CQ1" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="CR1" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="CS1" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="CT1" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="CU1" s="2" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="2" spans="1:99" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
         <v>259</v>
       </c>
@@ -1810,268 +1746,217 @@
       <c r="K2" s="13" t="s">
         <v>161</v>
       </c>
-      <c r="L2" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="M2" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="N2" s="3" t="s">
+      <c r="L2" s="3" t="s">
         <v>162</v>
       </c>
+      <c r="M2" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="N2" s="3">
+        <v>200</v>
+      </c>
       <c r="O2" s="3" t="s">
-        <v>147</v>
+        <v>25</v>
       </c>
       <c r="P2" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q2" s="3" t="s">
-        <v>15</v>
+        <v>172</v>
+      </c>
+      <c r="Q2" s="3">
+        <v>200</v>
       </c>
       <c r="R2" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="S2" s="3">
+        <v>2</v>
+      </c>
+      <c r="T2" s="3">
+        <v>1</v>
+      </c>
+      <c r="U2" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="V2" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="W2" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="S2" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="T2" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="U2" s="15" t="s">
-        <v>160</v>
-      </c>
-      <c r="V2" s="15" t="s">
-        <v>225</v>
-      </c>
-      <c r="W2" s="3" t="s">
-        <v>15</v>
-      </c>
       <c r="X2" s="3" t="s">
-        <v>15</v>
+        <v>175</v>
       </c>
       <c r="Y2" s="3" t="s">
-        <v>164</v>
+        <v>93</v>
       </c>
       <c r="Z2" s="3" t="s">
-        <v>165</v>
+        <v>54</v>
       </c>
       <c r="AA2" s="3" t="s">
-        <v>166</v>
+        <v>55</v>
       </c>
       <c r="AB2" s="3">
         <v>200</v>
       </c>
       <c r="AC2" s="3" t="s">
-        <v>162</v>
+        <v>56</v>
       </c>
       <c r="AD2" s="3" t="s">
-        <v>167</v>
+        <v>57</v>
       </c>
       <c r="AE2" s="3">
-        <v>200</v>
+        <v>1</v>
       </c>
       <c r="AF2" s="3" t="s">
-        <v>25</v>
+        <v>173</v>
       </c>
       <c r="AG2" s="3" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="AH2" s="3">
-        <v>200</v>
-      </c>
-      <c r="AI2" s="3" t="s">
-        <v>52</v>
+        <v>10</v>
+      </c>
+      <c r="AI2" s="3">
+        <v>40</v>
       </c>
       <c r="AJ2" s="3">
         <v>2</v>
       </c>
-      <c r="AK2" s="3">
+      <c r="AK2" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="AL2" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="AM2" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="AN2" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="AO2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="AP2" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="AQ2" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="AR2" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="AS2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="AT2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="AU2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="AV2" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="AW2" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="AX2" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="AY2" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="AZ2" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="BA2" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="BB2" s="14">
+        <v>2</v>
+      </c>
+      <c r="BC2" s="14">
         <v>1</v>
       </c>
-      <c r="AL2" s="3" t="s">
+      <c r="BD2" s="14">
+        <v>0</v>
+      </c>
+      <c r="BE2" s="14">
+        <v>0</v>
+      </c>
+      <c r="BF2" s="14" t="s">
+        <v>174</v>
+      </c>
+      <c r="BG2" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="BH2" s="14" t="s">
+        <v>219</v>
+      </c>
+      <c r="BI2" s="14" t="s">
         <v>173</v>
       </c>
-      <c r="AM2" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="AN2" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="AO2" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="AP2" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="AQ2" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="AR2" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="AS2" s="3">
-        <v>200</v>
-      </c>
-      <c r="AT2" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="AU2" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="AV2" s="3">
-        <v>1</v>
-      </c>
-      <c r="AW2" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="AX2" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="AY2" s="3">
-        <v>10</v>
-      </c>
-      <c r="AZ2" s="3">
-        <v>40</v>
-      </c>
-      <c r="BA2" s="3">
-        <v>2</v>
-      </c>
-      <c r="BB2" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="BC2" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="BD2" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="BE2" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="BF2" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="BG2" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="BH2" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="BI2" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="BJ2" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="BK2" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="BL2" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="BM2" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="BN2" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="BO2" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="BP2" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="BQ2" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="BR2" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="BS2" s="14">
-        <v>2</v>
-      </c>
-      <c r="BT2" s="14">
-        <v>1</v>
-      </c>
-      <c r="BU2" s="14">
-        <v>0</v>
-      </c>
-      <c r="BV2" s="14">
-        <v>0</v>
+      <c r="BJ2" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="BK2" s="14">
+        <v>30</v>
+      </c>
+      <c r="BL2" s="14">
+        <v>209908</v>
+      </c>
+      <c r="BM2" s="14" t="s">
+        <v>220</v>
+      </c>
+      <c r="BN2" s="14" t="s">
+        <v>221</v>
+      </c>
+      <c r="BO2" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="BP2" s="14" t="s">
+        <v>223</v>
+      </c>
+      <c r="BQ2" s="14" t="s">
+        <v>160</v>
+      </c>
+      <c r="BR2" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="BS2" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="BT2" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="BU2" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="BV2" s="14" t="s">
+        <v>59</v>
       </c>
       <c r="BW2" s="14" t="s">
-        <v>174</v>
+        <v>15</v>
       </c>
       <c r="BX2" s="14" t="s">
-        <v>16</v>
+        <v>59</v>
       </c>
       <c r="BY2" s="14" t="s">
-        <v>219</v>
+        <v>59</v>
       </c>
       <c r="BZ2" s="14" t="s">
         <v>173</v>
       </c>
       <c r="CA2" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="CB2" s="14">
-        <v>30</v>
-      </c>
-      <c r="CC2" s="14">
-        <v>209908</v>
+        <v>11</v>
+      </c>
+      <c r="CB2" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="CC2" s="14" t="s">
+        <v>59</v>
       </c>
       <c r="CD2" s="14" t="s">
-        <v>220</v>
-      </c>
-      <c r="CE2" s="14" t="s">
-        <v>221</v>
-      </c>
-      <c r="CF2" s="14" t="s">
-        <v>222</v>
-      </c>
-      <c r="CG2" s="14" t="s">
-        <v>223</v>
-      </c>
-      <c r="CH2" s="14" t="s">
-        <v>160</v>
-      </c>
-      <c r="CI2" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="CJ2" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="CK2" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="CL2" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="CM2" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="CN2" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="CO2" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="CP2" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="CQ2" s="14" t="s">
-        <v>173</v>
-      </c>
-      <c r="CR2" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="CS2" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="CT2" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="CU2" s="14" t="s">
         <v>174</v>
       </c>
     </row>
@@ -2083,10 +1968,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30BCD8FC-EB92-4047-A4A0-66F914093932}">
-  <dimension ref="A1:DZ2"/>
+  <dimension ref="A1:DI2"/>
   <sheetViews>
-    <sheetView topLeftCell="BV1" workbookViewId="0">
-      <selection activeCell="BZ1" sqref="BZ1:CR2"/>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2100,101 +1985,87 @@
     <col min="7" max="7" width="27" style="14" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="27.5703125" style="14" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="30.42578125" style="14" bestFit="1" customWidth="1"/>
-    <col min="10" max="12" width="30.42578125" style="14" customWidth="1"/>
-    <col min="13" max="13" width="22.28515625" style="14" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="28.7109375" style="14" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="24.28515625" style="14" customWidth="1"/>
-    <col min="16" max="16" width="24.140625" style="14" customWidth="1"/>
-    <col min="17" max="17" width="22.85546875" style="14" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="22.140625" style="14" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="16" style="14" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="17.85546875" style="14" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="17.85546875" style="14" customWidth="1"/>
-    <col min="23" max="23" width="27" style="14" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="22.28515625" style="14" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="17.85546875" style="14" customWidth="1"/>
-    <col min="27" max="27" width="23.5703125" style="14" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="26.28515625" style="14" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="30.140625" style="14" bestFit="1" customWidth="1"/>
-    <col min="30" max="31" width="73.7109375" style="14" customWidth="1"/>
-    <col min="32" max="32" width="32" style="14" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="30.5703125" style="14" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="49.28515625" style="14" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="11" style="14" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="28.85546875" style="14" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="32.42578125" style="14" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="26.7109375" style="14" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="33.28515625" style="14" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="30.140625" style="14" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="33.28515625" style="14" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="23.42578125" style="14" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="31.28515625" style="14" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="31.28515625" style="14" customWidth="1"/>
-    <col min="45" max="45" width="36.7109375" style="14" bestFit="1" customWidth="1"/>
-    <col min="46" max="54" width="36.7109375" style="14" customWidth="1"/>
-    <col min="55" max="55" width="42.28515625" style="14" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="47.42578125" style="14" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="31.85546875" style="14" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="24.5703125" style="14" customWidth="1"/>
-    <col min="59" max="59" width="26" style="14" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="26.140625" style="14" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="24.42578125" style="14" bestFit="1" customWidth="1"/>
-    <col min="62" max="62" width="25" style="14" bestFit="1" customWidth="1"/>
-    <col min="63" max="63" width="30.7109375" style="14" bestFit="1" customWidth="1"/>
-    <col min="64" max="64" width="26.7109375" style="14" bestFit="1" customWidth="1"/>
-    <col min="65" max="65" width="31.85546875" style="14" bestFit="1" customWidth="1"/>
-    <col min="66" max="66" width="28.28515625" style="14" bestFit="1" customWidth="1"/>
-    <col min="67" max="67" width="27.28515625" style="14" bestFit="1" customWidth="1"/>
-    <col min="68" max="68" width="23.28515625" style="14" bestFit="1" customWidth="1"/>
-    <col min="69" max="69" width="21.7109375" style="14" bestFit="1" customWidth="1"/>
-    <col min="70" max="70" width="31.140625" style="14" bestFit="1" customWidth="1"/>
-    <col min="71" max="71" width="35.7109375" style="14" bestFit="1" customWidth="1"/>
-    <col min="72" max="72" width="36.42578125" style="14" bestFit="1" customWidth="1"/>
-    <col min="73" max="73" width="27.85546875" style="14" bestFit="1" customWidth="1"/>
-    <col min="74" max="74" width="29" style="14" bestFit="1" customWidth="1"/>
-    <col min="75" max="75" width="26.85546875" style="14" bestFit="1" customWidth="1"/>
-    <col min="76" max="76" width="31.140625" style="14" bestFit="1" customWidth="1"/>
-    <col min="77" max="77" width="39.85546875" style="14" bestFit="1" customWidth="1"/>
-    <col min="78" max="95" width="35.42578125" style="14" customWidth="1"/>
-    <col min="96" max="96" width="39.85546875" style="14" bestFit="1" customWidth="1"/>
-    <col min="97" max="97" width="33" style="14" bestFit="1" customWidth="1"/>
-    <col min="98" max="98" width="32.140625" style="14" bestFit="1" customWidth="1"/>
-    <col min="99" max="99" width="38.5703125" style="14" bestFit="1" customWidth="1"/>
-    <col min="100" max="100" width="35" style="14" bestFit="1" customWidth="1"/>
-    <col min="101" max="101" width="31.42578125" style="14" bestFit="1" customWidth="1"/>
-    <col min="102" max="102" width="41.140625" style="14" bestFit="1" customWidth="1"/>
-    <col min="103" max="103" width="35.85546875" style="14" bestFit="1" customWidth="1"/>
-    <col min="104" max="104" width="38.42578125" style="14" bestFit="1" customWidth="1"/>
-    <col min="105" max="105" width="37" style="14" bestFit="1" customWidth="1"/>
-    <col min="106" max="106" width="31.42578125" style="14" bestFit="1" customWidth="1"/>
-    <col min="107" max="107" width="31.7109375" style="14" bestFit="1" customWidth="1"/>
-    <col min="108" max="108" width="41.42578125" style="14" bestFit="1" customWidth="1"/>
-    <col min="109" max="109" width="37.140625" style="14" bestFit="1" customWidth="1"/>
-    <col min="110" max="110" width="36.7109375" style="14" bestFit="1" customWidth="1"/>
-    <col min="111" max="111" width="35.5703125" style="14" bestFit="1" customWidth="1"/>
-    <col min="112" max="112" width="42.5703125" style="14" bestFit="1" customWidth="1"/>
-    <col min="113" max="113" width="46.5703125" style="14" bestFit="1" customWidth="1"/>
-    <col min="114" max="114" width="36.42578125" style="14" bestFit="1" customWidth="1"/>
-    <col min="115" max="115" width="34.140625" style="14" bestFit="1" customWidth="1"/>
-    <col min="116" max="116" width="35.5703125" style="14" bestFit="1" customWidth="1"/>
-    <col min="117" max="117" width="33" style="14" bestFit="1" customWidth="1"/>
-    <col min="118" max="118" width="46.5703125" style="14" bestFit="1" customWidth="1"/>
-    <col min="119" max="119" width="44" style="14" bestFit="1" customWidth="1"/>
-    <col min="120" max="120" width="41.7109375" style="14" bestFit="1" customWidth="1"/>
-    <col min="121" max="121" width="39.28515625" style="14" bestFit="1" customWidth="1"/>
-    <col min="122" max="122" width="39.85546875" style="14" bestFit="1" customWidth="1"/>
-    <col min="123" max="123" width="34.140625" style="14" bestFit="1" customWidth="1"/>
-    <col min="124" max="124" width="28.7109375" style="14" bestFit="1" customWidth="1"/>
-    <col min="125" max="125" width="34.42578125" style="14" bestFit="1" customWidth="1"/>
-    <col min="126" max="126" width="31" style="14" bestFit="1" customWidth="1"/>
-    <col min="127" max="127" width="37.140625" style="14" bestFit="1" customWidth="1"/>
-    <col min="128" max="128" width="33.85546875" style="14" bestFit="1" customWidth="1"/>
-    <col min="129" max="129" width="42.85546875" style="14" bestFit="1" customWidth="1"/>
-    <col min="130" max="130" width="31.42578125" style="14" bestFit="1" customWidth="1"/>
-    <col min="131" max="16384" width="9.140625" style="14"/>
+    <col min="10" max="11" width="30.42578125" style="14" customWidth="1"/>
+    <col min="12" max="12" width="30.140625" style="14" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="73.7109375" style="14" customWidth="1"/>
+    <col min="15" max="15" width="32" style="14" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="30.5703125" style="14" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="49.28515625" style="14" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11" style="14" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="28.85546875" style="14" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="32.42578125" style="14" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="26.7109375" style="14" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="33.28515625" style="14" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="30.140625" style="14" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="33.28515625" style="14" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="23.42578125" style="14" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="31.28515625" style="14" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="31.28515625" style="14" customWidth="1"/>
+    <col min="28" max="28" width="36.7109375" style="14" bestFit="1" customWidth="1"/>
+    <col min="29" max="37" width="36.7109375" style="14" customWidth="1"/>
+    <col min="38" max="38" width="42.28515625" style="14" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="47.42578125" style="14" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="31.85546875" style="14" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="24.5703125" style="14" customWidth="1"/>
+    <col min="42" max="42" width="26" style="14" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="26.140625" style="14" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="24.42578125" style="14" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="25" style="14" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="30.7109375" style="14" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="26.7109375" style="14" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="31.85546875" style="14" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="28.28515625" style="14" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="27.28515625" style="14" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="23.28515625" style="14" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="21.7109375" style="14" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="31.140625" style="14" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="35.7109375" style="14" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="36.42578125" style="14" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="27.85546875" style="14" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="29" style="14" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="26.85546875" style="14" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="31.140625" style="14" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="39.85546875" style="14" bestFit="1" customWidth="1"/>
+    <col min="61" max="78" width="35.42578125" style="14" customWidth="1"/>
+    <col min="79" max="79" width="39.85546875" style="14" bestFit="1" customWidth="1"/>
+    <col min="80" max="80" width="33" style="14" bestFit="1" customWidth="1"/>
+    <col min="81" max="81" width="32.140625" style="14" bestFit="1" customWidth="1"/>
+    <col min="82" max="82" width="38.5703125" style="14" bestFit="1" customWidth="1"/>
+    <col min="83" max="83" width="35" style="14" bestFit="1" customWidth="1"/>
+    <col min="84" max="84" width="31.42578125" style="14" bestFit="1" customWidth="1"/>
+    <col min="85" max="85" width="41.140625" style="14" bestFit="1" customWidth="1"/>
+    <col min="86" max="86" width="35.85546875" style="14" bestFit="1" customWidth="1"/>
+    <col min="87" max="87" width="38.42578125" style="14" bestFit="1" customWidth="1"/>
+    <col min="88" max="88" width="37" style="14" bestFit="1" customWidth="1"/>
+    <col min="89" max="89" width="31.42578125" style="14" bestFit="1" customWidth="1"/>
+    <col min="90" max="90" width="31.7109375" style="14" bestFit="1" customWidth="1"/>
+    <col min="91" max="91" width="41.42578125" style="14" bestFit="1" customWidth="1"/>
+    <col min="92" max="92" width="37.140625" style="14" bestFit="1" customWidth="1"/>
+    <col min="93" max="93" width="36.7109375" style="14" bestFit="1" customWidth="1"/>
+    <col min="94" max="94" width="35.5703125" style="14" bestFit="1" customWidth="1"/>
+    <col min="95" max="95" width="42.5703125" style="14" bestFit="1" customWidth="1"/>
+    <col min="96" max="96" width="46.5703125" style="14" bestFit="1" customWidth="1"/>
+    <col min="97" max="97" width="36.42578125" style="14" bestFit="1" customWidth="1"/>
+    <col min="98" max="98" width="34.140625" style="14" bestFit="1" customWidth="1"/>
+    <col min="99" max="99" width="35.5703125" style="14" bestFit="1" customWidth="1"/>
+    <col min="100" max="100" width="33" style="14" bestFit="1" customWidth="1"/>
+    <col min="101" max="101" width="46.5703125" style="14" bestFit="1" customWidth="1"/>
+    <col min="102" max="102" width="44" style="14" bestFit="1" customWidth="1"/>
+    <col min="103" max="103" width="41.7109375" style="14" bestFit="1" customWidth="1"/>
+    <col min="104" max="104" width="39.28515625" style="14" bestFit="1" customWidth="1"/>
+    <col min="105" max="105" width="39.85546875" style="14" bestFit="1" customWidth="1"/>
+    <col min="106" max="106" width="34.140625" style="14" bestFit="1" customWidth="1"/>
+    <col min="107" max="107" width="28.7109375" style="14" bestFit="1" customWidth="1"/>
+    <col min="108" max="108" width="34.42578125" style="14" bestFit="1" customWidth="1"/>
+    <col min="109" max="109" width="31" style="14" bestFit="1" customWidth="1"/>
+    <col min="110" max="110" width="37.140625" style="14" bestFit="1" customWidth="1"/>
+    <col min="111" max="111" width="33.85546875" style="14" bestFit="1" customWidth="1"/>
+    <col min="112" max="112" width="42.85546875" style="14" bestFit="1" customWidth="1"/>
+    <col min="113" max="113" width="31.42578125" style="14" bestFit="1" customWidth="1"/>
+    <col min="114" max="16384" width="9.140625" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:130" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:113" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>153</v>
       </c>
@@ -2229,364 +2100,313 @@
         <v>159</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>152</v>
+        <v>187</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>14</v>
+        <v>252</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>67</v>
+        <v>237</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>227</v>
+        <v>169</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>68</v>
+        <v>170</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>69</v>
+        <v>171</v>
       </c>
       <c r="R1" s="2" t="s">
-        <v>70</v>
+        <v>27</v>
       </c>
       <c r="S1" s="2" t="s">
-        <v>71</v>
+        <v>178</v>
       </c>
       <c r="T1" s="2" t="s">
-        <v>72</v>
+        <v>179</v>
       </c>
       <c r="U1" s="2" t="s">
-        <v>228</v>
+        <v>180</v>
       </c>
       <c r="V1" s="2" t="s">
-        <v>229</v>
+        <v>181</v>
       </c>
       <c r="W1" s="2" t="s">
-        <v>230</v>
+        <v>182</v>
       </c>
       <c r="X1" s="2" t="s">
-        <v>231</v>
+        <v>183</v>
       </c>
       <c r="Y1" s="2" t="s">
-        <v>232</v>
+        <v>184</v>
       </c>
       <c r="Z1" s="2" t="s">
-        <v>233</v>
+        <v>185</v>
       </c>
       <c r="AA1" s="2" t="s">
-        <v>234</v>
+        <v>254</v>
       </c>
       <c r="AB1" s="2" t="s">
-        <v>73</v>
+        <v>186</v>
       </c>
       <c r="AC1" s="2" t="s">
-        <v>187</v>
+        <v>239</v>
       </c>
       <c r="AD1" s="2" t="s">
-        <v>252</v>
+        <v>240</v>
       </c>
       <c r="AE1" s="2" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="AF1" s="2" t="s">
-        <v>169</v>
+        <v>242</v>
       </c>
       <c r="AG1" s="2" t="s">
-        <v>170</v>
+        <v>243</v>
       </c>
       <c r="AH1" s="2" t="s">
-        <v>171</v>
+        <v>244</v>
       </c>
       <c r="AI1" s="2" t="s">
-        <v>27</v>
+        <v>245</v>
       </c>
       <c r="AJ1" s="2" t="s">
-        <v>178</v>
+        <v>246</v>
       </c>
       <c r="AK1" s="2" t="s">
-        <v>179</v>
+        <v>253</v>
       </c>
       <c r="AL1" s="2" t="s">
-        <v>180</v>
+        <v>247</v>
       </c>
       <c r="AM1" s="2" t="s">
-        <v>181</v>
+        <v>29</v>
       </c>
       <c r="AN1" s="2" t="s">
-        <v>182</v>
+        <v>30</v>
       </c>
       <c r="AO1" s="2" t="s">
-        <v>183</v>
+        <v>31</v>
       </c>
       <c r="AP1" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="AQ1" s="2" t="s">
-        <v>185</v>
+        <v>248</v>
+      </c>
+      <c r="AQ1" s="6" t="s">
+        <v>249</v>
       </c>
       <c r="AR1" s="2" t="s">
-        <v>254</v>
+        <v>107</v>
       </c>
       <c r="AS1" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="AT1" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="AU1" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="AV1" s="2" t="s">
-        <v>241</v>
+        <v>108</v>
+      </c>
+      <c r="AT1" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="AU1" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="AV1" s="6" t="s">
+        <v>111</v>
       </c>
       <c r="AW1" s="2" t="s">
-        <v>242</v>
+        <v>112</v>
       </c>
       <c r="AX1" s="2" t="s">
-        <v>243</v>
+        <v>113</v>
       </c>
       <c r="AY1" s="2" t="s">
-        <v>244</v>
+        <v>114</v>
       </c>
       <c r="AZ1" s="2" t="s">
-        <v>245</v>
+        <v>115</v>
       </c>
       <c r="BA1" s="2" t="s">
-        <v>246</v>
+        <v>116</v>
       </c>
       <c r="BB1" s="2" t="s">
-        <v>253</v>
+        <v>148</v>
       </c>
       <c r="BC1" s="2" t="s">
-        <v>247</v>
+        <v>117</v>
       </c>
       <c r="BD1" s="2" t="s">
-        <v>29</v>
+        <v>118</v>
       </c>
       <c r="BE1" s="2" t="s">
-        <v>30</v>
+        <v>119</v>
       </c>
       <c r="BF1" s="2" t="s">
-        <v>31</v>
+        <v>120</v>
       </c>
       <c r="BG1" s="2" t="s">
-        <v>248</v>
-      </c>
-      <c r="BH1" s="6" t="s">
-        <v>249</v>
+        <v>121</v>
+      </c>
+      <c r="BH1" s="2" t="s">
+        <v>122</v>
       </c>
       <c r="BI1" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="BJ1" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="BK1" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="BL1" s="6" t="s">
-        <v>110</v>
+        <v>250</v>
+      </c>
+      <c r="BJ1" s="6" t="s">
+        <v>251</v>
+      </c>
+      <c r="BK1" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="BL1" s="2" t="s">
+        <v>126</v>
       </c>
       <c r="BM1" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="BN1" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="BO1" s="2" t="s">
-        <v>113</v>
+        <v>127</v>
+      </c>
+      <c r="BN1" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="BO1" s="6" t="s">
+        <v>129</v>
       </c>
       <c r="BP1" s="2" t="s">
-        <v>114</v>
+        <v>130</v>
       </c>
       <c r="BQ1" s="2" t="s">
-        <v>115</v>
+        <v>131</v>
       </c>
       <c r="BR1" s="2" t="s">
-        <v>116</v>
+        <v>132</v>
       </c>
       <c r="BS1" s="2" t="s">
-        <v>148</v>
+        <v>133</v>
       </c>
       <c r="BT1" s="2" t="s">
-        <v>117</v>
+        <v>134</v>
       </c>
       <c r="BU1" s="2" t="s">
-        <v>118</v>
+        <v>149</v>
       </c>
       <c r="BV1" s="2" t="s">
-        <v>119</v>
+        <v>135</v>
       </c>
       <c r="BW1" s="2" t="s">
-        <v>120</v>
+        <v>136</v>
       </c>
       <c r="BX1" s="2" t="s">
-        <v>121</v>
+        <v>137</v>
       </c>
       <c r="BY1" s="2" t="s">
-        <v>122</v>
+        <v>138</v>
       </c>
       <c r="BZ1" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="CA1" s="6" t="s">
-        <v>251</v>
+        <v>139</v>
+      </c>
+      <c r="CA1" s="2" t="s">
+        <v>140</v>
       </c>
       <c r="CB1" s="2" t="s">
-        <v>125</v>
+        <v>188</v>
       </c>
       <c r="CC1" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="CD1" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="CE1" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="CF1" s="6" t="s">
-        <v>129</v>
+        <v>189</v>
+      </c>
+      <c r="CD1" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="CE1" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="CF1" s="2" t="s">
+        <v>192</v>
       </c>
       <c r="CG1" s="2" t="s">
-        <v>130</v>
+        <v>193</v>
       </c>
       <c r="CH1" s="2" t="s">
-        <v>131</v>
+        <v>194</v>
       </c>
       <c r="CI1" s="2" t="s">
-        <v>132</v>
+        <v>195</v>
       </c>
       <c r="CJ1" s="2" t="s">
-        <v>133</v>
+        <v>196</v>
       </c>
       <c r="CK1" s="2" t="s">
-        <v>134</v>
+        <v>197</v>
       </c>
       <c r="CL1" s="2" t="s">
-        <v>149</v>
+        <v>198</v>
       </c>
       <c r="CM1" s="2" t="s">
-        <v>135</v>
+        <v>199</v>
       </c>
       <c r="CN1" s="2" t="s">
-        <v>136</v>
+        <v>200</v>
       </c>
       <c r="CO1" s="2" t="s">
-        <v>137</v>
+        <v>201</v>
       </c>
       <c r="CP1" s="2" t="s">
-        <v>138</v>
+        <v>202</v>
       </c>
       <c r="CQ1" s="2" t="s">
-        <v>139</v>
+        <v>203</v>
       </c>
       <c r="CR1" s="2" t="s">
-        <v>140</v>
+        <v>204</v>
       </c>
       <c r="CS1" s="2" t="s">
-        <v>188</v>
+        <v>205</v>
       </c>
       <c r="CT1" s="2" t="s">
-        <v>189</v>
+        <v>206</v>
       </c>
       <c r="CU1" s="2" t="s">
-        <v>190</v>
+        <v>207</v>
       </c>
       <c r="CV1" s="2" t="s">
-        <v>191</v>
+        <v>208</v>
       </c>
       <c r="CW1" s="2" t="s">
-        <v>192</v>
+        <v>209</v>
       </c>
       <c r="CX1" s="2" t="s">
-        <v>193</v>
+        <v>210</v>
       </c>
       <c r="CY1" s="2" t="s">
-        <v>194</v>
+        <v>211</v>
       </c>
       <c r="CZ1" s="2" t="s">
-        <v>195</v>
+        <v>212</v>
       </c>
       <c r="DA1" s="2" t="s">
-        <v>196</v>
+        <v>213</v>
       </c>
       <c r="DB1" s="2" t="s">
-        <v>197</v>
+        <v>214</v>
       </c>
       <c r="DC1" s="2" t="s">
-        <v>198</v>
+        <v>215</v>
       </c>
       <c r="DD1" s="2" t="s">
-        <v>199</v>
+        <v>216</v>
       </c>
       <c r="DE1" s="2" t="s">
-        <v>200</v>
+        <v>217</v>
       </c>
       <c r="DF1" s="2" t="s">
-        <v>201</v>
+        <v>75</v>
       </c>
       <c r="DG1" s="2" t="s">
-        <v>202</v>
+        <v>144</v>
       </c>
       <c r="DH1" s="2" t="s">
-        <v>203</v>
+        <v>145</v>
       </c>
       <c r="DI1" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="DJ1" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="DK1" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="DL1" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="DM1" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="DN1" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="DO1" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="DP1" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="DQ1" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="DR1" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="DS1" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="DT1" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="DU1" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="DV1" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="DW1" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="DX1" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="DY1" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="DZ1" s="2" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="2" spans="1:130" s="3" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:113" s="3" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>258</v>
       </c>
@@ -2621,360 +2441,309 @@
         <v>161</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>11</v>
+        <v>162</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>17</v>
+        <v>235</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="O2" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="O2" s="3">
+        <v>200</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="R2" s="3">
+        <v>200</v>
+      </c>
+      <c r="S2" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="T2" s="3">
+        <v>2</v>
+      </c>
+      <c r="U2" s="3">
+        <v>1</v>
+      </c>
+      <c r="V2" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="W2" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="X2" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="Y2" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="Z2" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="AA2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AB2" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC2" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AD2" s="3">
+        <v>2</v>
+      </c>
+      <c r="AE2" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="P2" s="3" t="s">
+      <c r="AF2" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="AG2" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="AH2" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="AI2" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="AJ2" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="AK2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AL2" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AM2" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="AN2" s="3">
+        <v>200</v>
+      </c>
+      <c r="AO2" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="AP2" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="AQ2" s="3">
+        <v>1</v>
+      </c>
+      <c r="AR2" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="AS2" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="AT2" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="AU2" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="AV2" s="3">
+        <v>2</v>
+      </c>
+      <c r="AW2" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="AX2" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="AY2" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="AZ2" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="BA2" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="Q2" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="R2" s="3" t="s">
+      <c r="BB2" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="BC2" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="BD2" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="BE2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="BF2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="BG2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="BH2" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="BI2" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="BJ2" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="BK2" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="BL2" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="BM2" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="BN2" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="BO2" s="3">
+        <v>2</v>
+      </c>
+      <c r="BP2" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="S2" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="T2" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="U2" s="16" t="s">
+      <c r="BQ2" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="BR2" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="BS2" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="BT2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="BU2" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="BV2" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="BW2" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="BX2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="BY2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="BZ2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="CA2" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="CB2" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="CC2" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="CD2" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="CE2" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="CF2" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="CG2" s="3">
+        <v>2</v>
+      </c>
+      <c r="CH2" s="3">
+        <v>1</v>
+      </c>
+      <c r="CI2" s="3">
+        <v>0</v>
+      </c>
+      <c r="CJ2" s="3">
+        <v>0</v>
+      </c>
+      <c r="CK2" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="CL2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="CM2" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="CN2" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="CO2" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="CP2" s="3">
+        <v>30</v>
+      </c>
+      <c r="CQ2" s="3">
+        <v>209908</v>
+      </c>
+      <c r="CR2" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="CS2" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="CT2" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="CU2" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="CV2" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="V2" s="16" t="s">
-        <v>225</v>
-      </c>
-      <c r="W2" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="X2" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="Y2" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="Z2" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="AA2" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="AB2" s="3">
-        <v>200</v>
-      </c>
-      <c r="AC2" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="AD2" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="AE2" s="3" t="s">
-        <v>238</v>
-      </c>
-      <c r="AF2" s="3">
-        <v>200</v>
-      </c>
-      <c r="AG2" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="AH2" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="AI2" s="3">
-        <v>200</v>
-      </c>
-      <c r="AJ2" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="AK2" s="3">
-        <v>2</v>
-      </c>
-      <c r="AL2" s="3">
-        <v>1</v>
-      </c>
-      <c r="AM2" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="AN2" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="AO2" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="AP2" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="AQ2" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="AR2" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="AS2" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="AT2" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="AU2" s="3">
-        <v>2</v>
-      </c>
-      <c r="AV2" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="AW2" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="AX2" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="AY2" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="AZ2" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="BA2" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="BB2" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="BC2" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="BD2" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="BE2" s="3">
-        <v>200</v>
-      </c>
-      <c r="BF2" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="BG2" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="BH2" s="3">
-        <v>1</v>
-      </c>
-      <c r="BI2" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="BJ2" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="BK2" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="BL2" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="BM2" s="3">
-        <v>2</v>
-      </c>
-      <c r="BN2" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="BO2" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="BP2" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="BQ2" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="BR2" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="BS2" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="BT2" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="BU2" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="BV2" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="BW2" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="BX2" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="BY2" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="BZ2" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="CA2" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="CB2" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="CC2" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="CD2" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="CE2" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="CF2" s="3">
-        <v>2</v>
-      </c>
-      <c r="CG2" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="CH2" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="CI2" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="CJ2" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="CK2" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="CL2" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="CM2" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="CN2" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="CO2" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="CP2" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="CQ2" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="CR2" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="CS2" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="CT2" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="CU2" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="CV2" s="3" t="s">
-        <v>59</v>
-      </c>
       <c r="CW2" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="CX2" s="3">
-        <v>2</v>
-      </c>
-      <c r="CY2" s="3">
-        <v>1</v>
-      </c>
-      <c r="CZ2" s="3">
-        <v>0</v>
-      </c>
-      <c r="DA2" s="3">
-        <v>0</v>
+        <v>15</v>
+      </c>
+      <c r="CX2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="CY2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="CZ2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="DA2" s="3" t="s">
+        <v>59</v>
       </c>
       <c r="DB2" s="3" t="s">
-        <v>174</v>
+        <v>15</v>
       </c>
       <c r="DC2" s="3" t="s">
-        <v>16</v>
+        <v>59</v>
       </c>
       <c r="DD2" s="3" t="s">
-        <v>219</v>
+        <v>59</v>
       </c>
       <c r="DE2" s="3" t="s">
         <v>173</v>
       </c>
       <c r="DF2" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="DG2" s="3">
-        <v>30</v>
-      </c>
-      <c r="DH2" s="3">
-        <v>209908</v>
+        <v>11</v>
+      </c>
+      <c r="DG2" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="DH2" s="3" t="s">
+        <v>59</v>
       </c>
       <c r="DI2" s="3" t="s">
-        <v>220</v>
-      </c>
-      <c r="DJ2" s="3" t="s">
-        <v>221</v>
-      </c>
-      <c r="DK2" s="3" t="s">
-        <v>222</v>
-      </c>
-      <c r="DL2" s="3" t="s">
-        <v>223</v>
-      </c>
-      <c r="DM2" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="DN2" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="DO2" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="DP2" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="DQ2" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="DR2" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="DS2" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="DT2" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="DU2" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="DV2" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="DW2" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="DX2" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="DY2" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="DZ2" s="3" t="s">
         <v>174</v>
       </c>
     </row>
@@ -2986,28 +2755,28 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFD82B76-86B7-46D2-A39A-FB3938032EE5}">
-  <dimension ref="A1:CU2"/>
+  <dimension ref="A1:CD2"/>
   <sheetViews>
-    <sheetView topLeftCell="CH1" workbookViewId="0">
-      <selection activeCell="CQ7" sqref="CQ7"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="43" width="22.7109375" style="14"/>
-    <col min="44" max="44" width="47.42578125" style="14" bestFit="1" customWidth="1"/>
-    <col min="45" max="46" width="22.7109375" style="14"/>
-    <col min="47" max="47" width="30.42578125" style="14" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="26.140625" style="14" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="38.42578125" style="14" customWidth="1"/>
-    <col min="50" max="50" width="37" style="14" customWidth="1"/>
-    <col min="51" max="70" width="22.7109375" style="14"/>
-    <col min="71" max="71" width="41.140625" style="14" bestFit="1" customWidth="1"/>
-    <col min="72" max="72" width="35.85546875" style="14" bestFit="1" customWidth="1"/>
-    <col min="73" max="16384" width="22.7109375" style="14"/>
+    <col min="1" max="26" width="22.7109375" style="14"/>
+    <col min="27" max="27" width="47.42578125" style="14" bestFit="1" customWidth="1"/>
+    <col min="28" max="29" width="22.7109375" style="14"/>
+    <col min="30" max="30" width="30.42578125" style="14" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="26.140625" style="14" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="38.42578125" style="14" customWidth="1"/>
+    <col min="33" max="33" width="37" style="14" customWidth="1"/>
+    <col min="34" max="53" width="22.7109375" style="14"/>
+    <col min="54" max="54" width="41.140625" style="14" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="35.85546875" style="14" bestFit="1" customWidth="1"/>
+    <col min="56" max="16384" width="22.7109375" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:99" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>153</v>
       </c>
@@ -3042,275 +2811,224 @@
         <v>159</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>152</v>
+        <v>187</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>14</v>
+        <v>168</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>67</v>
+        <v>169</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>227</v>
+        <v>170</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>68</v>
+        <v>171</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>69</v>
+        <v>27</v>
       </c>
       <c r="R1" s="2" t="s">
-        <v>70</v>
+        <v>178</v>
       </c>
       <c r="S1" s="2" t="s">
-        <v>71</v>
+        <v>179</v>
       </c>
       <c r="T1" s="2" t="s">
-        <v>72</v>
+        <v>180</v>
       </c>
       <c r="U1" s="2" t="s">
-        <v>228</v>
+        <v>181</v>
       </c>
       <c r="V1" s="2" t="s">
-        <v>229</v>
+        <v>182</v>
       </c>
       <c r="W1" s="2" t="s">
-        <v>230</v>
+        <v>183</v>
       </c>
       <c r="X1" s="2" t="s">
-        <v>231</v>
+        <v>184</v>
       </c>
       <c r="Y1" s="2" t="s">
-        <v>232</v>
+        <v>185</v>
       </c>
       <c r="Z1" s="2" t="s">
-        <v>233</v>
+        <v>186</v>
       </c>
       <c r="AA1" s="2" t="s">
-        <v>234</v>
+        <v>29</v>
       </c>
       <c r="AB1" s="2" t="s">
-        <v>73</v>
+        <v>30</v>
       </c>
       <c r="AC1" s="2" t="s">
-        <v>187</v>
+        <v>31</v>
       </c>
       <c r="AD1" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="AE1" s="2" t="s">
-        <v>169</v>
+        <v>250</v>
+      </c>
+      <c r="AE1" s="6" t="s">
+        <v>251</v>
       </c>
       <c r="AF1" s="2" t="s">
-        <v>170</v>
+        <v>125</v>
       </c>
       <c r="AG1" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="AH1" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="AI1" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="AJ1" s="2" t="s">
-        <v>179</v>
+        <v>126</v>
+      </c>
+      <c r="AH1" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="AI1" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="AJ1" s="6" t="s">
+        <v>129</v>
       </c>
       <c r="AK1" s="2" t="s">
-        <v>180</v>
+        <v>130</v>
       </c>
       <c r="AL1" s="2" t="s">
-        <v>181</v>
+        <v>131</v>
       </c>
       <c r="AM1" s="2" t="s">
-        <v>182</v>
+        <v>132</v>
       </c>
       <c r="AN1" s="2" t="s">
-        <v>183</v>
+        <v>133</v>
       </c>
       <c r="AO1" s="2" t="s">
-        <v>184</v>
+        <v>134</v>
       </c>
       <c r="AP1" s="2" t="s">
-        <v>185</v>
+        <v>149</v>
       </c>
       <c r="AQ1" s="2" t="s">
-        <v>186</v>
+        <v>135</v>
       </c>
       <c r="AR1" s="2" t="s">
-        <v>29</v>
+        <v>136</v>
       </c>
       <c r="AS1" s="2" t="s">
-        <v>30</v>
+        <v>137</v>
       </c>
       <c r="AT1" s="2" t="s">
-        <v>31</v>
+        <v>138</v>
       </c>
       <c r="AU1" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="AV1" s="6" t="s">
-        <v>251</v>
+        <v>139</v>
+      </c>
+      <c r="AV1" s="2" t="s">
+        <v>140</v>
       </c>
       <c r="AW1" s="2" t="s">
-        <v>125</v>
+        <v>188</v>
       </c>
       <c r="AX1" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="AY1" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="AZ1" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="BA1" s="6" t="s">
-        <v>129</v>
+        <v>189</v>
+      </c>
+      <c r="AY1" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="AZ1" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="BA1" s="2" t="s">
+        <v>192</v>
       </c>
       <c r="BB1" s="2" t="s">
-        <v>130</v>
+        <v>193</v>
       </c>
       <c r="BC1" s="2" t="s">
-        <v>131</v>
+        <v>194</v>
       </c>
       <c r="BD1" s="2" t="s">
-        <v>132</v>
+        <v>195</v>
       </c>
       <c r="BE1" s="2" t="s">
-        <v>133</v>
+        <v>196</v>
       </c>
       <c r="BF1" s="2" t="s">
-        <v>134</v>
+        <v>197</v>
       </c>
       <c r="BG1" s="2" t="s">
-        <v>149</v>
+        <v>198</v>
       </c>
       <c r="BH1" s="2" t="s">
-        <v>135</v>
+        <v>199</v>
       </c>
       <c r="BI1" s="2" t="s">
-        <v>136</v>
+        <v>200</v>
       </c>
       <c r="BJ1" s="2" t="s">
-        <v>137</v>
+        <v>201</v>
       </c>
       <c r="BK1" s="2" t="s">
-        <v>138</v>
+        <v>202</v>
       </c>
       <c r="BL1" s="2" t="s">
-        <v>139</v>
+        <v>203</v>
       </c>
       <c r="BM1" s="2" t="s">
-        <v>140</v>
+        <v>204</v>
       </c>
       <c r="BN1" s="2" t="s">
-        <v>188</v>
+        <v>205</v>
       </c>
       <c r="BO1" s="2" t="s">
-        <v>189</v>
+        <v>206</v>
       </c>
       <c r="BP1" s="2" t="s">
-        <v>190</v>
+        <v>207</v>
       </c>
       <c r="BQ1" s="2" t="s">
-        <v>191</v>
+        <v>208</v>
       </c>
       <c r="BR1" s="2" t="s">
-        <v>192</v>
+        <v>209</v>
       </c>
       <c r="BS1" s="2" t="s">
-        <v>193</v>
+        <v>210</v>
       </c>
       <c r="BT1" s="2" t="s">
-        <v>194</v>
+        <v>211</v>
       </c>
       <c r="BU1" s="2" t="s">
-        <v>195</v>
+        <v>212</v>
       </c>
       <c r="BV1" s="2" t="s">
-        <v>196</v>
+        <v>213</v>
       </c>
       <c r="BW1" s="2" t="s">
-        <v>197</v>
+        <v>214</v>
       </c>
       <c r="BX1" s="2" t="s">
-        <v>198</v>
+        <v>215</v>
       </c>
       <c r="BY1" s="2" t="s">
-        <v>199</v>
+        <v>216</v>
       </c>
       <c r="BZ1" s="2" t="s">
-        <v>200</v>
+        <v>217</v>
       </c>
       <c r="CA1" s="2" t="s">
-        <v>201</v>
+        <v>75</v>
       </c>
       <c r="CB1" s="2" t="s">
-        <v>202</v>
+        <v>144</v>
       </c>
       <c r="CC1" s="2" t="s">
-        <v>203</v>
+        <v>145</v>
       </c>
       <c r="CD1" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="CE1" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="CF1" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="CG1" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="CH1" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="CI1" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="CJ1" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="CK1" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="CL1" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="CM1" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="CN1" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="CO1" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="CP1" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="CQ1" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="CR1" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="CS1" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="CT1" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="CU1" s="2" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="2" spans="1:99" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="14" t="s">
+    <row r="2" spans="1:82" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="18" t="s">
         <v>257</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="18" t="s">
         <v>50</v>
       </c>
       <c r="C2" s="3" t="s">
@@ -3340,268 +3058,217 @@
       <c r="K2" s="13" t="s">
         <v>161</v>
       </c>
-      <c r="L2" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="M2" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="N2" s="3" t="s">
+      <c r="L2" s="3" t="s">
         <v>162</v>
       </c>
+      <c r="M2" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="N2" s="3">
+        <v>200</v>
+      </c>
       <c r="O2" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="Q2" s="3">
+        <v>200</v>
+      </c>
+      <c r="R2" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="S2" s="3">
+        <v>2</v>
+      </c>
+      <c r="T2" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="P2" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q2" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="R2" s="3" t="s">
+      <c r="U2" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="V2" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="W2" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="S2" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="T2" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="U2" s="15" t="s">
-        <v>160</v>
-      </c>
-      <c r="V2" s="15" t="s">
-        <v>225</v>
-      </c>
-      <c r="W2" s="3" t="s">
-        <v>15</v>
-      </c>
       <c r="X2" s="3" t="s">
-        <v>15</v>
+        <v>175</v>
       </c>
       <c r="Y2" s="3" t="s">
-        <v>164</v>
+        <v>102</v>
       </c>
       <c r="Z2" s="3" t="s">
-        <v>165</v>
+        <v>54</v>
       </c>
       <c r="AA2" s="3" t="s">
-        <v>166</v>
+        <v>55</v>
       </c>
       <c r="AB2" s="3">
         <v>200</v>
       </c>
       <c r="AC2" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="AD2" s="5" t="s">
-        <v>238</v>
-      </c>
-      <c r="AE2" s="3">
-        <v>200</v>
+        <v>260</v>
+      </c>
+      <c r="AD2" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="AE2" s="3" t="s">
+        <v>147</v>
       </c>
       <c r="AF2" s="3" t="s">
-        <v>25</v>
+        <v>173</v>
       </c>
       <c r="AG2" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="AH2" s="3">
-        <v>200</v>
+        <v>174</v>
+      </c>
+      <c r="AH2" s="3" t="s">
+        <v>102</v>
       </c>
       <c r="AI2" s="3" t="s">
-        <v>52</v>
+        <v>175</v>
       </c>
       <c r="AJ2" s="3">
         <v>2</v>
       </c>
       <c r="AK2" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="AL2" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="AM2" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="AN2" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="AO2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="AP2" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="AL2" s="3" t="s">
+      <c r="AQ2" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="AR2" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="AS2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="AT2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="AU2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="AV2" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="AW2" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="AX2" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="AY2" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="AZ2" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="BA2" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="BB2" s="18">
+        <v>2</v>
+      </c>
+      <c r="BC2" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="BD2" s="18">
+        <v>0</v>
+      </c>
+      <c r="BE2" s="18">
+        <v>0</v>
+      </c>
+      <c r="BF2" s="18" t="s">
+        <v>174</v>
+      </c>
+      <c r="BG2" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="BH2" s="18" t="s">
+        <v>219</v>
+      </c>
+      <c r="BI2" s="18" t="s">
         <v>173</v>
       </c>
-      <c r="AM2" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="AN2" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="AO2" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="AP2" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="AQ2" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="AR2" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="AS2" s="3">
-        <v>200</v>
-      </c>
-      <c r="AT2" s="3" t="s">
-        <v>260</v>
-      </c>
-      <c r="AU2" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="AV2" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="AW2" s="3" t="s">
+      <c r="BJ2" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="BK2" s="18">
+        <v>30</v>
+      </c>
+      <c r="BL2" s="18">
+        <v>209908</v>
+      </c>
+      <c r="BM2" s="18" t="s">
+        <v>220</v>
+      </c>
+      <c r="BN2" s="18" t="s">
+        <v>221</v>
+      </c>
+      <c r="BO2" s="18" t="s">
+        <v>222</v>
+      </c>
+      <c r="BP2" s="18" t="s">
+        <v>223</v>
+      </c>
+      <c r="BQ2" s="18" t="s">
+        <v>160</v>
+      </c>
+      <c r="BR2" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="BS2" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="BT2" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="BU2" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="BV2" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="BW2" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="BX2" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="BY2" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="BZ2" s="18" t="s">
         <v>173</v>
       </c>
-      <c r="AX2" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="AY2" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="AZ2" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="BA2" s="3">
-        <v>2</v>
-      </c>
-      <c r="BB2" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="BC2" s="3" t="s">
+      <c r="CA2" s="18" t="s">
+        <v>261</v>
+      </c>
+      <c r="CB2" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="BD2" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="BE2" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="BF2" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="BG2" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="BH2" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="BI2" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="BJ2" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="BK2" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="BL2" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="BM2" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="BN2" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="BO2" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="BP2" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="BQ2" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="BR2" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="BS2" s="14">
-        <v>2</v>
-      </c>
-      <c r="BT2" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="BU2" s="14">
-        <v>0</v>
-      </c>
-      <c r="BV2" s="14">
-        <v>0</v>
-      </c>
-      <c r="BW2" s="14" t="s">
-        <v>174</v>
-      </c>
-      <c r="BX2" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="BY2" s="14" t="s">
-        <v>219</v>
-      </c>
-      <c r="BZ2" s="14" t="s">
-        <v>173</v>
-      </c>
-      <c r="CA2" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="CB2" s="14">
-        <v>30</v>
-      </c>
-      <c r="CC2" s="14">
-        <v>209908</v>
-      </c>
-      <c r="CD2" s="14" t="s">
-        <v>220</v>
-      </c>
-      <c r="CE2" s="14" t="s">
-        <v>221</v>
-      </c>
-      <c r="CF2" s="14" t="s">
-        <v>222</v>
-      </c>
-      <c r="CG2" s="14" t="s">
-        <v>223</v>
-      </c>
-      <c r="CH2" s="14" t="s">
-        <v>160</v>
-      </c>
-      <c r="CI2" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="CJ2" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="CK2" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="CL2" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="CM2" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="CN2" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="CO2" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="CP2" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="CQ2" s="14" t="s">
-        <v>173</v>
-      </c>
-      <c r="CR2" s="14" t="s">
-        <v>261</v>
-      </c>
-      <c r="CS2" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="CT2" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="CU2" s="14" t="s">
+      <c r="CC2" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="CD2" s="18" t="s">
         <v>174</v>
       </c>
     </row>
@@ -3615,8 +3282,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C5AC4B7-6134-45E3-A57F-AB8A9E04659F}">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/src/test/java/Subscriptions/Data/Option_Positions_Subscription.xlsx
+++ b/src/test/java/Subscriptions/Data/Option_Positions_Subscription.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Automation_OMSAPI\src\test\java\Subscriptions\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0D38162-BF3C-4F05-86B8-A6C980DA5DB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFFB16A0-C441-48B8-A643-3E549E1ACF9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="363" firstSheet="1" activeTab="2" xr2:uid="{A77A0332-03F7-4C79-B0EA-4DB171BB1F0C}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="349" xr2:uid="{A77A0332-03F7-4C79-B0EA-4DB171BB1F0C}"/>
   </bookViews>
   <sheets>
     <sheet name="SubscribeBUYOption_Positions" sheetId="10" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1301" uniqueCount="265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1355" uniqueCount="285">
   <si>
     <t>Content_Type</t>
   </si>
@@ -946,6 +946,88 @@
   </si>
   <si>
     <t>/int/ord/api/v3/subscription/optionpositions/unsubscribe</t>
+  </si>
+  <si>
+    <t>Order_Creation_BasePath</t>
+  </si>
+  <si>
+    <t>Order_OrdType</t>
+  </si>
+  <si>
+    <t>Order_TimeInForce</t>
+  </si>
+  <si>
+    <t>Order_Destination</t>
+  </si>
+  <si>
+    <t>Order_Price</t>
+  </si>
+  <si>
+    <t>Order_StopPx</t>
+  </si>
+  <si>
+    <t>Order_PutOrCall</t>
+  </si>
+  <si>
+    <t>Order_StrikePrice</t>
+  </si>
+  <si>
+    <t>Order_CoveredOrUncovered</t>
+  </si>
+  <si>
+    <t>Order_CustomerOrFirm</t>
+  </si>
+  <si>
+    <t>Order_Cmta</t>
+  </si>
+  <si>
+    <t>Order_OpenClose</t>
+  </si>
+  <si>
+    <t>Order_ExpiryDate</t>
+  </si>
+  <si>
+    <t>Order_Creation_StatusCode</t>
+  </si>
+  <si>
+    <t>88.0</t>
+  </si>
+  <si>
+    <t>Position_ID</t>
+  </si>
+  <si>
+    <t>LSL-BRK.B Aug 30, 2099 88.00 PUT-1LOC-LOCA-123456-M</t>
+  </si>
+  <si>
+    <t>Validate_Position_OptionDesc</t>
+  </si>
+  <si>
+    <t>BRK.B Aug 30, 2099 88.00 PUT</t>
+  </si>
+  <si>
+    <t>{
+        "OrdType": "2",
+        "Side": "1",
+        "Symbol": "BRK.B",
+        "TimeInForce": "0",
+        "Account": "1LOC-LOCA-123456-M",
+        "destination": "-OPTFIX",
+        "OrderQty": 10,
+        "Price": 40,
+        "StopPx":0,
+        "ComplianceID": null,
+        "ContactName": null,
+        "LocateID": null,
+        "LocateRate": 0,
+        "LocateRequired": false,
+        "StrikePrice": 88,
+        "PutOrCall": "PUT",
+        "CoveredOrUncovered": "0",
+        "CustomerOrFirm": "0",
+        "ExpiryDate": "2099-08-30T13:20:00.000Z",
+        "Cmta": "294",
+        "OpenClose": "O"
+    }</t>
   </si>
 </sst>
 </file>
@@ -1014,7 +1096,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -1057,7 +1139,17 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1372,10 +1464,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41536820-D56A-41BA-A388-6D13CFA1508B}">
-  <dimension ref="A1:CD2"/>
+  <dimension ref="A1:CN2"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1385,86 +1477,83 @@
     <col min="3" max="3" width="53" style="14" customWidth="1"/>
     <col min="4" max="4" width="15.5703125" style="14" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="36.7109375" style="14" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.140625" style="14" customWidth="1"/>
-    <col min="7" max="7" width="27" style="14" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="27.5703125" style="14" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="30.42578125" style="14" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="30.42578125" style="14" customWidth="1"/>
-    <col min="12" max="12" width="30.140625" style="14" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="155.42578125" style="14" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="32" style="14" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="30.5703125" style="14" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="49.28515625" style="14" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11" style="14" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="28.85546875" style="14" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="32.42578125" style="14" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="26.7109375" style="14" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="33.28515625" style="14" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="30.140625" style="14" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="33.28515625" style="14" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="23.42578125" style="14" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="31.28515625" style="14" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="36.7109375" style="14" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="47.42578125" style="14" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="31.85546875" style="14" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="24.5703125" style="14" customWidth="1"/>
-    <col min="30" max="30" width="26" style="14" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="21.7109375" style="14" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="24.42578125" style="14" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="25" style="14" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="26.28515625" style="14" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="22.28515625" style="14" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="27.42578125" style="14" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="28.28515625" style="14" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="27.28515625" style="14" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="23.28515625" style="14" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="50.85546875" style="14" bestFit="1" customWidth="1"/>
+    <col min="7" max="21" width="30.42578125" style="14" customWidth="1"/>
+    <col min="22" max="22" width="155.42578125" style="14" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="32" style="14" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="30.5703125" style="14" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="49.28515625" style="14" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="11" style="14" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="28.85546875" style="14" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="32.42578125" style="14" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="26.7109375" style="14" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="33.28515625" style="14" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="30.140625" style="14" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="33.28515625" style="14" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="23.42578125" style="14" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="31.28515625" style="14" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="36.7109375" style="14" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="47.42578125" style="14" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="31.85546875" style="14" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="24.5703125" style="14" customWidth="1"/>
+    <col min="39" max="39" width="26" style="14" bestFit="1" customWidth="1"/>
     <col min="40" max="40" width="21.7109375" style="14" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="26.7109375" style="14" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="31.28515625" style="14" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="36.42578125" style="14" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="27.85546875" style="14" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="29" style="14" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="26.85546875" style="14" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="31.140625" style="14" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="35.42578125" style="14" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="33" style="14" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="32.140625" style="14" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="38.5703125" style="14" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="35" style="14" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="31.42578125" style="14" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="41.140625" style="14" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="35.85546875" style="14" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="38.42578125" style="14" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="37" style="14" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="31.42578125" style="14" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="31.7109375" style="14" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="41.42578125" style="14" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="37.140625" style="14" bestFit="1" customWidth="1"/>
-    <col min="62" max="62" width="36.7109375" style="14" bestFit="1" customWidth="1"/>
-    <col min="63" max="63" width="35.5703125" style="14" bestFit="1" customWidth="1"/>
-    <col min="64" max="64" width="42.5703125" style="14" bestFit="1" customWidth="1"/>
-    <col min="65" max="65" width="46.5703125" style="14" bestFit="1" customWidth="1"/>
-    <col min="66" max="66" width="36.42578125" style="14" bestFit="1" customWidth="1"/>
-    <col min="67" max="67" width="34.140625" style="14" bestFit="1" customWidth="1"/>
-    <col min="68" max="68" width="35.5703125" style="14" bestFit="1" customWidth="1"/>
-    <col min="69" max="69" width="33" style="14" bestFit="1" customWidth="1"/>
-    <col min="70" max="70" width="46.5703125" style="14" bestFit="1" customWidth="1"/>
-    <col min="71" max="71" width="44" style="14" bestFit="1" customWidth="1"/>
-    <col min="72" max="72" width="41.7109375" style="14" bestFit="1" customWidth="1"/>
-    <col min="73" max="73" width="39.28515625" style="14" bestFit="1" customWidth="1"/>
-    <col min="74" max="74" width="39.85546875" style="14" bestFit="1" customWidth="1"/>
-    <col min="75" max="75" width="34.140625" style="14" bestFit="1" customWidth="1"/>
-    <col min="76" max="76" width="28.7109375" style="14" bestFit="1" customWidth="1"/>
-    <col min="77" max="77" width="34.42578125" style="14" bestFit="1" customWidth="1"/>
-    <col min="78" max="78" width="31" style="14" bestFit="1" customWidth="1"/>
-    <col min="79" max="79" width="37.140625" style="14" bestFit="1" customWidth="1"/>
-    <col min="80" max="80" width="33.85546875" style="14" bestFit="1" customWidth="1"/>
-    <col min="81" max="81" width="42.85546875" style="14" bestFit="1" customWidth="1"/>
-    <col min="82" max="82" width="31.42578125" style="14" bestFit="1" customWidth="1"/>
-    <col min="83" max="16384" width="9.140625" style="14"/>
+    <col min="41" max="41" width="24.42578125" style="14" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="25" style="14" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="26.28515625" style="14" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="22.28515625" style="14" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="27.42578125" style="14" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="28.28515625" style="14" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="27.28515625" style="14" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="23.28515625" style="14" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="21.7109375" style="14" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="26.7109375" style="14" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="31.28515625" style="14" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="36.42578125" style="14" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="27.85546875" style="14" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="29" style="14" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="26.85546875" style="14" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="31.140625" style="14" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="35.42578125" style="14" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="33" style="14" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="32.140625" style="14" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="38.5703125" style="14" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="35" style="14" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="31.42578125" style="14" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="41.140625" style="14" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="35.85546875" style="14" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="38.42578125" style="14" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="37" style="14" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="31.42578125" style="14" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="31.7109375" style="14" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="41.42578125" style="14" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="37.140625" style="14" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="36.7109375" style="14" bestFit="1" customWidth="1"/>
+    <col min="72" max="72" width="36.7109375" style="14" customWidth="1"/>
+    <col min="73" max="73" width="35.5703125" style="14" bestFit="1" customWidth="1"/>
+    <col min="74" max="74" width="42.5703125" style="14" bestFit="1" customWidth="1"/>
+    <col min="75" max="75" width="46.5703125" style="14" bestFit="1" customWidth="1"/>
+    <col min="76" max="76" width="36.42578125" style="14" bestFit="1" customWidth="1"/>
+    <col min="77" max="77" width="34.140625" style="14" bestFit="1" customWidth="1"/>
+    <col min="78" max="78" width="35.5703125" style="14" bestFit="1" customWidth="1"/>
+    <col min="79" max="79" width="33" style="14" bestFit="1" customWidth="1"/>
+    <col min="80" max="80" width="46.5703125" style="14" bestFit="1" customWidth="1"/>
+    <col min="81" max="81" width="44" style="14" bestFit="1" customWidth="1"/>
+    <col min="82" max="82" width="41.7109375" style="14" bestFit="1" customWidth="1"/>
+    <col min="83" max="83" width="39.28515625" style="14" bestFit="1" customWidth="1"/>
+    <col min="84" max="84" width="39.85546875" style="14" bestFit="1" customWidth="1"/>
+    <col min="85" max="85" width="34.140625" style="14" bestFit="1" customWidth="1"/>
+    <col min="86" max="86" width="28.7109375" style="14" bestFit="1" customWidth="1"/>
+    <col min="87" max="87" width="34.42578125" style="14" bestFit="1" customWidth="1"/>
+    <col min="88" max="88" width="31" style="14" bestFit="1" customWidth="1"/>
+    <col min="89" max="89" width="37.140625" style="14" bestFit="1" customWidth="1"/>
+    <col min="90" max="90" width="33.85546875" style="14" bestFit="1" customWidth="1"/>
+    <col min="91" max="91" width="42.85546875" style="14" bestFit="1" customWidth="1"/>
+    <col min="92" max="92" width="31.42578125" style="14" bestFit="1" customWidth="1"/>
+    <col min="93" max="16384" width="9.140625" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>153</v>
       </c>
@@ -1480,243 +1569,273 @@
       <c r="E1" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>9</v>
+      <c r="F1" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>14</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>10</v>
+        <v>265</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>157</v>
+        <v>266</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>158</v>
+        <v>267</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>159</v>
+        <v>268</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>187</v>
+        <v>269</v>
       </c>
       <c r="M1" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="V1" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="W1" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="X1" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="Y1" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="Z1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="AA1" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="AB1" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="AC1" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="AD1" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="AE1" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="AF1" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="AG1" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="Y1" s="2" t="s">
+      <c r="AH1" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="Z1" s="2" t="s">
+      <c r="AI1" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="AA1" s="2" t="s">
+      <c r="AJ1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="AB1" s="2" t="s">
+      <c r="AK1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="AC1" s="2" t="s">
+      <c r="AL1" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="AD1" s="2" t="s">
+      <c r="AM1" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="AE1" s="6" t="s">
+      <c r="AN1" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="AF1" s="2" t="s">
+      <c r="AO1" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="AG1" s="2" t="s">
+      <c r="AP1" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="AH1" s="6" t="s">
+      <c r="AQ1" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="AI1" s="6" t="s">
+      <c r="AR1" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="AJ1" s="6" t="s">
+      <c r="AS1" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="AK1" s="2" t="s">
+      <c r="AT1" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="AL1" s="2" t="s">
+      <c r="AU1" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="AM1" s="2" t="s">
+      <c r="AV1" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="AN1" s="2" t="s">
+      <c r="AW1" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="AO1" s="2" t="s">
+      <c r="AX1" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="AP1" s="2" t="s">
+      <c r="AY1" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="AQ1" s="2" t="s">
+      <c r="AZ1" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="AR1" s="2" t="s">
+      <c r="BA1" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AS1" s="2" t="s">
+      <c r="BB1" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="AT1" s="2" t="s">
+      <c r="BC1" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="AU1" s="2" t="s">
+      <c r="BD1" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="AV1" s="2" t="s">
+      <c r="BE1" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="AW1" s="2" t="s">
+      <c r="BF1" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="AX1" s="2" t="s">
+      <c r="BG1" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="AY1" s="2" t="s">
+      <c r="BH1" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="AZ1" s="2" t="s">
+      <c r="BI1" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="BA1" s="2" t="s">
+      <c r="BJ1" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="BB1" s="2" t="s">
+      <c r="BK1" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="BC1" s="2" t="s">
+      <c r="BL1" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="BD1" s="2" t="s">
+      <c r="BM1" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="BE1" s="2" t="s">
+      <c r="BN1" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="BF1" s="2" t="s">
+      <c r="BO1" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="BG1" s="2" t="s">
+      <c r="BP1" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="BH1" s="2" t="s">
+      <c r="BQ1" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="BI1" s="2" t="s">
+      <c r="BR1" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="BJ1" s="2" t="s">
+      <c r="BS1" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="BK1" s="2" t="s">
+      <c r="BT1" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="BU1" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="BL1" s="2" t="s">
+      <c r="BV1" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="BM1" s="2" t="s">
+      <c r="BW1" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="BN1" s="2" t="s">
+      <c r="BX1" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="BO1" s="2" t="s">
+      <c r="BY1" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="BP1" s="2" t="s">
+      <c r="BZ1" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="BQ1" s="2" t="s">
+      <c r="CA1" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="BR1" s="2" t="s">
+      <c r="CB1" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="BS1" s="2" t="s">
+      <c r="CC1" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="BT1" s="2" t="s">
+      <c r="CD1" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="BU1" s="2" t="s">
+      <c r="CE1" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="BV1" s="2" t="s">
+      <c r="CF1" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="BW1" s="2" t="s">
+      <c r="CG1" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="BX1" s="2" t="s">
+      <c r="CH1" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="BY1" s="2" t="s">
+      <c r="CI1" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="BZ1" s="2" t="s">
+      <c r="CJ1" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="CA1" s="2" t="s">
+      <c r="CK1" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="CB1" s="2" t="s">
+      <c r="CL1" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="CC1" s="2" t="s">
+      <c r="CM1" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="CD1" s="2" t="s">
+      <c r="CN1" s="2" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="2" spans="1:82" x14ac:dyDescent="0.25">
-      <c r="A2" s="14" t="s">
+    <row r="2" spans="1:92" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="21" t="s">
         <v>259</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="21" t="s">
         <v>50</v>
       </c>
       <c r="C2" s="3" t="s">
@@ -1729,234 +1848,264 @@
         <v>200</v>
       </c>
       <c r="F2" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="G2" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="N2" s="18" t="s">
+        <v>160</v>
+      </c>
+      <c r="O2" s="19">
+        <v>88</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="R2" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="S2" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="T2" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="U2" s="20">
+        <v>200</v>
+      </c>
+      <c r="V2" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="W2" s="3">
+        <v>200</v>
+      </c>
+      <c r="X2" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y2" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="Z2" s="3">
+        <v>200</v>
+      </c>
+      <c r="AA2" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AB2" s="3">
+        <v>2</v>
+      </c>
+      <c r="AC2" s="3">
+        <v>1</v>
+      </c>
+      <c r="AD2" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="AE2" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="AF2" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="AG2" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="AH2" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="AI2" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ2" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="AK2" s="3">
+        <v>200</v>
+      </c>
+      <c r="AL2" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM2" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="AN2" s="3">
+        <v>1</v>
+      </c>
+      <c r="AO2" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="AP2" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="AQ2" s="3">
+        <v>10</v>
+      </c>
+      <c r="AR2" s="3">
+        <v>40</v>
+      </c>
+      <c r="AS2" s="3">
+        <v>2</v>
+      </c>
+      <c r="AT2" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="AU2" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="AV2" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="AW2" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="AX2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="AY2" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="AZ2" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="BA2" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="BB2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="BC2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="BD2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="BE2" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="BF2" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="BG2" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="BH2" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI2" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="BJ2" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="BK2" s="21">
+        <v>2</v>
+      </c>
+      <c r="BL2" s="21">
+        <v>1</v>
+      </c>
+      <c r="BM2" s="21">
+        <v>0</v>
+      </c>
+      <c r="BN2" s="21">
+        <v>0</v>
+      </c>
+      <c r="BO2" s="21" t="s">
+        <v>174</v>
+      </c>
+      <c r="BP2" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="BQ2" s="21" t="s">
+        <v>219</v>
+      </c>
+      <c r="BR2" s="21" t="s">
         <v>173</v>
       </c>
-      <c r="H2" s="15" t="s">
-        <v>174</v>
-      </c>
-      <c r="I2" s="15" t="s">
+      <c r="BS2" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="BT2" s="21" t="s">
+        <v>283</v>
+      </c>
+      <c r="BU2" s="21">
+        <v>30</v>
+      </c>
+      <c r="BV2" s="21">
+        <v>209908</v>
+      </c>
+      <c r="BW2" s="21" t="s">
+        <v>220</v>
+      </c>
+      <c r="BX2" s="21" t="s">
+        <v>221</v>
+      </c>
+      <c r="BY2" s="21" t="s">
+        <v>279</v>
+      </c>
+      <c r="BZ2" s="21" t="s">
+        <v>223</v>
+      </c>
+      <c r="CA2" s="21" t="s">
         <v>160</v>
       </c>
-      <c r="J2" s="15" t="s">
-        <v>225</v>
-      </c>
-      <c r="K2" s="13" t="s">
-        <v>161</v>
-      </c>
-      <c r="L2" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="M2" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="N2" s="3">
-        <v>200</v>
-      </c>
-      <c r="O2" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="P2" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>200</v>
-      </c>
-      <c r="R2" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="S2" s="3">
-        <v>2</v>
-      </c>
-      <c r="T2" s="3">
-        <v>1</v>
-      </c>
-      <c r="U2" s="3" t="s">
+      <c r="CB2" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="CC2" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="CD2" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="CE2" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="CF2" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="CG2" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="CH2" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="CI2" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="CJ2" s="21" t="s">
         <v>173</v>
       </c>
-      <c r="V2" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="W2" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="X2" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="Y2" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="Z2" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="AA2" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="AB2" s="3">
-        <v>200</v>
-      </c>
-      <c r="AC2" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="AD2" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="AE2" s="3">
-        <v>1</v>
-      </c>
-      <c r="AF2" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="AG2" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="AH2" s="3">
-        <v>10</v>
-      </c>
-      <c r="AI2" s="3">
-        <v>40</v>
-      </c>
-      <c r="AJ2" s="3">
-        <v>2</v>
-      </c>
-      <c r="AK2" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="AL2" s="3" t="s">
+      <c r="CK2" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="CL2" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="AM2" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="AN2" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="AO2" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="AP2" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="AQ2" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="AR2" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="AS2" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="AT2" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="AU2" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="AV2" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="AW2" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="AX2" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="AY2" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="AZ2" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="BA2" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="BB2" s="14">
-        <v>2</v>
-      </c>
-      <c r="BC2" s="14">
-        <v>1</v>
-      </c>
-      <c r="BD2" s="14">
-        <v>0</v>
-      </c>
-      <c r="BE2" s="14">
-        <v>0</v>
-      </c>
-      <c r="BF2" s="14" t="s">
-        <v>174</v>
-      </c>
-      <c r="BG2" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="BH2" s="14" t="s">
-        <v>219</v>
-      </c>
-      <c r="BI2" s="14" t="s">
-        <v>173</v>
-      </c>
-      <c r="BJ2" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="BK2" s="14">
-        <v>30</v>
-      </c>
-      <c r="BL2" s="14">
-        <v>209908</v>
-      </c>
-      <c r="BM2" s="14" t="s">
-        <v>220</v>
-      </c>
-      <c r="BN2" s="14" t="s">
-        <v>221</v>
-      </c>
-      <c r="BO2" s="14" t="s">
-        <v>222</v>
-      </c>
-      <c r="BP2" s="14" t="s">
-        <v>223</v>
-      </c>
-      <c r="BQ2" s="14" t="s">
-        <v>160</v>
-      </c>
-      <c r="BR2" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="BS2" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="BT2" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="BU2" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="BV2" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="BW2" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="BX2" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="BY2" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="BZ2" s="14" t="s">
-        <v>173</v>
-      </c>
-      <c r="CA2" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="CB2" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="CC2" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="CD2" s="14" t="s">
+      <c r="CM2" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="CN2" s="21" t="s">
         <v>174</v>
       </c>
     </row>
@@ -1968,10 +2117,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30BCD8FC-EB92-4047-A4A0-66F914093932}">
-  <dimension ref="A1:DI2"/>
+  <dimension ref="A1:DS2"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="M13" sqref="M13"/>
+    <sheetView topLeftCell="R1" workbookViewId="0">
+      <selection activeCell="V15" sqref="V15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1981,91 +2130,88 @@
     <col min="3" max="3" width="53" style="14" customWidth="1"/>
     <col min="4" max="4" width="15.5703125" style="14" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="36.7109375" style="14" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.140625" style="14" customWidth="1"/>
-    <col min="7" max="7" width="27" style="14" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="27.5703125" style="14" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="30.42578125" style="14" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="30.42578125" style="14" customWidth="1"/>
-    <col min="12" max="12" width="30.140625" style="14" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="73.7109375" style="14" customWidth="1"/>
-    <col min="15" max="15" width="32" style="14" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="30.5703125" style="14" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="49.28515625" style="14" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="11" style="14" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="28.85546875" style="14" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="32.42578125" style="14" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="26.7109375" style="14" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="33.28515625" style="14" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="30.140625" style="14" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="33.28515625" style="14" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="23.42578125" style="14" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="31.28515625" style="14" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="31.28515625" style="14" customWidth="1"/>
-    <col min="28" max="28" width="36.7109375" style="14" bestFit="1" customWidth="1"/>
-    <col min="29" max="37" width="36.7109375" style="14" customWidth="1"/>
-    <col min="38" max="38" width="42.28515625" style="14" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="47.42578125" style="14" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="31.85546875" style="14" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="24.5703125" style="14" customWidth="1"/>
-    <col min="42" max="42" width="26" style="14" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="26.140625" style="14" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="24.42578125" style="14" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="25" style="14" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="30.7109375" style="14" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="26.7109375" style="14" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="31.85546875" style="14" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="28.28515625" style="14" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="27.28515625" style="14" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="23.28515625" style="14" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="21.7109375" style="14" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="31.140625" style="14" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="35.7109375" style="14" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="36.42578125" style="14" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="27.85546875" style="14" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="29" style="14" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="26.85546875" style="14" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="31.140625" style="14" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="39.85546875" style="14" bestFit="1" customWidth="1"/>
-    <col min="61" max="78" width="35.42578125" style="14" customWidth="1"/>
-    <col min="79" max="79" width="39.85546875" style="14" bestFit="1" customWidth="1"/>
-    <col min="80" max="80" width="33" style="14" bestFit="1" customWidth="1"/>
-    <col min="81" max="81" width="32.140625" style="14" bestFit="1" customWidth="1"/>
-    <col min="82" max="82" width="38.5703125" style="14" bestFit="1" customWidth="1"/>
-    <col min="83" max="83" width="35" style="14" bestFit="1" customWidth="1"/>
-    <col min="84" max="84" width="31.42578125" style="14" bestFit="1" customWidth="1"/>
-    <col min="85" max="85" width="41.140625" style="14" bestFit="1" customWidth="1"/>
-    <col min="86" max="86" width="35.85546875" style="14" bestFit="1" customWidth="1"/>
-    <col min="87" max="87" width="38.42578125" style="14" bestFit="1" customWidth="1"/>
-    <col min="88" max="88" width="37" style="14" bestFit="1" customWidth="1"/>
-    <col min="89" max="89" width="31.42578125" style="14" bestFit="1" customWidth="1"/>
-    <col min="90" max="90" width="31.7109375" style="14" bestFit="1" customWidth="1"/>
-    <col min="91" max="91" width="41.42578125" style="14" bestFit="1" customWidth="1"/>
-    <col min="92" max="92" width="37.140625" style="14" bestFit="1" customWidth="1"/>
-    <col min="93" max="93" width="36.7109375" style="14" bestFit="1" customWidth="1"/>
-    <col min="94" max="94" width="35.5703125" style="14" bestFit="1" customWidth="1"/>
-    <col min="95" max="95" width="42.5703125" style="14" bestFit="1" customWidth="1"/>
-    <col min="96" max="96" width="46.5703125" style="14" bestFit="1" customWidth="1"/>
-    <col min="97" max="97" width="36.42578125" style="14" bestFit="1" customWidth="1"/>
-    <col min="98" max="98" width="34.140625" style="14" bestFit="1" customWidth="1"/>
-    <col min="99" max="99" width="35.5703125" style="14" bestFit="1" customWidth="1"/>
-    <col min="100" max="100" width="33" style="14" bestFit="1" customWidth="1"/>
-    <col min="101" max="101" width="46.5703125" style="14" bestFit="1" customWidth="1"/>
-    <col min="102" max="102" width="44" style="14" bestFit="1" customWidth="1"/>
-    <col min="103" max="103" width="41.7109375" style="14" bestFit="1" customWidth="1"/>
-    <col min="104" max="104" width="39.28515625" style="14" bestFit="1" customWidth="1"/>
-    <col min="105" max="105" width="39.85546875" style="14" bestFit="1" customWidth="1"/>
-    <col min="106" max="106" width="34.140625" style="14" bestFit="1" customWidth="1"/>
-    <col min="107" max="107" width="28.7109375" style="14" bestFit="1" customWidth="1"/>
-    <col min="108" max="108" width="34.42578125" style="14" bestFit="1" customWidth="1"/>
-    <col min="109" max="109" width="31" style="14" bestFit="1" customWidth="1"/>
-    <col min="110" max="110" width="37.140625" style="14" bestFit="1" customWidth="1"/>
-    <col min="111" max="111" width="33.85546875" style="14" bestFit="1" customWidth="1"/>
-    <col min="112" max="112" width="42.85546875" style="14" bestFit="1" customWidth="1"/>
-    <col min="113" max="113" width="31.42578125" style="14" bestFit="1" customWidth="1"/>
-    <col min="114" max="16384" width="9.140625" style="14"/>
+    <col min="6" max="6" width="50.85546875" style="14" bestFit="1" customWidth="1"/>
+    <col min="7" max="21" width="30.42578125" style="14" customWidth="1"/>
+    <col min="22" max="23" width="73.7109375" style="14" customWidth="1"/>
+    <col min="24" max="24" width="32" style="14" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="30.5703125" style="14" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="49.28515625" style="14" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="11" style="14" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="28.85546875" style="14" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="32.42578125" style="14" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="26.7109375" style="14" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="33.28515625" style="14" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="30.140625" style="14" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="33.28515625" style="14" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="23.42578125" style="14" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="31.28515625" style="14" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="31.28515625" style="14" customWidth="1"/>
+    <col min="37" max="37" width="36.7109375" style="14" bestFit="1" customWidth="1"/>
+    <col min="38" max="46" width="36.7109375" style="14" customWidth="1"/>
+    <col min="47" max="47" width="42.28515625" style="14" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="47.42578125" style="14" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="31.85546875" style="14" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="24.5703125" style="14" customWidth="1"/>
+    <col min="51" max="51" width="26" style="14" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="26.140625" style="14" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="24.42578125" style="14" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="25" style="14" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="30.7109375" style="14" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="26.7109375" style="14" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="31.85546875" style="14" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="28.28515625" style="14" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="27.28515625" style="14" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="23.28515625" style="14" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="21.7109375" style="14" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="31.140625" style="14" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="35.7109375" style="14" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="36.42578125" style="14" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="27.85546875" style="14" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="29" style="14" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="26.85546875" style="14" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="31.140625" style="14" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="39.85546875" style="14" bestFit="1" customWidth="1"/>
+    <col min="70" max="87" width="35.42578125" style="14" customWidth="1"/>
+    <col min="88" max="88" width="39.85546875" style="14" bestFit="1" customWidth="1"/>
+    <col min="89" max="89" width="33" style="14" bestFit="1" customWidth="1"/>
+    <col min="90" max="90" width="32.140625" style="14" bestFit="1" customWidth="1"/>
+    <col min="91" max="91" width="38.5703125" style="14" bestFit="1" customWidth="1"/>
+    <col min="92" max="92" width="35" style="14" bestFit="1" customWidth="1"/>
+    <col min="93" max="93" width="31.42578125" style="14" bestFit="1" customWidth="1"/>
+    <col min="94" max="94" width="41.140625" style="14" bestFit="1" customWidth="1"/>
+    <col min="95" max="95" width="35.85546875" style="14" bestFit="1" customWidth="1"/>
+    <col min="96" max="96" width="38.42578125" style="14" bestFit="1" customWidth="1"/>
+    <col min="97" max="97" width="37" style="14" bestFit="1" customWidth="1"/>
+    <col min="98" max="98" width="31.42578125" style="14" bestFit="1" customWidth="1"/>
+    <col min="99" max="99" width="31.7109375" style="14" bestFit="1" customWidth="1"/>
+    <col min="100" max="100" width="41.42578125" style="14" bestFit="1" customWidth="1"/>
+    <col min="101" max="101" width="37.140625" style="14" bestFit="1" customWidth="1"/>
+    <col min="102" max="102" width="36.7109375" style="14" bestFit="1" customWidth="1"/>
+    <col min="103" max="103" width="36.7109375" style="14" customWidth="1"/>
+    <col min="104" max="104" width="35.5703125" style="14" bestFit="1" customWidth="1"/>
+    <col min="105" max="105" width="42.5703125" style="14" bestFit="1" customWidth="1"/>
+    <col min="106" max="106" width="46.5703125" style="14" bestFit="1" customWidth="1"/>
+    <col min="107" max="107" width="36.42578125" style="14" bestFit="1" customWidth="1"/>
+    <col min="108" max="108" width="34.140625" style="14" bestFit="1" customWidth="1"/>
+    <col min="109" max="109" width="35.5703125" style="14" bestFit="1" customWidth="1"/>
+    <col min="110" max="110" width="33" style="14" bestFit="1" customWidth="1"/>
+    <col min="111" max="111" width="46.5703125" style="14" bestFit="1" customWidth="1"/>
+    <col min="112" max="112" width="44" style="14" bestFit="1" customWidth="1"/>
+    <col min="113" max="113" width="41.7109375" style="14" bestFit="1" customWidth="1"/>
+    <col min="114" max="114" width="39.28515625" style="14" bestFit="1" customWidth="1"/>
+    <col min="115" max="115" width="39.85546875" style="14" bestFit="1" customWidth="1"/>
+    <col min="116" max="116" width="34.140625" style="14" bestFit="1" customWidth="1"/>
+    <col min="117" max="117" width="28.7109375" style="14" bestFit="1" customWidth="1"/>
+    <col min="118" max="118" width="34.42578125" style="14" bestFit="1" customWidth="1"/>
+    <col min="119" max="119" width="31" style="14" bestFit="1" customWidth="1"/>
+    <col min="120" max="120" width="37.140625" style="14" bestFit="1" customWidth="1"/>
+    <col min="121" max="121" width="33.85546875" style="14" bestFit="1" customWidth="1"/>
+    <col min="122" max="122" width="42.85546875" style="14" bestFit="1" customWidth="1"/>
+    <col min="123" max="123" width="31.42578125" style="14" bestFit="1" customWidth="1"/>
+    <col min="124" max="16384" width="9.140625" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:113" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:123" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>153</v>
       </c>
@@ -2081,332 +2227,362 @@
       <c r="E1" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>9</v>
+      <c r="F1" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>14</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>10</v>
+        <v>265</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>157</v>
+        <v>266</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>158</v>
+        <v>267</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>159</v>
+        <v>268</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>187</v>
+        <v>269</v>
       </c>
       <c r="M1" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="V1" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="W1" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="X1" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="Y1" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="Z1" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="AA1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="AB1" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="AC1" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="AD1" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="AE1" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="AF1" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="AG1" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="Y1" s="2" t="s">
+      <c r="AH1" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="Z1" s="2" t="s">
+      <c r="AI1" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="AA1" s="2" t="s">
+      <c r="AJ1" s="2" t="s">
         <v>254</v>
       </c>
-      <c r="AB1" s="2" t="s">
+      <c r="AK1" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="AC1" s="2" t="s">
+      <c r="AL1" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="AD1" s="2" t="s">
+      <c r="AM1" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="AE1" s="2" t="s">
+      <c r="AN1" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="AF1" s="2" t="s">
+      <c r="AO1" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="AG1" s="2" t="s">
+      <c r="AP1" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="AH1" s="2" t="s">
+      <c r="AQ1" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="AI1" s="2" t="s">
+      <c r="AR1" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="AJ1" s="2" t="s">
+      <c r="AS1" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="AK1" s="2" t="s">
+      <c r="AT1" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="AL1" s="2" t="s">
+      <c r="AU1" s="2" t="s">
         <v>247</v>
       </c>
-      <c r="AM1" s="2" t="s">
+      <c r="AV1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="AN1" s="2" t="s">
+      <c r="AW1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="AO1" s="2" t="s">
+      <c r="AX1" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="AP1" s="2" t="s">
+      <c r="AY1" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="AQ1" s="6" t="s">
+      <c r="AZ1" s="6" t="s">
         <v>249</v>
       </c>
-      <c r="AR1" s="2" t="s">
+      <c r="BA1" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="AS1" s="2" t="s">
+      <c r="BB1" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="AT1" s="6" t="s">
+      <c r="BC1" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="AU1" s="6" t="s">
+      <c r="BD1" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="AV1" s="6" t="s">
+      <c r="BE1" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="AW1" s="2" t="s">
+      <c r="BF1" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="AX1" s="2" t="s">
+      <c r="BG1" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="AY1" s="2" t="s">
+      <c r="BH1" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="AZ1" s="2" t="s">
+      <c r="BI1" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="BA1" s="2" t="s">
+      <c r="BJ1" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="BB1" s="2" t="s">
+      <c r="BK1" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="BC1" s="2" t="s">
+      <c r="BL1" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="BD1" s="2" t="s">
+      <c r="BM1" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="BE1" s="2" t="s">
+      <c r="BN1" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="BF1" s="2" t="s">
+      <c r="BO1" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="BG1" s="2" t="s">
+      <c r="BP1" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="BH1" s="2" t="s">
+      <c r="BQ1" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="BI1" s="2" t="s">
+      <c r="BR1" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="BJ1" s="6" t="s">
+      <c r="BS1" s="6" t="s">
         <v>251</v>
       </c>
-      <c r="BK1" s="2" t="s">
+      <c r="BT1" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="BL1" s="2" t="s">
+      <c r="BU1" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="BM1" s="6" t="s">
+      <c r="BV1" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="BN1" s="6" t="s">
+      <c r="BW1" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="BO1" s="6" t="s">
+      <c r="BX1" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="BP1" s="2" t="s">
+      <c r="BY1" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="BQ1" s="2" t="s">
+      <c r="BZ1" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="BR1" s="2" t="s">
+      <c r="CA1" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="BS1" s="2" t="s">
+      <c r="CB1" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="BT1" s="2" t="s">
+      <c r="CC1" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="BU1" s="2" t="s">
+      <c r="CD1" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="BV1" s="2" t="s">
+      <c r="CE1" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="BW1" s="2" t="s">
+      <c r="CF1" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="BX1" s="2" t="s">
+      <c r="CG1" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="BY1" s="2" t="s">
+      <c r="CH1" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="BZ1" s="2" t="s">
+      <c r="CI1" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="CA1" s="2" t="s">
+      <c r="CJ1" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="CB1" s="2" t="s">
+      <c r="CK1" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="CC1" s="2" t="s">
+      <c r="CL1" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="CD1" s="2" t="s">
+      <c r="CM1" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="CE1" s="2" t="s">
+      <c r="CN1" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="CF1" s="2" t="s">
+      <c r="CO1" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="CG1" s="2" t="s">
+      <c r="CP1" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="CH1" s="2" t="s">
+      <c r="CQ1" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="CI1" s="2" t="s">
+      <c r="CR1" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="CJ1" s="2" t="s">
+      <c r="CS1" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="CK1" s="2" t="s">
+      <c r="CT1" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="CL1" s="2" t="s">
+      <c r="CU1" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="CM1" s="2" t="s">
+      <c r="CV1" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="CN1" s="2" t="s">
+      <c r="CW1" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="CO1" s="2" t="s">
+      <c r="CX1" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="CP1" s="2" t="s">
+      <c r="CY1" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="CZ1" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="CQ1" s="2" t="s">
+      <c r="DA1" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="CR1" s="2" t="s">
+      <c r="DB1" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="CS1" s="2" t="s">
+      <c r="DC1" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="CT1" s="2" t="s">
+      <c r="DD1" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="CU1" s="2" t="s">
+      <c r="DE1" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="CV1" s="2" t="s">
+      <c r="DF1" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="CW1" s="2" t="s">
+      <c r="DG1" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="CX1" s="2" t="s">
+      <c r="DH1" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="CY1" s="2" t="s">
+      <c r="DI1" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="CZ1" s="2" t="s">
+      <c r="DJ1" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="DA1" s="2" t="s">
+      <c r="DK1" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="DB1" s="2" t="s">
+      <c r="DL1" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="DC1" s="2" t="s">
+      <c r="DM1" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="DD1" s="2" t="s">
+      <c r="DN1" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="DE1" s="2" t="s">
+      <c r="DO1" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="DF1" s="2" t="s">
+      <c r="DP1" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="DG1" s="2" t="s">
+      <c r="DQ1" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="DH1" s="2" t="s">
+      <c r="DR1" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="DI1" s="2" t="s">
+      <c r="DS1" s="2" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="2" spans="1:113" s="3" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:123" s="3" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>258</v>
       </c>
@@ -2423,327 +2599,357 @@
         <v>200</v>
       </c>
       <c r="F2" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="G2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="N2" s="18" t="s">
+        <v>160</v>
+      </c>
+      <c r="O2" s="19">
+        <v>88</v>
+      </c>
+      <c r="P2" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q2" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="R2" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="S2" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="T2" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="U2" s="20">
+        <v>200</v>
+      </c>
+      <c r="V2" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="W2" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="X2" s="3">
+        <v>200</v>
+      </c>
+      <c r="Y2" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="Z2" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="AA2" s="3">
+        <v>200</v>
+      </c>
+      <c r="AB2" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AC2" s="3">
+        <v>2</v>
+      </c>
+      <c r="AD2" s="3">
+        <v>1</v>
+      </c>
+      <c r="AE2" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="AF2" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="AG2" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="AH2" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="AI2" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="AJ2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="AK2" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AL2" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AM2" s="3">
+        <v>2</v>
+      </c>
+      <c r="AN2" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="AO2" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="H2" s="16" t="s">
+      <c r="AP2" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="I2" s="16" t="s">
+      <c r="AQ2" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="AR2" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="AS2" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="AT2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AU2" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AV2" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="AW2" s="3">
+        <v>200</v>
+      </c>
+      <c r="AX2" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="AY2" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="AZ2" s="3">
+        <v>1</v>
+      </c>
+      <c r="BA2" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="BB2" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="BC2" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="BD2" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="BE2" s="3">
+        <v>2</v>
+      </c>
+      <c r="BF2" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="BG2" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="BH2" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI2" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="BJ2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="BK2" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="BL2" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="BM2" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="BN2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="BO2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="BP2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="BQ2" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="BR2" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="BS2" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="BT2" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="BU2" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="BV2" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="BW2" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="BX2" s="3">
+        <v>2</v>
+      </c>
+      <c r="BY2" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="BZ2" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="CA2" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="CB2" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="CC2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="CD2" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="CE2" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="CF2" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="CG2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="CH2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="CI2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="CJ2" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="CK2" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="CL2" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="CM2" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="CN2" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="CO2" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="CP2" s="3">
+        <v>2</v>
+      </c>
+      <c r="CQ2" s="3">
+        <v>1</v>
+      </c>
+      <c r="CR2" s="3">
+        <v>0</v>
+      </c>
+      <c r="CS2" s="3">
+        <v>0</v>
+      </c>
+      <c r="CT2" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="CU2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="CV2" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="CW2" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="CX2" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="CY2" s="14" t="s">
+        <v>283</v>
+      </c>
+      <c r="CZ2" s="3">
+        <v>30</v>
+      </c>
+      <c r="DA2" s="3">
+        <v>209908</v>
+      </c>
+      <c r="DB2" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="DC2" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="DD2" s="14" t="s">
+        <v>279</v>
+      </c>
+      <c r="DE2" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="DF2" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="J2" s="16" t="s">
-        <v>225</v>
-      </c>
-      <c r="K2" s="17" t="s">
-        <v>161</v>
-      </c>
-      <c r="L2" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="M2" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="N2" s="3" t="s">
-        <v>238</v>
-      </c>
-      <c r="O2" s="3">
-        <v>200</v>
-      </c>
-      <c r="P2" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q2" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="R2" s="3">
-        <v>200</v>
-      </c>
-      <c r="S2" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="T2" s="3">
-        <v>2</v>
-      </c>
-      <c r="U2" s="3">
-        <v>1</v>
-      </c>
-      <c r="V2" s="3" t="s">
+      <c r="DG2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="DH2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="DI2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="DJ2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="DK2" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="DL2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="DM2" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="DN2" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="DO2" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="W2" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="X2" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="Y2" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="Z2" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="AA2" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="AB2" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="AC2" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="AD2" s="3">
-        <v>2</v>
-      </c>
-      <c r="AE2" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="AF2" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="AG2" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="AH2" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="AI2" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="AJ2" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="AK2" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="AL2" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="AM2" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="AN2" s="3">
-        <v>200</v>
-      </c>
-      <c r="AO2" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="AP2" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="AQ2" s="3">
-        <v>1</v>
-      </c>
-      <c r="AR2" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="AS2" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="AT2" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="AU2" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="AV2" s="3">
-        <v>2</v>
-      </c>
-      <c r="AW2" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="AX2" s="3" t="s">
+      <c r="DP2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="DQ2" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="AY2" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="AZ2" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="BA2" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="BB2" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="BC2" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="BD2" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="BE2" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="BF2" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="BG2" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="BH2" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="BI2" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="BJ2" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="BK2" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="BL2" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="BM2" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="BN2" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="BO2" s="3">
-        <v>2</v>
-      </c>
-      <c r="BP2" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="BQ2" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="BR2" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="BS2" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="BT2" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="BU2" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="BV2" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="BW2" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="BX2" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="BY2" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="BZ2" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="CA2" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="CB2" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="CC2" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="CD2" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="CE2" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="CF2" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="CG2" s="3">
-        <v>2</v>
-      </c>
-      <c r="CH2" s="3">
-        <v>1</v>
-      </c>
-      <c r="CI2" s="3">
-        <v>0</v>
-      </c>
-      <c r="CJ2" s="3">
-        <v>0</v>
-      </c>
-      <c r="CK2" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="CL2" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="CM2" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="CN2" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="CO2" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="CP2" s="3">
-        <v>30</v>
-      </c>
-      <c r="CQ2" s="3">
-        <v>209908</v>
-      </c>
-      <c r="CR2" s="3" t="s">
-        <v>220</v>
-      </c>
-      <c r="CS2" s="3" t="s">
-        <v>221</v>
-      </c>
-      <c r="CT2" s="3" t="s">
-        <v>222</v>
-      </c>
-      <c r="CU2" s="3" t="s">
-        <v>223</v>
-      </c>
-      <c r="CV2" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="CW2" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="CX2" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="CY2" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="CZ2" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="DA2" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="DB2" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="DC2" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="DD2" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="DE2" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="DF2" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="DG2" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="DH2" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="DI2" s="3" t="s">
+      <c r="DR2" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="DS2" s="3" t="s">
         <v>174</v>
       </c>
     </row>
@@ -2755,28 +2961,54 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFD82B76-86B7-46D2-A39A-FB3938032EE5}">
-  <dimension ref="A1:CD2"/>
+  <dimension ref="A1:CN2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="L21" sqref="L21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="26" width="22.7109375" style="14"/>
-    <col min="27" max="27" width="47.42578125" style="14" bestFit="1" customWidth="1"/>
-    <col min="28" max="29" width="22.7109375" style="14"/>
-    <col min="30" max="30" width="30.42578125" style="14" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="26.140625" style="14" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="38.42578125" style="14" customWidth="1"/>
-    <col min="33" max="33" width="37" style="14" customWidth="1"/>
-    <col min="34" max="53" width="22.7109375" style="14"/>
-    <col min="54" max="54" width="41.140625" style="14" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="35.85546875" style="14" bestFit="1" customWidth="1"/>
-    <col min="56" max="16384" width="22.7109375" style="14"/>
+    <col min="1" max="4" width="22.7109375" style="14"/>
+    <col min="5" max="5" width="37.7109375" style="14" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="50.85546875" style="14" bestFit="1" customWidth="1"/>
+    <col min="7" max="20" width="22.7109375" style="14"/>
+    <col min="21" max="21" width="26.28515625" style="14" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="32.85546875" style="14" customWidth="1"/>
+    <col min="23" max="35" width="22.7109375" style="14"/>
+    <col min="36" max="36" width="47.42578125" style="14" bestFit="1" customWidth="1"/>
+    <col min="37" max="38" width="22.7109375" style="14"/>
+    <col min="39" max="39" width="30.42578125" style="14" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="26.140625" style="14" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="38.42578125" style="14" customWidth="1"/>
+    <col min="42" max="42" width="37" style="14" customWidth="1"/>
+    <col min="43" max="62" width="22.7109375" style="14"/>
+    <col min="63" max="63" width="41.140625" style="14" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="35.85546875" style="14" bestFit="1" customWidth="1"/>
+    <col min="65" max="69" width="22.7109375" style="14"/>
+    <col min="70" max="70" width="37.140625" style="14" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="36.7109375" style="14" bestFit="1" customWidth="1"/>
+    <col min="72" max="72" width="36.7109375" style="14" customWidth="1"/>
+    <col min="73" max="73" width="35.5703125" style="14" bestFit="1" customWidth="1"/>
+    <col min="74" max="74" width="42.5703125" style="14" bestFit="1" customWidth="1"/>
+    <col min="75" max="75" width="46.85546875" style="14" bestFit="1" customWidth="1"/>
+    <col min="76" max="76" width="36.42578125" style="14" bestFit="1" customWidth="1"/>
+    <col min="77" max="77" width="34.140625" style="14" bestFit="1" customWidth="1"/>
+    <col min="78" max="78" width="35.5703125" style="14" bestFit="1" customWidth="1"/>
+    <col min="79" max="79" width="33" style="14" bestFit="1" customWidth="1"/>
+    <col min="80" max="80" width="22.7109375" style="14"/>
+    <col min="81" max="81" width="44" style="14" bestFit="1" customWidth="1"/>
+    <col min="82" max="82" width="41.7109375" style="14" bestFit="1" customWidth="1"/>
+    <col min="83" max="83" width="39.28515625" style="14" bestFit="1" customWidth="1"/>
+    <col min="84" max="84" width="39.85546875" style="14" bestFit="1" customWidth="1"/>
+    <col min="85" max="85" width="34.140625" style="14" bestFit="1" customWidth="1"/>
+    <col min="86" max="86" width="28.7109375" style="14" bestFit="1" customWidth="1"/>
+    <col min="87" max="87" width="34.42578125" style="14" bestFit="1" customWidth="1"/>
+    <col min="88" max="88" width="31" style="14" bestFit="1" customWidth="1"/>
+    <col min="89" max="16384" width="22.7109375" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>153</v>
       </c>
@@ -2792,243 +3024,273 @@
       <c r="E1" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>9</v>
+      <c r="F1" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>14</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>10</v>
+        <v>265</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>157</v>
+        <v>266</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>158</v>
+        <v>267</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>159</v>
+        <v>268</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>187</v>
+        <v>269</v>
       </c>
       <c r="M1" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="V1" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="W1" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="X1" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="Y1" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="Z1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="AA1" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="AB1" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="AC1" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="AD1" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="AE1" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="AF1" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="AG1" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="Y1" s="2" t="s">
+      <c r="AH1" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="Z1" s="2" t="s">
+      <c r="AI1" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="AA1" s="2" t="s">
+      <c r="AJ1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="AB1" s="2" t="s">
+      <c r="AK1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="AC1" s="2" t="s">
+      <c r="AL1" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="AD1" s="2" t="s">
+      <c r="AM1" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="AE1" s="6" t="s">
+      <c r="AN1" s="6" t="s">
         <v>251</v>
       </c>
-      <c r="AF1" s="2" t="s">
+      <c r="AO1" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="AG1" s="2" t="s">
+      <c r="AP1" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="AH1" s="6" t="s">
+      <c r="AQ1" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="AI1" s="6" t="s">
+      <c r="AR1" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="AJ1" s="6" t="s">
+      <c r="AS1" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="AK1" s="2" t="s">
+      <c r="AT1" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="AL1" s="2" t="s">
+      <c r="AU1" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="AM1" s="2" t="s">
+      <c r="AV1" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="AN1" s="2" t="s">
+      <c r="AW1" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="AO1" s="2" t="s">
+      <c r="AX1" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="AP1" s="2" t="s">
+      <c r="AY1" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="AQ1" s="2" t="s">
+      <c r="AZ1" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="AR1" s="2" t="s">
+      <c r="BA1" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="AS1" s="2" t="s">
+      <c r="BB1" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="AT1" s="2" t="s">
+      <c r="BC1" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="AU1" s="2" t="s">
+      <c r="BD1" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="AV1" s="2" t="s">
+      <c r="BE1" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="AW1" s="2" t="s">
+      <c r="BF1" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="AX1" s="2" t="s">
+      <c r="BG1" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="AY1" s="2" t="s">
+      <c r="BH1" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="AZ1" s="2" t="s">
+      <c r="BI1" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="BA1" s="2" t="s">
+      <c r="BJ1" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="BB1" s="2" t="s">
+      <c r="BK1" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="BC1" s="2" t="s">
+      <c r="BL1" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="BD1" s="2" t="s">
+      <c r="BM1" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="BE1" s="2" t="s">
+      <c r="BN1" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="BF1" s="2" t="s">
+      <c r="BO1" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="BG1" s="2" t="s">
+      <c r="BP1" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="BH1" s="2" t="s">
+      <c r="BQ1" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="BI1" s="2" t="s">
+      <c r="BR1" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="BJ1" s="2" t="s">
+      <c r="BS1" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="BK1" s="2" t="s">
+      <c r="BT1" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="BU1" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="BL1" s="2" t="s">
+      <c r="BV1" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="BM1" s="2" t="s">
+      <c r="BW1" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="BN1" s="2" t="s">
+      <c r="BX1" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="BO1" s="2" t="s">
+      <c r="BY1" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="BP1" s="2" t="s">
+      <c r="BZ1" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="BQ1" s="2" t="s">
+      <c r="CA1" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="BR1" s="2" t="s">
+      <c r="CB1" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="BS1" s="2" t="s">
+      <c r="CC1" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="BT1" s="2" t="s">
+      <c r="CD1" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="BU1" s="2" t="s">
+      <c r="CE1" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="BV1" s="2" t="s">
+      <c r="CF1" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="BW1" s="2" t="s">
+      <c r="CG1" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="BX1" s="2" t="s">
+      <c r="CH1" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="BY1" s="2" t="s">
+      <c r="CI1" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="BZ1" s="2" t="s">
+      <c r="CJ1" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="CA1" s="2" t="s">
+      <c r="CK1" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="CB1" s="2" t="s">
+      <c r="CL1" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="CC1" s="2" t="s">
+      <c r="CM1" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="CD1" s="2" t="s">
+      <c r="CN1" s="2" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="2" spans="1:82" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="18" t="s">
+    <row r="2" spans="1:92" x14ac:dyDescent="0.25">
+      <c r="A2" s="14" t="s">
         <v>257</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="14" t="s">
         <v>50</v>
       </c>
       <c r="C2" s="3" t="s">
@@ -3041,234 +3303,264 @@
         <v>200</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G2" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="G2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="N2" s="18" t="s">
+        <v>160</v>
+      </c>
+      <c r="O2" s="19">
+        <v>88</v>
+      </c>
+      <c r="P2" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q2" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="R2" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="S2" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="T2" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="U2" s="20">
+        <v>200</v>
+      </c>
+      <c r="V2" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="W2" s="3">
+        <v>200</v>
+      </c>
+      <c r="X2" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y2" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="Z2" s="3">
+        <v>200</v>
+      </c>
+      <c r="AA2" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AB2" s="3">
+        <v>2</v>
+      </c>
+      <c r="AC2" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="AD2" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="H2" s="15" t="s">
+      <c r="AE2" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="I2" s="15" t="s">
-        <v>160</v>
-      </c>
-      <c r="J2" s="15" t="s">
-        <v>225</v>
-      </c>
-      <c r="K2" s="13" t="s">
-        <v>161</v>
-      </c>
-      <c r="L2" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="M2" s="3" t="s">
-        <v>238</v>
-      </c>
-      <c r="N2" s="3">
-        <v>200</v>
-      </c>
-      <c r="O2" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="P2" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>200</v>
-      </c>
-      <c r="R2" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="S2" s="3">
-        <v>2</v>
-      </c>
-      <c r="T2" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="U2" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="V2" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="W2" s="3" t="s">
+      <c r="AF2" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="X2" s="3" t="s">
+      <c r="AG2" s="3" t="s">
         <v>175</v>
-      </c>
-      <c r="Y2" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="Z2" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="AA2" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="AB2" s="3">
-        <v>200</v>
-      </c>
-      <c r="AC2" s="3" t="s">
-        <v>260</v>
-      </c>
-      <c r="AD2" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="AE2" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="AF2" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="AG2" s="3" t="s">
-        <v>174</v>
       </c>
       <c r="AH2" s="3" t="s">
         <v>102</v>
       </c>
       <c r="AI2" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ2" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="AK2" s="3">
+        <v>200</v>
+      </c>
+      <c r="AL2" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="AM2" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="AN2" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="AO2" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="AP2" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="AQ2" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="AR2" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="AJ2" s="3">
+      <c r="AS2" s="3">
         <v>2</v>
       </c>
-      <c r="AK2" s="3" t="s">
+      <c r="AT2" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="AL2" s="3" t="s">
+      <c r="AU2" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="AM2" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="AN2" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="AO2" s="3" t="s">
+      <c r="AV2" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="AW2" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="AX2" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="AP2" s="3" t="s">
+      <c r="AY2" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="AQ2" s="3" t="s">
+      <c r="AZ2" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="AR2" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="AS2" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="AT2" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="AU2" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="AV2" s="3" t="s">
+      <c r="BA2" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="BB2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="BC2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="BD2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="BE2" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="AW2" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="AX2" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="AY2" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="AZ2" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="BA2" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="BB2" s="18">
+      <c r="BF2" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="BG2" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="BH2" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI2" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="BJ2" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="BK2" s="14">
         <v>2</v>
       </c>
-      <c r="BC2" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="BD2" s="18">
+      <c r="BL2" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="BM2" s="14">
         <v>0</v>
       </c>
-      <c r="BE2" s="18">
+      <c r="BN2" s="14">
         <v>0</v>
       </c>
-      <c r="BF2" s="18" t="s">
+      <c r="BO2" s="14" t="s">
         <v>174</v>
       </c>
-      <c r="BG2" s="18" t="s">
+      <c r="BP2" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="BH2" s="18" t="s">
+      <c r="BQ2" s="14" t="s">
         <v>219</v>
       </c>
-      <c r="BI2" s="18" t="s">
+      <c r="BR2" s="14" t="s">
         <v>173</v>
       </c>
-      <c r="BJ2" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="BK2" s="18">
+      <c r="BS2" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="BT2" s="14" t="s">
+        <v>283</v>
+      </c>
+      <c r="BU2" s="14">
         <v>30</v>
       </c>
-      <c r="BL2" s="18">
+      <c r="BV2" s="14">
         <v>209908</v>
       </c>
-      <c r="BM2" s="18" t="s">
+      <c r="BW2" s="14" t="s">
         <v>220</v>
       </c>
-      <c r="BN2" s="18" t="s">
+      <c r="BX2" s="14" t="s">
         <v>221</v>
       </c>
-      <c r="BO2" s="18" t="s">
-        <v>222</v>
-      </c>
-      <c r="BP2" s="18" t="s">
+      <c r="BY2" s="14" t="s">
+        <v>279</v>
+      </c>
+      <c r="BZ2" s="14" t="s">
         <v>223</v>
       </c>
-      <c r="BQ2" s="18" t="s">
+      <c r="CA2" s="14" t="s">
         <v>160</v>
       </c>
-      <c r="BR2" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="BS2" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="BT2" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="BU2" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="BV2" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="BW2" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="BX2" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="BY2" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="BZ2" s="18" t="s">
+      <c r="CB2" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="CC2" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="CD2" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="CE2" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="CF2" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="CG2" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="CH2" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="CI2" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="CJ2" s="14" t="s">
         <v>173</v>
       </c>
-      <c r="CA2" s="18" t="s">
+      <c r="CK2" s="14" t="s">
         <v>261</v>
       </c>
-      <c r="CB2" s="18" t="s">
+      <c r="CL2" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="CC2" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="CD2" s="18" t="s">
+      <c r="CM2" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="CN2" s="14" t="s">
         <v>174</v>
       </c>
     </row>

--- a/src/test/java/Subscriptions/Data/Option_Positions_Subscription.xlsx
+++ b/src/test/java/Subscriptions/Data/Option_Positions_Subscription.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Automation_OMSAPI\src\test\java\Subscriptions\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFFB16A0-C441-48B8-A643-3E549E1ACF9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{684B943A-E9D0-45B0-9F86-4618340E1858}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="349" xr2:uid="{A77A0332-03F7-4C79-B0EA-4DB171BB1F0C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="349" firstSheet="1" activeTab="1" xr2:uid="{A77A0332-03F7-4C79-B0EA-4DB171BB1F0C}"/>
   </bookViews>
   <sheets>
     <sheet name="SubscribeBUYOption_Positions" sheetId="10" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1355" uniqueCount="285">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2127" uniqueCount="344">
   <si>
     <t>Content_Type</t>
   </si>
@@ -823,31 +823,6 @@
     <t>SELL_OptionOrder_Creation_Body</t>
   </si>
   <si>
-    <t>{
-        "OrdType": "2",
-        "Side": "2",
-        "Symbol": "BRK.B",
-        "TimeInForce": "0",
-        "Account": "1LOC-LOCA-123456-M",
-        "destination": "-OPTFIX",
-        "OrderQty": 5,
-        "Price": 40,
-        "StopPx":0,
-        "ComplianceID": null,
-        "ContactName": null,
-        "LocateID": null,
-        "LocateRate": 0,
-        "LocateRequired": false,
-        "StrikePrice": 88,
-        "PutOrCall": "0",
-        "CoveredOrUncovered": "0",
-        "CustomerOrFirm": "0",
-        "ExpiryDate": "2099-08-30T13:20:00.000Z",
-        "Cmta": "294",
-        "OpenClose": "O"
-    }</t>
-  </si>
-  <si>
     <t>SELL_Subscribe_OptionOrder_UserID</t>
   </si>
   <si>
@@ -927,12 +902,6 @@
     <t>Option_SHORT_Position_TC0001</t>
   </si>
   <si>
-    <t>Option_SELL_LONG_Position_TC0001</t>
-  </si>
-  <si>
-    <t>Option_BUY_LONG_Position_TC0001</t>
-  </si>
-  <si>
     <t>SHORTSELL</t>
   </si>
   <si>
@@ -1029,6 +998,522 @@
         "OpenClose": "O"
     }</t>
   </si>
+  <si>
+    <t>LSL-BRK.B Aug 29, 2099 89.00 CALL-1LOC-LOCA-123456-M</t>
+  </si>
+  <si>
+    <t>CALL</t>
+  </si>
+  <si>
+    <t>2099-08-29T13:20:00.000Z</t>
+  </si>
+  <si>
+    <t>{
+        "OrdType": "2",
+        "Side": "1",
+        "Symbol": "BRK.B",
+        "TimeInForce": "0",
+        "Account": "1LOC-LOCA-123456-M",
+        "destination": "-OPTFIX",
+        "OrderQty": 10,
+        "Price": 40,
+        "StopPx":0,
+        "ComplianceID": null,
+        "ContactName": null,
+        "LocateID": null,
+        "LocateRate": 0,
+        "LocateRequired": false,
+        "StrikePrice": 89,
+        "PutOrCall": "CALL",
+        "CoveredOrUncovered": "0",
+        "CustomerOrFirm": "0",
+        "ExpiryDate": "2099-08-29T13:20:00.000Z",
+        "Cmta": "294",
+        "OpenClose": "O"
+    }</t>
+  </si>
+  <si>
+    <t>BRK.B Aug 29, 2099 89.00 CALL</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>209908</t>
+  </si>
+  <si>
+    <t>2099-08-29</t>
+  </si>
+  <si>
+    <t>89.0</t>
+  </si>
+  <si>
+    <t>49</t>
+  </si>
+  <si>
+    <t>Option_SHORT_Position_TC0002</t>
+  </si>
+  <si>
+    <t>Account5</t>
+  </si>
+  <si>
+    <t>Option_BUY_Order_Position_TC0001</t>
+  </si>
+  <si>
+    <t>Option_BUY_Order_Position_TC0002</t>
+  </si>
+  <si>
+    <t>Option_BUY_Order_Position_TC0003</t>
+  </si>
+  <si>
+    <t>Option_BUY_Order_Position_TC0004</t>
+  </si>
+  <si>
+    <t>LSL-BRK.B Aug 30, 2099 90.00 PUT-10005</t>
+  </si>
+  <si>
+    <t>LSL-BRK.B Aug 30, 2099 91.00 CALL-10005</t>
+  </si>
+  <si>
+    <t>{
+        "OrdType": "2",
+        "Side": "1",
+        "Symbol": "BRK.B",
+        "TimeInForce": "0",
+        "Account": "10005",
+        "destination": "-OPTFIX",
+        "OrderQty": 10,
+        "Price": 40,
+        "StopPx":0,
+        "ComplianceID": null,
+        "ContactName": null,
+        "LocateID": null,
+        "LocateRate": 0,
+        "LocateRequired": false,
+        "StrikePrice": 90,
+        "PutOrCall": "PUT",
+        "CoveredOrUncovered": "0",
+        "CustomerOrFirm": "0",
+        "ExpiryDate": "2099-08-30T13:20:00.000Z",
+        "Cmta": "294",
+        "OpenClose": "O"
+    }</t>
+  </si>
+  <si>
+    <t>{
+        "OrdType": "2",
+        "Side": "1",
+        "Symbol": "BRK.B",
+        "TimeInForce": "0",
+        "Account": "10005",
+        "destination": "-OPTFIX",
+        "OrderQty": 10,
+        "Price": 40,
+        "StopPx":0,
+        "ComplianceID": null,
+        "ContactName": null,
+        "LocateID": null,
+        "LocateRate": 0,
+        "LocateRequired": false,
+        "StrikePrice": 91,
+        "PutOrCall": "CALL",
+        "CoveredOrUncovered": "0",
+        "CustomerOrFirm": "0",
+        "ExpiryDate": "2099-08-30T13:20:00.000Z",
+        "Cmta": "294",
+        "OpenClose": "O"
+    }</t>
+  </si>
+  <si>
+    <t>BRK.B Aug 30, 2099 90.00 PUT</t>
+  </si>
+  <si>
+    <t>BRK.B Aug 30, 2099 91.00 CALL</t>
+  </si>
+  <si>
+    <t>90.0</t>
+  </si>
+  <si>
+    <t>91.0</t>
+  </si>
+  <si>
+    <t>Option_SELL_Order_Position_TC0001</t>
+  </si>
+  <si>
+    <t>Option_SELL_Order_Position_TC0002</t>
+  </si>
+  <si>
+    <t>Option_SELL_Order_Position_TC0003</t>
+  </si>
+  <si>
+    <t>Option_SELL_Order_Position_TC0004</t>
+  </si>
+  <si>
+    <t>LSL-BRK.B Aug 30, 2099 70.00 PUT-1LOC-LOCA-123456-M</t>
+  </si>
+  <si>
+    <t>LSL-BRK.B Aug 30, 2099 71.00 PUT-10005</t>
+  </si>
+  <si>
+    <t>LSL-BRK.B Aug 30, 2099 72.00 CALL-1LOC-LOCA-123456-M</t>
+  </si>
+  <si>
+    <t>LSL-BRK.B Aug 30, 2099 73.00 CALL-10005</t>
+  </si>
+  <si>
+    <t>{
+        "OrdType": "2",
+        "Side": "1",
+        "Symbol": "BRK.B",
+        "TimeInForce": "0",
+        "Account": "1LOC-LOCA-123456-M",
+        "destination": "-OPTFIX",
+        "OrderQty": 10,
+        "Price": 45,
+        "StopPx":0,
+        "ComplianceID": null,
+        "ContactName": null,
+        "LocateID": null,
+        "LocateRate": 0,
+        "LocateRequired": false,
+        "StrikePrice": 72,
+        "PutOrCall": "1",
+        "CoveredOrUncovered": "0",
+        "CustomerOrFirm": "0",
+        "ExpiryDate": "2099-08-30T13:20:00.000Z",
+        "Cmta": "294",
+        "OpenClose": "O"
+    }</t>
+  </si>
+  <si>
+    <t>{
+        "OrdType": "2",
+        "Side": "2",
+        "Symbol": "BRK.B",
+        "TimeInForce": "0",
+        "Account": "1LOC-LOCA-123456-M",
+        "destination": "-OPTFIX",
+        "OrderQty": 5,
+        "Price": 40,
+        "StopPx":0,
+        "ComplianceID": null,
+        "ContactName": null,
+        "LocateID": null,
+        "LocateRate": 0,
+        "LocateRequired": false,
+        "StrikePrice": 72,
+        "PutOrCall": "1",
+        "CoveredOrUncovered": "0",
+        "CustomerOrFirm": "0",
+        "ExpiryDate": "2099-08-30T13:20:00.000Z",
+        "Cmta": "294",
+        "OpenClose": "O"
+    }</t>
+  </si>
+  <si>
+    <t>{
+        "OrdType": "2",
+        "Side": "1",
+        "Symbol": "BRK.B",
+        "TimeInForce": "0",
+        "Account": "1LOC-LOCA-123456-M",
+        "destination": "-OPTFIX",
+        "OrderQty": 10,
+        "Price": 45,
+        "StopPx":0,
+        "ComplianceID": null,
+        "ContactName": null,
+        "LocateID": null,
+        "LocateRate": 0,
+        "LocateRequired": false,
+        "StrikePrice": 70,
+        "PutOrCall": "0",
+        "CoveredOrUncovered": "0",
+        "CustomerOrFirm": "0",
+        "ExpiryDate": "2099-08-30T13:20:00.000Z",
+        "Cmta": "294",
+        "OpenClose": "O"
+    }</t>
+  </si>
+  <si>
+    <t>{
+        "OrdType": "2",
+        "Side": "2",
+        "Symbol": "BRK.B",
+        "TimeInForce": "0",
+        "Account": "1LOC-LOCA-123456-M",
+        "destination": "-OPTFIX",
+        "OrderQty": 5,
+        "Price": 40,
+        "StopPx":0,
+        "ComplianceID": null,
+        "ContactName": null,
+        "LocateID": null,
+        "LocateRate": 0,
+        "LocateRequired": false,
+        "StrikePrice": 70,
+        "PutOrCall": "0",
+        "CoveredOrUncovered": "0",
+        "CustomerOrFirm": "0",
+        "ExpiryDate": "2099-08-30T13:20:00.000Z",
+        "Cmta": "294",
+        "OpenClose": "O"
+    }</t>
+  </si>
+  <si>
+    <t>{
+        "OrdType": "2",
+        "Side": "1",
+        "Symbol": "BRK.B",
+        "TimeInForce": "0",
+        "Account": "10005",
+        "destination": "-OPTFIX",
+        "OrderQty": 10,
+        "Price": 45,
+        "StopPx":0,
+        "ComplianceID": null,
+        "ContactName": null,
+        "LocateID": null,
+        "LocateRate": 0,
+        "LocateRequired": false,
+        "StrikePrice": 71,
+        "PutOrCall": "0",
+        "CoveredOrUncovered": "0",
+        "CustomerOrFirm": "0",
+        "ExpiryDate": "2099-08-30T13:20:00.000Z",
+        "Cmta": "294",
+        "OpenClose": "O"
+    }</t>
+  </si>
+  <si>
+    <t>{
+        "OrdType": "2",
+        "Side": "2",
+        "Symbol": "BRK.B",
+        "TimeInForce": "0",
+        "Account": "10005",
+        "destination": "-OPTFIX",
+        "OrderQty": 5,
+        "Price": 40,
+        "StopPx":0,
+        "ComplianceID": null,
+        "ContactName": null,
+        "LocateID": null,
+        "LocateRate": 0,
+        "LocateRequired": false,
+        "StrikePrice": 71,
+        "PutOrCall": "0",
+        "CoveredOrUncovered": "0",
+        "CustomerOrFirm": "0",
+        "ExpiryDate": "2099-08-30T13:20:00.000Z",
+        "Cmta": "294",
+        "OpenClose": "O"
+    }</t>
+  </si>
+  <si>
+    <t>{
+        "OrdType": "2",
+        "Side": "2",
+        "Symbol": "BRK.B",
+        "TimeInForce": "0",
+        "Account": "10005",
+        "destination": "-OPTFIX",
+        "OrderQty": 5,
+        "Price": 40,
+        "StopPx":0,
+        "ComplianceID": null,
+        "ContactName": null,
+        "LocateID": null,
+        "LocateRate": 0,
+        "LocateRequired": false,
+        "StrikePrice": 73,
+        "PutOrCall": "1",
+        "CoveredOrUncovered": "0",
+        "CustomerOrFirm": "0",
+        "ExpiryDate": "2099-08-30T13:20:00.000Z",
+        "Cmta": "294",
+        "OpenClose": "O"
+    }</t>
+  </si>
+  <si>
+    <t>{
+        "OrdType": "2",
+        "Side": "1",
+        "Symbol": "BRK.B",
+        "TimeInForce": "0",
+        "Account": "10005",
+        "destination": "-OPTFIX",
+        "OrderQty": 10,
+        "Price": 45,
+        "StopPx":0,
+        "ComplianceID": null,
+        "ContactName": null,
+        "LocateID": null,
+        "LocateRate": 0,
+        "LocateRequired": false,
+        "StrikePrice": 73,
+        "PutOrCall": "1",
+        "CoveredOrUncovered": "0",
+        "CustomerOrFirm": "0",
+        "ExpiryDate": "2099-08-30T13:20:00.000Z",
+        "Cmta": "294",
+        "OpenClose": "O"
+    }</t>
+  </si>
+  <si>
+    <t>BRK.B Aug 30, 2099 70.00 PUT</t>
+  </si>
+  <si>
+    <t>BRK.B Aug 30, 2099 71.00 PUT</t>
+  </si>
+  <si>
+    <t>BRK.B Aug 30, 2099 72.00 CALL</t>
+  </si>
+  <si>
+    <t>BRK.B Aug 30, 2099 73.00 CALL</t>
+  </si>
+  <si>
+    <t>70.0</t>
+  </si>
+  <si>
+    <t>71.0</t>
+  </si>
+  <si>
+    <t>72.0</t>
+  </si>
+  <si>
+    <t>73.0</t>
+  </si>
+  <si>
+    <t>Option_SHORT_Position_TC0003</t>
+  </si>
+  <si>
+    <t>Option_SHORT_Position_TC0004</t>
+  </si>
+  <si>
+    <t>LSL-BRK.B Aug 30, 2099 60.00 PUT-1LOC-LOCA-123456-M</t>
+  </si>
+  <si>
+    <t>LSL-BRK.B Aug 30, 2099 61.00 PUT-10005</t>
+  </si>
+  <si>
+    <t>LSL-BRK.B Aug 30, 2099 62.00 CALL-1LOC-LOCA-123456-M</t>
+  </si>
+  <si>
+    <t>LSL-BRK.B Aug 30, 2099 63.00 CALL-10005</t>
+  </si>
+  <si>
+    <t>{
+        "OrdType": "2",
+        "Side": "2",
+        "Symbol": "BRK.B",
+        "TimeInForce": "0",
+        "Account": "1LOC-LOCA-123456-M",
+        "destination": "-OPTFIX",
+        "OrderQty": 5,
+        "Price": 40,
+        "StopPx":0,
+        "ComplianceID": null,
+        "ContactName": null,
+        "LocateID": null,
+        "LocateRate": 0,
+        "LocateRequired": false,
+        "StrikePrice": 62,
+        "PutOrCall": "1",
+        "CoveredOrUncovered": "0",
+        "CustomerOrFirm": "0",
+        "ExpiryDate": "2099-08-30T13:20:00.000Z",
+        "Cmta": "294",
+        "OpenClose": "O"
+    }</t>
+  </si>
+  <si>
+    <t>{
+        "OrdType": "2",
+        "Side": "2",
+        "Symbol": "BRK.B",
+        "TimeInForce": "0",
+        "Account": "10005",
+        "destination": "-OPTFIX",
+        "OrderQty": 5,
+        "Price": 40,
+        "StopPx":0,
+        "ComplianceID": null,
+        "ContactName": null,
+        "LocateID": null,
+        "LocateRate": 0,
+        "LocateRequired": false,
+        "StrikePrice": 63,
+        "PutOrCall": "1",
+        "CoveredOrUncovered": "0",
+        "CustomerOrFirm": "0",
+        "ExpiryDate": "2099-08-30T13:20:00.000Z",
+        "Cmta": "294",
+        "OpenClose": "O"
+    }</t>
+  </si>
+  <si>
+    <t>{
+        "OrdType": "2",
+        "Side": "2",
+        "Symbol": "BRK.B",
+        "TimeInForce": "0",
+        "Account": "1LOC-LOCA-123456-M",
+        "destination": "-OPTFIX",
+        "OrderQty": 5,
+        "Price": 40,
+        "StopPx":0,
+        "ComplianceID": null,
+        "ContactName": null,
+        "LocateID": null,
+        "LocateRate": 0,
+        "LocateRequired": false,
+        "StrikePrice": 60,
+        "PutOrCall": "0",
+        "CoveredOrUncovered": "0",
+        "CustomerOrFirm": "0",
+        "ExpiryDate": "2099-08-30T13:20:00.000Z",
+        "Cmta": "294",
+        "OpenClose": "O"
+    }</t>
+  </si>
+  <si>
+    <t>{
+        "OrdType": "2",
+        "Side": "2",
+        "Symbol": "BRK.B",
+        "TimeInForce": "0",
+        "Account": "10005",
+        "destination": "-OPTFIX",
+        "OrderQty": 5,
+        "Price": 40,
+        "StopPx":0,
+        "ComplianceID": null,
+        "ContactName": null,
+        "LocateID": null,
+        "LocateRate": 0,
+        "LocateRequired": false,
+        "StrikePrice": 61,
+        "PutOrCall": "0",
+        "CoveredOrUncovered": "0",
+        "CustomerOrFirm": "0",
+        "ExpiryDate": "2099-08-30T13:20:00.000Z",
+        "Cmta": "294",
+        "OpenClose": "O"
+    }</t>
+  </si>
+  <si>
+    <t>BRK.B Aug 30, 2099 60.00 PUT</t>
+  </si>
+  <si>
+    <t>BRK.B Aug 30, 2099 61.00 PUT</t>
+  </si>
+  <si>
+    <t>BRK.B Aug 30, 2099 62.00 CALL</t>
+  </si>
+  <si>
+    <t>BRK.B Aug 30, 2099 63.00 CALL</t>
+  </si>
 </sst>
 </file>
 
@@ -1037,7 +1522,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1059,6 +1544,12 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1096,7 +1587,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -1148,8 +1639,15 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1464,10 +1962,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41536820-D56A-41BA-A388-6D13CFA1508B}">
-  <dimension ref="A1:CN2"/>
+  <dimension ref="A1:CN5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+    <sheetView topLeftCell="CG1" workbookViewId="0">
+      <selection activeCell="CM28" sqref="CM28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1477,7 +1975,7 @@
     <col min="3" max="3" width="53" style="14" customWidth="1"/>
     <col min="4" max="4" width="15.5703125" style="14" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="36.7109375" style="14" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="50.85546875" style="14" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="69.140625" style="14" customWidth="1"/>
     <col min="7" max="21" width="30.42578125" style="14" customWidth="1"/>
     <col min="22" max="22" width="155.42578125" style="14" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="32" style="14" bestFit="1" customWidth="1"/>
@@ -1570,52 +2068,52 @@
         <v>155</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="G1" s="4" t="s">
         <v>14</v>
       </c>
       <c r="H1" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="K1" s="2" t="s">
         <v>265</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>267</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>270</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="R1" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="S1" s="2" t="s">
         <v>273</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="T1" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="U1" s="1" t="s">
         <v>275</v>
-      </c>
-      <c r="S1" s="2" t="s">
-        <v>276</v>
-      </c>
-      <c r="T1" s="2" t="s">
-        <v>277</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>278</v>
       </c>
       <c r="V1" s="2" t="s">
         <v>168</v>
@@ -1768,7 +2266,7 @@
         <v>201</v>
       </c>
       <c r="BT1" s="2" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="BU1" s="2" t="s">
         <v>202</v>
@@ -1831,11 +2329,11 @@
         <v>218</v>
       </c>
     </row>
-    <row r="2" spans="1:92" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="21" t="s">
-        <v>259</v>
-      </c>
-      <c r="B2" s="21" t="s">
+    <row r="2" spans="1:92" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="14" t="s">
+        <v>294</v>
+      </c>
+      <c r="B2" s="14" t="s">
         <v>50</v>
       </c>
       <c r="C2" s="3" t="s">
@@ -1848,9 +2346,9 @@
         <v>200</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>281</v>
-      </c>
-      <c r="G2" s="22" t="s">
+        <v>278</v>
+      </c>
+      <c r="G2" t="s">
         <v>17</v>
       </c>
       <c r="H2" s="3" t="s">
@@ -1896,7 +2394,7 @@
         <v>200</v>
       </c>
       <c r="V2" s="3" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="W2" s="3">
         <v>200</v>
@@ -2018,98 +2516,933 @@
       <c r="BJ2" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="BK2" s="21">
+      <c r="BK2" s="14">
         <v>2</v>
       </c>
-      <c r="BL2" s="21">
+      <c r="BL2" s="14">
         <v>1</v>
       </c>
-      <c r="BM2" s="21">
+      <c r="BM2" s="14">
         <v>0</v>
       </c>
-      <c r="BN2" s="21">
+      <c r="BN2" s="14">
         <v>0</v>
       </c>
-      <c r="BO2" s="21" t="s">
+      <c r="BO2" s="14" t="s">
         <v>174</v>
       </c>
-      <c r="BP2" s="21" t="s">
+      <c r="BP2" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="BQ2" s="21" t="s">
+      <c r="BQ2" s="14" t="s">
         <v>219</v>
       </c>
-      <c r="BR2" s="21" t="s">
+      <c r="BR2" s="14" t="s">
         <v>173</v>
       </c>
-      <c r="BS2" s="21" t="s">
-        <v>59</v>
-      </c>
-      <c r="BT2" s="21" t="s">
+      <c r="BS2" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="BT2" s="14" t="s">
+        <v>280</v>
+      </c>
+      <c r="BU2" s="14">
+        <v>30</v>
+      </c>
+      <c r="BV2" s="14">
+        <v>209908</v>
+      </c>
+      <c r="BW2" s="14" t="s">
+        <v>220</v>
+      </c>
+      <c r="BX2" s="14" t="s">
+        <v>221</v>
+      </c>
+      <c r="BY2" s="14" t="s">
+        <v>276</v>
+      </c>
+      <c r="BZ2" s="14" t="s">
+        <v>223</v>
+      </c>
+      <c r="CA2" s="14" t="s">
+        <v>160</v>
+      </c>
+      <c r="CB2" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="CC2" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="CD2" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="CE2" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="CF2" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="CG2" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="CH2" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="CI2" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="CJ2" s="14" t="s">
+        <v>173</v>
+      </c>
+      <c r="CK2" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="CL2" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="CM2" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="CN2" s="14" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="3" spans="1:92" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="14" t="s">
+        <v>295</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="3">
+        <v>200</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="G3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="N3" s="18" t="s">
         <v>283</v>
       </c>
-      <c r="BU2" s="21">
+      <c r="O3" s="19">
+        <v>89</v>
+      </c>
+      <c r="P3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="R3" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="S3" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="T3" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="U3" s="20">
+        <v>200</v>
+      </c>
+      <c r="V3" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="W3" s="3">
+        <v>200</v>
+      </c>
+      <c r="X3" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y3" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="Z3" s="3">
+        <v>200</v>
+      </c>
+      <c r="AA3" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AB3" s="3">
+        <v>2</v>
+      </c>
+      <c r="AC3" s="3">
+        <v>1</v>
+      </c>
+      <c r="AD3" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="AE3" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="AF3" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="AG3" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="AH3" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="AI3" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ3" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="AK3" s="3">
+        <v>200</v>
+      </c>
+      <c r="AL3" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM3" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="AN3" s="3">
+        <v>1</v>
+      </c>
+      <c r="AO3" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="AP3" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="AQ3" s="3">
+        <v>10</v>
+      </c>
+      <c r="AR3" s="3">
+        <v>40</v>
+      </c>
+      <c r="AS3" s="3">
+        <v>2</v>
+      </c>
+      <c r="AT3" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="AU3" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="AV3" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="AW3" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="AX3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="AY3" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="AZ3" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="BA3" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="BB3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="BC3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="BD3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="BE3" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="BF3" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="BG3" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="BH3" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI3" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="BJ3" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="BK3" s="14">
+        <v>2</v>
+      </c>
+      <c r="BL3" s="14">
+        <v>1</v>
+      </c>
+      <c r="BM3" s="14">
+        <v>0</v>
+      </c>
+      <c r="BN3" s="14">
+        <v>0</v>
+      </c>
+      <c r="BO3" s="14" t="s">
+        <v>174</v>
+      </c>
+      <c r="BP3" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="BQ3" s="14" t="s">
+        <v>219</v>
+      </c>
+      <c r="BR3" s="14" t="s">
+        <v>173</v>
+      </c>
+      <c r="BS3" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="BT3" s="14" t="s">
+        <v>286</v>
+      </c>
+      <c r="BU3" s="14" t="s">
+        <v>287</v>
+      </c>
+      <c r="BV3" s="14" t="s">
+        <v>288</v>
+      </c>
+      <c r="BW3" s="14" t="s">
+        <v>220</v>
+      </c>
+      <c r="BX3" s="14" t="s">
+        <v>289</v>
+      </c>
+      <c r="BY3" s="14" t="s">
+        <v>290</v>
+      </c>
+      <c r="BZ3" s="14" t="s">
+        <v>291</v>
+      </c>
+      <c r="CA3" s="14" t="s">
+        <v>283</v>
+      </c>
+      <c r="CB3" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="CC3" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="CD3" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="CE3" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="CF3" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="CG3" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="CH3" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="CI3" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="CJ3" s="14" t="s">
+        <v>173</v>
+      </c>
+      <c r="CK3" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="CL3" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="CM3" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="CN3" s="14" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="4" spans="1:92" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="14" t="s">
+        <v>296</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4" s="3">
+        <v>200</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="G4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="N4" s="18" t="s">
+        <v>160</v>
+      </c>
+      <c r="O4" s="19">
+        <v>90</v>
+      </c>
+      <c r="P4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="R4" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="S4" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="T4" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="U4" s="20">
+        <v>200</v>
+      </c>
+      <c r="V4" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="W4" s="3">
+        <v>200</v>
+      </c>
+      <c r="X4" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y4" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="Z4" s="3">
+        <v>200</v>
+      </c>
+      <c r="AA4" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AB4" s="3">
+        <v>2</v>
+      </c>
+      <c r="AC4" s="3">
+        <v>1</v>
+      </c>
+      <c r="AD4" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="AE4" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AF4" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="AG4" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="AH4" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="AI4" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ4" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="AK4" s="3">
+        <v>200</v>
+      </c>
+      <c r="AL4" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM4" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="AN4" s="3">
+        <v>1</v>
+      </c>
+      <c r="AO4" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="AP4" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ4" s="3">
+        <v>10</v>
+      </c>
+      <c r="AR4" s="3">
+        <v>40</v>
+      </c>
+      <c r="AS4" s="3">
+        <v>2</v>
+      </c>
+      <c r="AT4" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="AU4" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="AV4" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="AW4" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="AX4" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="AY4" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="AZ4" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="BA4" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="BB4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="BC4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="BD4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="BE4" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="BF4" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="BG4" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="BH4" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI4" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="BJ4" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="BK4" s="14">
+        <v>2</v>
+      </c>
+      <c r="BL4" s="14">
+        <v>1</v>
+      </c>
+      <c r="BM4" s="14">
+        <v>0</v>
+      </c>
+      <c r="BN4" s="14">
+        <v>0</v>
+      </c>
+      <c r="BO4" s="14" t="s">
+        <v>293</v>
+      </c>
+      <c r="BP4" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="BQ4" s="14" t="s">
+        <v>219</v>
+      </c>
+      <c r="BR4" s="14" t="s">
+        <v>173</v>
+      </c>
+      <c r="BS4" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="BT4" s="14" t="s">
+        <v>302</v>
+      </c>
+      <c r="BU4" s="14">
         <v>30</v>
       </c>
-      <c r="BV2" s="21">
+      <c r="BV4" s="14">
         <v>209908</v>
       </c>
-      <c r="BW2" s="21" t="s">
+      <c r="BW4" s="14" t="s">
         <v>220</v>
       </c>
-      <c r="BX2" s="21" t="s">
+      <c r="BX4" s="14" t="s">
         <v>221</v>
       </c>
-      <c r="BY2" s="21" t="s">
-        <v>279</v>
-      </c>
-      <c r="BZ2" s="21" t="s">
+      <c r="BY4" s="14" t="s">
+        <v>304</v>
+      </c>
+      <c r="BZ4" s="14" t="s">
         <v>223</v>
       </c>
-      <c r="CA2" s="21" t="s">
+      <c r="CA4" s="14" t="s">
         <v>160</v>
       </c>
-      <c r="CB2" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="CC2" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="CD2" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="CE2" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="CF2" s="21" t="s">
-        <v>59</v>
-      </c>
-      <c r="CG2" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="CH2" s="21" t="s">
-        <v>59</v>
-      </c>
-      <c r="CI2" s="21" t="s">
-        <v>59</v>
-      </c>
-      <c r="CJ2" s="21" t="s">
+      <c r="CB4" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="CC4" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="CD4" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="CE4" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="CF4" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="CG4" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="CH4" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="CI4" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="CJ4" s="14" t="s">
         <v>173</v>
       </c>
-      <c r="CK2" s="21" t="s">
+      <c r="CK4" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="CL2" s="21" t="s">
+      <c r="CL4" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="CM2" s="21" t="s">
-        <v>59</v>
-      </c>
-      <c r="CN2" s="21" t="s">
-        <v>174</v>
+      <c r="CM4" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="CN4" s="14" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" spans="1:92" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="14" t="s">
+        <v>297</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E5" s="3">
+        <v>200</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="G5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="N5" s="18" t="s">
+        <v>283</v>
+      </c>
+      <c r="O5" s="19">
+        <v>91</v>
+      </c>
+      <c r="P5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="R5" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="S5" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="T5" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="U5" s="20">
+        <v>200</v>
+      </c>
+      <c r="V5" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="W5" s="3">
+        <v>200</v>
+      </c>
+      <c r="X5" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y5" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="Z5" s="3">
+        <v>200</v>
+      </c>
+      <c r="AA5" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AB5" s="3">
+        <v>2</v>
+      </c>
+      <c r="AC5" s="3">
+        <v>1</v>
+      </c>
+      <c r="AD5" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="AE5" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AF5" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="AG5" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="AH5" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="AI5" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ5" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="AK5" s="3">
+        <v>200</v>
+      </c>
+      <c r="AL5" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM5" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="AN5" s="3">
+        <v>1</v>
+      </c>
+      <c r="AO5" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="AP5" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ5" s="3">
+        <v>10</v>
+      </c>
+      <c r="AR5" s="3">
+        <v>40</v>
+      </c>
+      <c r="AS5" s="3">
+        <v>2</v>
+      </c>
+      <c r="AT5" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="AU5" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="AV5" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="AW5" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="AX5" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="AY5" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="AZ5" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="BA5" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="BB5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="BC5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="BD5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="BE5" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="BF5" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="BG5" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="BH5" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI5" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="BJ5" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="BK5" s="14">
+        <v>2</v>
+      </c>
+      <c r="BL5" s="14">
+        <v>1</v>
+      </c>
+      <c r="BM5" s="14">
+        <v>0</v>
+      </c>
+      <c r="BN5" s="14">
+        <v>0</v>
+      </c>
+      <c r="BO5" s="14" t="s">
+        <v>293</v>
+      </c>
+      <c r="BP5" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="BQ5" s="14" t="s">
+        <v>219</v>
+      </c>
+      <c r="BR5" s="14" t="s">
+        <v>173</v>
+      </c>
+      <c r="BS5" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="BT5" s="14" t="s">
+        <v>303</v>
+      </c>
+      <c r="BU5" s="14">
+        <v>30</v>
+      </c>
+      <c r="BV5" s="14">
+        <v>209908</v>
+      </c>
+      <c r="BW5" s="14" t="s">
+        <v>220</v>
+      </c>
+      <c r="BX5" s="14" t="s">
+        <v>221</v>
+      </c>
+      <c r="BY5" s="14" t="s">
+        <v>305</v>
+      </c>
+      <c r="BZ5" s="14" t="s">
+        <v>291</v>
+      </c>
+      <c r="CA5" s="14" t="s">
+        <v>283</v>
+      </c>
+      <c r="CB5" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="CC5" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="CD5" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="CE5" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="CF5" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="CG5" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="CH5" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="CI5" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="CJ5" s="14" t="s">
+        <v>173</v>
+      </c>
+      <c r="CK5" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="CL5" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="CM5" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="CN5" s="14" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
@@ -2117,15 +3450,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30BCD8FC-EB92-4047-A4A0-66F914093932}">
-  <dimension ref="A1:DS2"/>
+  <dimension ref="A1:DS5"/>
   <sheetViews>
-    <sheetView topLeftCell="R1" workbookViewId="0">
-      <selection activeCell="V15" sqref="V15"/>
+    <sheetView tabSelected="1" topLeftCell="CN1" workbookViewId="0">
+      <selection activeCell="CQ33" sqref="CQ33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.28515625" style="14" customWidth="1"/>
+    <col min="1" max="1" width="34.140625" style="14" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18" style="14" customWidth="1"/>
     <col min="3" max="3" width="53" style="14" customWidth="1"/>
     <col min="4" max="4" width="15.5703125" style="14" bestFit="1" customWidth="1"/>
@@ -2228,55 +3561,55 @@
         <v>155</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="G1" s="4" t="s">
         <v>14</v>
       </c>
       <c r="H1" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="K1" s="2" t="s">
         <v>265</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>267</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>270</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="R1" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="S1" s="2" t="s">
         <v>273</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="T1" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="U1" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="S1" s="2" t="s">
-        <v>276</v>
-      </c>
-      <c r="T1" s="2" t="s">
-        <v>277</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>278</v>
-      </c>
       <c r="V1" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="W1" s="2" t="s">
         <v>237</v>
@@ -2318,40 +3651,40 @@
         <v>185</v>
       </c>
       <c r="AJ1" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AK1" s="2" t="s">
         <v>186</v>
       </c>
       <c r="AL1" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="AM1" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="AM1" s="2" t="s">
+      <c r="AN1" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="AN1" s="2" t="s">
+      <c r="AO1" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="AO1" s="2" t="s">
+      <c r="AP1" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="AP1" s="2" t="s">
+      <c r="AQ1" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="AQ1" s="2" t="s">
+      <c r="AR1" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="AR1" s="2" t="s">
+      <c r="AS1" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="AS1" s="2" t="s">
+      <c r="AT1" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="AU1" s="2" t="s">
         <v>246</v>
-      </c>
-      <c r="AT1" s="2" t="s">
-        <v>253</v>
-      </c>
-      <c r="AU1" s="2" t="s">
-        <v>247</v>
       </c>
       <c r="AV1" s="2" t="s">
         <v>29</v>
@@ -2363,10 +3696,10 @@
         <v>31</v>
       </c>
       <c r="AY1" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="AZ1" s="6" t="s">
         <v>248</v>
-      </c>
-      <c r="AZ1" s="6" t="s">
-        <v>249</v>
       </c>
       <c r="BA1" s="2" t="s">
         <v>107</v>
@@ -2420,10 +3753,10 @@
         <v>122</v>
       </c>
       <c r="BR1" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="BS1" s="6" t="s">
         <v>250</v>
-      </c>
-      <c r="BS1" s="6" t="s">
-        <v>251</v>
       </c>
       <c r="BT1" s="2" t="s">
         <v>125</v>
@@ -2519,7 +3852,7 @@
         <v>201</v>
       </c>
       <c r="CY1" s="2" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="CZ1" s="2" t="s">
         <v>202</v>
@@ -2584,7 +3917,7 @@
     </row>
     <row r="2" spans="1:123" s="3" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>258</v>
+        <v>306</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>50</v>
@@ -2599,7 +3932,7 @@
         <v>200</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>281</v>
+        <v>310</v>
       </c>
       <c r="G2" t="s">
         <v>17</v>
@@ -2626,7 +3959,7 @@
         <v>160</v>
       </c>
       <c r="O2" s="19">
-        <v>88</v>
+        <v>70</v>
       </c>
       <c r="P2" s="5" t="s">
         <v>15</v>
@@ -2647,10 +3980,10 @@
         <v>200</v>
       </c>
       <c r="V2" s="3" t="s">
-        <v>235</v>
+        <v>316</v>
       </c>
       <c r="W2" s="3" t="s">
-        <v>238</v>
+        <v>317</v>
       </c>
       <c r="X2" s="3">
         <v>200</v>
@@ -2890,7 +4223,7 @@
         <v>59</v>
       </c>
       <c r="CY2" s="14" t="s">
-        <v>283</v>
+        <v>322</v>
       </c>
       <c r="CZ2" s="3">
         <v>30</v>
@@ -2905,7 +4238,7 @@
         <v>221</v>
       </c>
       <c r="DD2" s="14" t="s">
-        <v>279</v>
+        <v>326</v>
       </c>
       <c r="DE2" s="3" t="s">
         <v>223</v>
@@ -2953,7 +4286,1121 @@
         <v>174</v>
       </c>
     </row>
+    <row r="3" spans="1:123" s="3" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="3">
+        <v>200</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="G3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="L3" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="M3" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="N3" s="18" t="s">
+        <v>160</v>
+      </c>
+      <c r="O3" s="19">
+        <v>71</v>
+      </c>
+      <c r="P3" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q3" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="R3" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="S3" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="T3" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="U3" s="20">
+        <v>200</v>
+      </c>
+      <c r="V3" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="W3" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="X3" s="3">
+        <v>200</v>
+      </c>
+      <c r="Y3" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="Z3" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="AA3" s="3">
+        <v>200</v>
+      </c>
+      <c r="AB3" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AC3" s="3">
+        <v>2</v>
+      </c>
+      <c r="AD3" s="3">
+        <v>1</v>
+      </c>
+      <c r="AE3" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="AF3" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG3" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="AH3" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="AI3" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="AJ3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AK3" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AL3" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AM3" s="3">
+        <v>2</v>
+      </c>
+      <c r="AN3" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="AO3" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="AP3" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ3" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="AR3" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="AS3" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="AT3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AU3" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AV3" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="AW3" s="3">
+        <v>200</v>
+      </c>
+      <c r="AX3" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="AY3" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="AZ3" s="3">
+        <v>1</v>
+      </c>
+      <c r="BA3" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="BB3" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC3" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="BD3" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="BE3" s="3">
+        <v>2</v>
+      </c>
+      <c r="BF3" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="BG3" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="BH3" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI3" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="BJ3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="BK3" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="BL3" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="BM3" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="BN3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="BO3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="BP3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="BQ3" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="BR3" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="BS3" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="BT3" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="BU3" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="BV3" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="BW3" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="BX3" s="3">
+        <v>2</v>
+      </c>
+      <c r="BY3" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="BZ3" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="CA3" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="CB3" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="CC3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="CD3" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="CE3" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="CF3" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="CG3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="CH3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="CI3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="CJ3" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="CK3" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="CL3" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="CM3" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="CN3" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="CO3" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="CP3" s="3">
+        <v>2</v>
+      </c>
+      <c r="CQ3" s="3">
+        <v>1</v>
+      </c>
+      <c r="CR3" s="3">
+        <v>0</v>
+      </c>
+      <c r="CS3" s="3">
+        <v>0</v>
+      </c>
+      <c r="CT3" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="CU3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="CV3" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="CW3" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="CX3" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="CY3" s="14" t="s">
+        <v>323</v>
+      </c>
+      <c r="CZ3" s="3">
+        <v>30</v>
+      </c>
+      <c r="DA3" s="3">
+        <v>209908</v>
+      </c>
+      <c r="DB3" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="DC3" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="DD3" s="14" t="s">
+        <v>327</v>
+      </c>
+      <c r="DE3" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="DF3" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="DG3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="DH3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="DI3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="DJ3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="DK3" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="DL3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="DM3" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="DN3" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="DO3" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="DP3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="DQ3" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="DR3" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="DS3" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4" spans="1:123" s="3" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4" s="3">
+        <v>200</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="G4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="K4" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="L4" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="M4" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="N4" s="18" t="s">
+        <v>283</v>
+      </c>
+      <c r="O4" s="19">
+        <v>72</v>
+      </c>
+      <c r="P4" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q4" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="R4" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="S4" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="T4" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="U4" s="20">
+        <v>200</v>
+      </c>
+      <c r="V4" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="W4" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="X4" s="3">
+        <v>200</v>
+      </c>
+      <c r="Y4" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="Z4" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="AA4" s="3">
+        <v>200</v>
+      </c>
+      <c r="AB4" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AC4" s="3">
+        <v>2</v>
+      </c>
+      <c r="AD4" s="3">
+        <v>1</v>
+      </c>
+      <c r="AE4" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="AF4" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="AG4" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="AH4" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="AI4" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="AJ4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AK4" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AL4" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AM4" s="3">
+        <v>2</v>
+      </c>
+      <c r="AN4" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="AO4" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="AP4" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="AQ4" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="AR4" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="AS4" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="AT4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AU4" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AV4" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="AW4" s="3">
+        <v>200</v>
+      </c>
+      <c r="AX4" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="AY4" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="AZ4" s="3">
+        <v>1</v>
+      </c>
+      <c r="BA4" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="BB4" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="BC4" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="BD4" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="BE4" s="3">
+        <v>2</v>
+      </c>
+      <c r="BF4" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="BG4" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="BH4" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI4" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="BJ4" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="BK4" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="BL4" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="BM4" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="BN4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="BO4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="BP4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="BQ4" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="BR4" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="BS4" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="BT4" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="BU4" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="BV4" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="BW4" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="BX4" s="3">
+        <v>2</v>
+      </c>
+      <c r="BY4" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="BZ4" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="CA4" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="CB4" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="CC4" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="CD4" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="CE4" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="CF4" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="CG4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="CH4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="CI4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="CJ4" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="CK4" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="CL4" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="CM4" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="CN4" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="CO4" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="CP4" s="3">
+        <v>2</v>
+      </c>
+      <c r="CQ4" s="3">
+        <v>1</v>
+      </c>
+      <c r="CR4" s="3">
+        <v>0</v>
+      </c>
+      <c r="CS4" s="3">
+        <v>0</v>
+      </c>
+      <c r="CT4" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="CU4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="CV4" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="CW4" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="CX4" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="CY4" s="14" t="s">
+        <v>324</v>
+      </c>
+      <c r="CZ4" s="3">
+        <v>30</v>
+      </c>
+      <c r="DA4" s="3">
+        <v>209908</v>
+      </c>
+      <c r="DB4" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="DC4" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="DD4" s="14" t="s">
+        <v>328</v>
+      </c>
+      <c r="DE4" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="DF4" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="DG4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="DH4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="DI4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="DJ4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="DK4" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="DL4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="DM4" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="DN4" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="DO4" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="DP4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="DQ4" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="DR4" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="DS4" s="3" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="5" spans="1:123" s="3" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E5" s="3">
+        <v>200</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="G5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="K5" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="L5" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="M5" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="N5" s="18" t="s">
+        <v>283</v>
+      </c>
+      <c r="O5" s="19">
+        <v>73</v>
+      </c>
+      <c r="P5" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q5" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="R5" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="S5" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="T5" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="U5" s="20">
+        <v>200</v>
+      </c>
+      <c r="V5" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="W5" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="X5" s="3">
+        <v>200</v>
+      </c>
+      <c r="Y5" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="Z5" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="AA5" s="3">
+        <v>200</v>
+      </c>
+      <c r="AB5" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AC5" s="3">
+        <v>2</v>
+      </c>
+      <c r="AD5" s="3">
+        <v>1</v>
+      </c>
+      <c r="AE5" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="AF5" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG5" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="AH5" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="AI5" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="AJ5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AK5" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AL5" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AM5" s="3">
+        <v>2</v>
+      </c>
+      <c r="AN5" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="AO5" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="AP5" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ5" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="AR5" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="AS5" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="AT5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AU5" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AV5" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="AW5" s="3">
+        <v>200</v>
+      </c>
+      <c r="AX5" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="AY5" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="AZ5" s="3">
+        <v>1</v>
+      </c>
+      <c r="BA5" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="BB5" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC5" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="BD5" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="BE5" s="3">
+        <v>2</v>
+      </c>
+      <c r="BF5" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="BG5" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="BH5" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI5" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="BJ5" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="BK5" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="BL5" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="BM5" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="BN5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="BO5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="BP5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="BQ5" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="BR5" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="BS5" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="BT5" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="BU5" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="BV5" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="BW5" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="BX5" s="3">
+        <v>2</v>
+      </c>
+      <c r="BY5" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="BZ5" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="CA5" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="CB5" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="CC5" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="CD5" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="CE5" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="CF5" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="CG5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="CH5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="CI5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="CJ5" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="CK5" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="CL5" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="CM5" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="CN5" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="CO5" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="CP5" s="3">
+        <v>2</v>
+      </c>
+      <c r="CQ5" s="3">
+        <v>1</v>
+      </c>
+      <c r="CR5" s="3">
+        <v>0</v>
+      </c>
+      <c r="CS5" s="3">
+        <v>0</v>
+      </c>
+      <c r="CT5" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="CU5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="CV5" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="CW5" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="CX5" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="CY5" s="14" t="s">
+        <v>325</v>
+      </c>
+      <c r="CZ5" s="3">
+        <v>30</v>
+      </c>
+      <c r="DA5" s="3">
+        <v>209908</v>
+      </c>
+      <c r="DB5" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="DC5" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="DD5" s="14" t="s">
+        <v>329</v>
+      </c>
+      <c r="DE5" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="DF5" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="DG5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="DH5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="DI5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="DJ5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="DK5" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="DL5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="DM5" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="DN5" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="DO5" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="DP5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="DQ5" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="DR5" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="DS5" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
@@ -2961,15 +5408,16 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFD82B76-86B7-46D2-A39A-FB3938032EE5}">
-  <dimension ref="A1:CN2"/>
+  <dimension ref="A1:CN5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+      <selection activeCell="BT8" sqref="BT8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="4" width="22.7109375" style="14"/>
+    <col min="1" max="1" width="32.42578125" style="14" customWidth="1"/>
+    <col min="2" max="4" width="22.7109375" style="14"/>
     <col min="5" max="5" width="37.7109375" style="14" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="50.85546875" style="14" bestFit="1" customWidth="1"/>
     <col min="7" max="20" width="22.7109375" style="14"/>
@@ -2993,7 +5441,7 @@
     <col min="74" max="74" width="42.5703125" style="14" bestFit="1" customWidth="1"/>
     <col min="75" max="75" width="46.85546875" style="14" bestFit="1" customWidth="1"/>
     <col min="76" max="76" width="36.42578125" style="14" bestFit="1" customWidth="1"/>
-    <col min="77" max="77" width="34.140625" style="14" bestFit="1" customWidth="1"/>
+    <col min="77" max="77" width="34.140625" style="29" bestFit="1" customWidth="1"/>
     <col min="78" max="78" width="35.5703125" style="14" bestFit="1" customWidth="1"/>
     <col min="79" max="79" width="33" style="14" bestFit="1" customWidth="1"/>
     <col min="80" max="80" width="22.7109375" style="14"/>
@@ -3005,292 +5453,294 @@
     <col min="86" max="86" width="28.7109375" style="14" bestFit="1" customWidth="1"/>
     <col min="87" max="87" width="34.42578125" style="14" bestFit="1" customWidth="1"/>
     <col min="88" max="88" width="31" style="14" bestFit="1" customWidth="1"/>
-    <col min="89" max="16384" width="22.7109375" style="14"/>
+    <col min="89" max="91" width="22.7109375" style="14"/>
+    <col min="92" max="92" width="31.42578125" style="14" bestFit="1" customWidth="1"/>
+    <col min="93" max="16384" width="22.7109375" style="14"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:92" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="21" t="s">
         <v>153</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="21" t="s">
         <v>154</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="21" t="s">
         <v>155</v>
       </c>
-      <c r="F1" s="4" t="s">
-        <v>280</v>
-      </c>
-      <c r="G1" s="4" t="s">
+      <c r="F1" s="22" t="s">
+        <v>277</v>
+      </c>
+      <c r="G1" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="21" t="s">
+        <v>262</v>
+      </c>
+      <c r="I1" s="21" t="s">
+        <v>263</v>
+      </c>
+      <c r="J1" s="21" t="s">
+        <v>264</v>
+      </c>
+      <c r="K1" s="21" t="s">
         <v>265</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="L1" s="21" t="s">
         <v>266</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="M1" s="21" t="s">
         <v>267</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="N1" s="21" t="s">
         <v>268</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="O1" s="21" t="s">
         <v>269</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="P1" s="21" t="s">
         <v>270</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="Q1" s="21" t="s">
         <v>271</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="R1" s="21" t="s">
         <v>272</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="S1" s="21" t="s">
         <v>273</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="T1" s="21" t="s">
         <v>274</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="U1" s="23" t="s">
         <v>275</v>
       </c>
-      <c r="S1" s="2" t="s">
-        <v>276</v>
-      </c>
-      <c r="T1" s="2" t="s">
-        <v>277</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="V1" s="2" t="s">
+      <c r="V1" s="21" t="s">
         <v>168</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="W1" s="21" t="s">
         <v>169</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="X1" s="21" t="s">
         <v>170</v>
       </c>
-      <c r="Y1" s="2" t="s">
+      <c r="Y1" s="21" t="s">
         <v>171</v>
       </c>
-      <c r="Z1" s="2" t="s">
+      <c r="Z1" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="AA1" s="2" t="s">
+      <c r="AA1" s="21" t="s">
         <v>178</v>
       </c>
-      <c r="AB1" s="2" t="s">
+      <c r="AB1" s="21" t="s">
         <v>179</v>
       </c>
-      <c r="AC1" s="2" t="s">
+      <c r="AC1" s="21" t="s">
         <v>180</v>
       </c>
-      <c r="AD1" s="2" t="s">
+      <c r="AD1" s="21" t="s">
         <v>181</v>
       </c>
-      <c r="AE1" s="2" t="s">
+      <c r="AE1" s="21" t="s">
         <v>182</v>
       </c>
-      <c r="AF1" s="2" t="s">
+      <c r="AF1" s="21" t="s">
         <v>183</v>
       </c>
-      <c r="AG1" s="2" t="s">
+      <c r="AG1" s="21" t="s">
         <v>184</v>
       </c>
-      <c r="AH1" s="2" t="s">
+      <c r="AH1" s="21" t="s">
         <v>185</v>
       </c>
-      <c r="AI1" s="2" t="s">
+      <c r="AI1" s="21" t="s">
         <v>186</v>
       </c>
-      <c r="AJ1" s="2" t="s">
+      <c r="AJ1" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="AK1" s="2" t="s">
+      <c r="AK1" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="AL1" s="2" t="s">
+      <c r="AL1" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="AM1" s="2" t="s">
+      <c r="AM1" s="21" t="s">
+        <v>249</v>
+      </c>
+      <c r="AN1" s="24" t="s">
         <v>250</v>
       </c>
-      <c r="AN1" s="6" t="s">
-        <v>251</v>
-      </c>
-      <c r="AO1" s="2" t="s">
+      <c r="AO1" s="21" t="s">
         <v>125</v>
       </c>
-      <c r="AP1" s="2" t="s">
+      <c r="AP1" s="21" t="s">
         <v>126</v>
       </c>
-      <c r="AQ1" s="6" t="s">
+      <c r="AQ1" s="24" t="s">
         <v>127</v>
       </c>
-      <c r="AR1" s="6" t="s">
+      <c r="AR1" s="24" t="s">
         <v>128</v>
       </c>
-      <c r="AS1" s="6" t="s">
+      <c r="AS1" s="24" t="s">
         <v>129</v>
       </c>
-      <c r="AT1" s="2" t="s">
+      <c r="AT1" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="AU1" s="2" t="s">
+      <c r="AU1" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="AV1" s="2" t="s">
+      <c r="AV1" s="21" t="s">
         <v>132</v>
       </c>
-      <c r="AW1" s="2" t="s">
+      <c r="AW1" s="21" t="s">
         <v>133</v>
       </c>
-      <c r="AX1" s="2" t="s">
+      <c r="AX1" s="21" t="s">
         <v>134</v>
       </c>
-      <c r="AY1" s="2" t="s">
+      <c r="AY1" s="21" t="s">
         <v>149</v>
       </c>
-      <c r="AZ1" s="2" t="s">
+      <c r="AZ1" s="21" t="s">
         <v>135</v>
       </c>
-      <c r="BA1" s="2" t="s">
+      <c r="BA1" s="21" t="s">
         <v>136</v>
       </c>
-      <c r="BB1" s="2" t="s">
+      <c r="BB1" s="21" t="s">
         <v>137</v>
       </c>
-      <c r="BC1" s="2" t="s">
+      <c r="BC1" s="21" t="s">
         <v>138</v>
       </c>
-      <c r="BD1" s="2" t="s">
+      <c r="BD1" s="21" t="s">
         <v>139</v>
       </c>
-      <c r="BE1" s="2" t="s">
+      <c r="BE1" s="21" t="s">
         <v>140</v>
       </c>
-      <c r="BF1" s="2" t="s">
+      <c r="BF1" s="21" t="s">
         <v>188</v>
       </c>
-      <c r="BG1" s="2" t="s">
+      <c r="BG1" s="21" t="s">
         <v>189</v>
       </c>
-      <c r="BH1" s="2" t="s">
+      <c r="BH1" s="21" t="s">
         <v>190</v>
       </c>
-      <c r="BI1" s="2" t="s">
+      <c r="BI1" s="21" t="s">
         <v>191</v>
       </c>
-      <c r="BJ1" s="2" t="s">
+      <c r="BJ1" s="21" t="s">
         <v>192</v>
       </c>
-      <c r="BK1" s="2" t="s">
+      <c r="BK1" s="21" t="s">
         <v>193</v>
       </c>
-      <c r="BL1" s="2" t="s">
+      <c r="BL1" s="21" t="s">
         <v>194</v>
       </c>
-      <c r="BM1" s="2" t="s">
+      <c r="BM1" s="21" t="s">
         <v>195</v>
       </c>
-      <c r="BN1" s="2" t="s">
+      <c r="BN1" s="21" t="s">
         <v>196</v>
       </c>
-      <c r="BO1" s="2" t="s">
+      <c r="BO1" s="21" t="s">
         <v>197</v>
       </c>
-      <c r="BP1" s="2" t="s">
+      <c r="BP1" s="21" t="s">
         <v>198</v>
       </c>
-      <c r="BQ1" s="2" t="s">
+      <c r="BQ1" s="21" t="s">
         <v>199</v>
       </c>
-      <c r="BR1" s="2" t="s">
+      <c r="BR1" s="21" t="s">
         <v>200</v>
       </c>
-      <c r="BS1" s="2" t="s">
+      <c r="BS1" s="21" t="s">
         <v>201</v>
       </c>
-      <c r="BT1" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="BU1" s="2" t="s">
+      <c r="BT1" s="21" t="s">
+        <v>279</v>
+      </c>
+      <c r="BU1" s="21" t="s">
         <v>202</v>
       </c>
-      <c r="BV1" s="2" t="s">
+      <c r="BV1" s="21" t="s">
         <v>203</v>
       </c>
-      <c r="BW1" s="2" t="s">
+      <c r="BW1" s="21" t="s">
         <v>204</v>
       </c>
-      <c r="BX1" s="2" t="s">
+      <c r="BX1" s="21" t="s">
         <v>205</v>
       </c>
-      <c r="BY1" s="2" t="s">
+      <c r="BY1" s="27" t="s">
         <v>206</v>
       </c>
-      <c r="BZ1" s="2" t="s">
+      <c r="BZ1" s="21" t="s">
         <v>207</v>
       </c>
-      <c r="CA1" s="2" t="s">
+      <c r="CA1" s="21" t="s">
         <v>208</v>
       </c>
-      <c r="CB1" s="2" t="s">
+      <c r="CB1" s="21" t="s">
         <v>209</v>
       </c>
-      <c r="CC1" s="2" t="s">
+      <c r="CC1" s="21" t="s">
         <v>210</v>
       </c>
-      <c r="CD1" s="2" t="s">
+      <c r="CD1" s="21" t="s">
         <v>211</v>
       </c>
-      <c r="CE1" s="2" t="s">
+      <c r="CE1" s="21" t="s">
         <v>212</v>
       </c>
-      <c r="CF1" s="2" t="s">
+      <c r="CF1" s="21" t="s">
         <v>213</v>
       </c>
-      <c r="CG1" s="2" t="s">
+      <c r="CG1" s="21" t="s">
         <v>214</v>
       </c>
-      <c r="CH1" s="2" t="s">
+      <c r="CH1" s="21" t="s">
         <v>215</v>
       </c>
-      <c r="CI1" s="2" t="s">
+      <c r="CI1" s="21" t="s">
         <v>216</v>
       </c>
-      <c r="CJ1" s="2" t="s">
+      <c r="CJ1" s="21" t="s">
         <v>217</v>
       </c>
-      <c r="CK1" s="2" t="s">
+      <c r="CK1" s="21" t="s">
         <v>75</v>
       </c>
-      <c r="CL1" s="2" t="s">
+      <c r="CL1" s="21" t="s">
         <v>144</v>
       </c>
-      <c r="CM1" s="2" t="s">
+      <c r="CM1" s="21" t="s">
         <v>145</v>
       </c>
-      <c r="CN1" s="2" t="s">
+      <c r="CN1" s="21" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="2" spans="1:92" x14ac:dyDescent="0.25">
-      <c r="A2" s="14" t="s">
-        <v>257</v>
-      </c>
-      <c r="B2" s="14" t="s">
+      <c r="A2" s="25" t="s">
+        <v>256</v>
+      </c>
+      <c r="B2" s="25" t="s">
         <v>50</v>
       </c>
       <c r="C2" s="3" t="s">
@@ -3303,45 +5753,45 @@
         <v>200</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>281</v>
-      </c>
-      <c r="G2" t="s">
+        <v>332</v>
+      </c>
+      <c r="G2" s="26" t="s">
         <v>17</v>
       </c>
       <c r="H2" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="I2" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="J2" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="K2" s="5" t="s">
+      <c r="J2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="L2" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="M2" s="5" t="s">
+      <c r="L2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="M2" s="3" t="s">
         <v>15</v>
       </c>
       <c r="N2" s="18" t="s">
         <v>160</v>
       </c>
       <c r="O2" s="19">
-        <v>88</v>
-      </c>
-      <c r="P2" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q2" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="R2" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="R2" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="S2" s="5" t="s">
+      <c r="S2" s="3" t="s">
         <v>165</v>
       </c>
       <c r="T2" s="3" t="s">
@@ -3351,7 +5801,7 @@
         <v>200</v>
       </c>
       <c r="V2" s="3" t="s">
-        <v>238</v>
+        <v>338</v>
       </c>
       <c r="W2" s="3">
         <v>200</v>
@@ -3399,7 +5849,7 @@
         <v>200</v>
       </c>
       <c r="AL2" s="3" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="AM2" s="3" t="s">
         <v>142</v>
@@ -3473,98 +5923,933 @@
       <c r="BJ2" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="BK2" s="14">
+      <c r="BK2" s="25">
         <v>2</v>
       </c>
-      <c r="BL2" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="BM2" s="14">
+      <c r="BL2" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="BM2" s="25">
         <v>0</v>
       </c>
-      <c r="BN2" s="14">
+      <c r="BN2" s="25">
         <v>0</v>
       </c>
-      <c r="BO2" s="14" t="s">
+      <c r="BO2" s="25" t="s">
         <v>174</v>
       </c>
-      <c r="BP2" s="14" t="s">
+      <c r="BP2" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="BQ2" s="14" t="s">
+      <c r="BQ2" s="25" t="s">
         <v>219</v>
       </c>
-      <c r="BR2" s="14" t="s">
+      <c r="BR2" s="25" t="s">
         <v>173</v>
       </c>
-      <c r="BS2" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="BT2" s="14" t="s">
+      <c r="BS2" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="BT2" s="25" t="s">
+        <v>340</v>
+      </c>
+      <c r="BU2" s="25">
+        <v>30</v>
+      </c>
+      <c r="BV2" s="25">
+        <v>209908</v>
+      </c>
+      <c r="BW2" s="25" t="s">
+        <v>220</v>
+      </c>
+      <c r="BX2" s="25" t="s">
+        <v>221</v>
+      </c>
+      <c r="BY2" s="28">
+        <v>60</v>
+      </c>
+      <c r="BZ2" s="25" t="s">
+        <v>223</v>
+      </c>
+      <c r="CA2" s="25" t="s">
+        <v>160</v>
+      </c>
+      <c r="CB2" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="CC2" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="CD2" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="CE2" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="CF2" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="CG2" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="CH2" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="CI2" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="CJ2" s="25" t="s">
+        <v>173</v>
+      </c>
+      <c r="CK2" s="25" t="s">
+        <v>258</v>
+      </c>
+      <c r="CL2" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="CM2" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="CN2" s="25" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="3" spans="1:92" x14ac:dyDescent="0.25">
+      <c r="A3" s="25" t="s">
+        <v>292</v>
+      </c>
+      <c r="B3" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="3">
+        <v>200</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>333</v>
+      </c>
+      <c r="G3" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="N3" s="18" t="s">
+        <v>160</v>
+      </c>
+      <c r="O3" s="19">
+        <v>61</v>
+      </c>
+      <c r="P3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="R3" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="S3" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="T3" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="U3" s="20">
+        <v>200</v>
+      </c>
+      <c r="V3" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="W3" s="3">
+        <v>200</v>
+      </c>
+      <c r="X3" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y3" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="Z3" s="3">
+        <v>200</v>
+      </c>
+      <c r="AA3" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AB3" s="3">
+        <v>2</v>
+      </c>
+      <c r="AC3" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="AD3" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="AE3" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AF3" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="AG3" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="AH3" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="AI3" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ3" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="AK3" s="3">
+        <v>200</v>
+      </c>
+      <c r="AL3" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="AM3" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="AN3" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="AO3" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="AP3" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ3" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="AR3" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="AS3" s="3">
+        <v>2</v>
+      </c>
+      <c r="AT3" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="AU3" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="AV3" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="AW3" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="AX3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="AY3" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="AZ3" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="BA3" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="BB3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="BC3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="BD3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="BE3" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="BF3" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="BG3" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="BH3" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI3" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="BJ3" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="BK3" s="25">
+        <v>2</v>
+      </c>
+      <c r="BL3" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="BM3" s="25">
+        <v>0</v>
+      </c>
+      <c r="BN3" s="25">
+        <v>0</v>
+      </c>
+      <c r="BO3" s="25" t="s">
+        <v>293</v>
+      </c>
+      <c r="BP3" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="BQ3" s="25" t="s">
+        <v>219</v>
+      </c>
+      <c r="BR3" s="25" t="s">
+        <v>173</v>
+      </c>
+      <c r="BS3" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="BT3" s="25" t="s">
+        <v>341</v>
+      </c>
+      <c r="BU3" s="25">
+        <v>30</v>
+      </c>
+      <c r="BV3" s="25">
+        <v>209908</v>
+      </c>
+      <c r="BW3" s="25" t="s">
+        <v>220</v>
+      </c>
+      <c r="BX3" s="25" t="s">
+        <v>221</v>
+      </c>
+      <c r="BY3" s="28">
+        <v>61</v>
+      </c>
+      <c r="BZ3" s="25" t="s">
+        <v>223</v>
+      </c>
+      <c r="CA3" s="25" t="s">
+        <v>160</v>
+      </c>
+      <c r="CB3" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="CC3" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="CD3" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="CE3" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="CF3" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="CG3" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="CH3" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="CI3" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="CJ3" s="25" t="s">
+        <v>173</v>
+      </c>
+      <c r="CK3" s="25" t="s">
+        <v>258</v>
+      </c>
+      <c r="CL3" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="CM3" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="CN3" s="25" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4" spans="1:92" x14ac:dyDescent="0.25">
+      <c r="A4" s="25" t="s">
+        <v>330</v>
+      </c>
+      <c r="B4" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4" s="3">
+        <v>200</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>334</v>
+      </c>
+      <c r="G4" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="N4" s="18" t="s">
         <v>283</v>
       </c>
-      <c r="BU2" s="14">
+      <c r="O4" s="19">
+        <v>62</v>
+      </c>
+      <c r="P4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="R4" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="S4" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="T4" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="U4" s="20">
+        <v>200</v>
+      </c>
+      <c r="V4" s="3" t="s">
+        <v>336</v>
+      </c>
+      <c r="W4" s="3">
+        <v>200</v>
+      </c>
+      <c r="X4" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y4" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="Z4" s="3">
+        <v>200</v>
+      </c>
+      <c r="AA4" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AB4" s="3">
+        <v>2</v>
+      </c>
+      <c r="AC4" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="AD4" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="AE4" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="AF4" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="AG4" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="AH4" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="AI4" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ4" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="AK4" s="3">
+        <v>200</v>
+      </c>
+      <c r="AL4" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="AM4" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="AN4" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="AO4" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="AP4" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="AQ4" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="AR4" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="AS4" s="3">
+        <v>2</v>
+      </c>
+      <c r="AT4" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="AU4" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="AV4" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="AW4" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="AX4" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="AY4" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="AZ4" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="BA4" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="BB4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="BC4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="BD4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="BE4" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="BF4" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="BG4" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="BH4" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI4" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="BJ4" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="BK4" s="25">
+        <v>2</v>
+      </c>
+      <c r="BL4" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="BM4" s="25">
+        <v>0</v>
+      </c>
+      <c r="BN4" s="25">
+        <v>0</v>
+      </c>
+      <c r="BO4" s="25" t="s">
+        <v>174</v>
+      </c>
+      <c r="BP4" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="BQ4" s="25" t="s">
+        <v>219</v>
+      </c>
+      <c r="BR4" s="25" t="s">
+        <v>173</v>
+      </c>
+      <c r="BS4" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="BT4" s="25" t="s">
+        <v>342</v>
+      </c>
+      <c r="BU4" s="25">
         <v>30</v>
       </c>
-      <c r="BV2" s="14">
+      <c r="BV4" s="25">
         <v>209908</v>
       </c>
-      <c r="BW2" s="14" t="s">
+      <c r="BW4" s="25" t="s">
         <v>220</v>
       </c>
-      <c r="BX2" s="14" t="s">
+      <c r="BX4" s="25" t="s">
         <v>221</v>
       </c>
-      <c r="BY2" s="14" t="s">
-        <v>279</v>
-      </c>
-      <c r="BZ2" s="14" t="s">
-        <v>223</v>
-      </c>
-      <c r="CA2" s="14" t="s">
-        <v>160</v>
-      </c>
-      <c r="CB2" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="CC2" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="CD2" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="CE2" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="CF2" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="CG2" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="CH2" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="CI2" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="CJ2" s="14" t="s">
+      <c r="BY4" s="28">
+        <v>62</v>
+      </c>
+      <c r="BZ4" s="25" t="s">
+        <v>291</v>
+      </c>
+      <c r="CA4" s="25" t="s">
+        <v>283</v>
+      </c>
+      <c r="CB4" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="CC4" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="CD4" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="CE4" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="CF4" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="CG4" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="CH4" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="CI4" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="CJ4" s="25" t="s">
         <v>173</v>
       </c>
-      <c r="CK2" s="14" t="s">
-        <v>261</v>
-      </c>
-      <c r="CL2" s="14" t="s">
+      <c r="CK4" s="25" t="s">
+        <v>258</v>
+      </c>
+      <c r="CL4" s="25" t="s">
         <v>58</v>
       </c>
-      <c r="CM2" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="CN2" s="14" t="s">
+      <c r="CM4" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="CN4" s="25" t="s">
         <v>174</v>
+      </c>
+    </row>
+    <row r="5" spans="1:92" x14ac:dyDescent="0.25">
+      <c r="A5" s="25" t="s">
+        <v>331</v>
+      </c>
+      <c r="B5" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E5" s="3">
+        <v>200</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="G5" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="N5" s="18" t="s">
+        <v>283</v>
+      </c>
+      <c r="O5" s="19">
+        <v>63</v>
+      </c>
+      <c r="P5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="R5" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="S5" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="T5" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="U5" s="20">
+        <v>200</v>
+      </c>
+      <c r="V5" s="3" t="s">
+        <v>337</v>
+      </c>
+      <c r="W5" s="3">
+        <v>200</v>
+      </c>
+      <c r="X5" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y5" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="Z5" s="3">
+        <v>200</v>
+      </c>
+      <c r="AA5" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AB5" s="3">
+        <v>2</v>
+      </c>
+      <c r="AC5" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="AD5" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="AE5" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AF5" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="AG5" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="AH5" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="AI5" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ5" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="AK5" s="3">
+        <v>200</v>
+      </c>
+      <c r="AL5" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="AM5" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="AN5" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="AO5" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="AP5" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ5" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="AR5" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="AS5" s="3">
+        <v>2</v>
+      </c>
+      <c r="AT5" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="AU5" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="AV5" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="AW5" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="AX5" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="AY5" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="AZ5" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="BA5" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="BB5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="BC5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="BD5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="BE5" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="BF5" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="BG5" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="BH5" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI5" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="BJ5" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="BK5" s="25">
+        <v>2</v>
+      </c>
+      <c r="BL5" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="BM5" s="25">
+        <v>0</v>
+      </c>
+      <c r="BN5" s="25">
+        <v>0</v>
+      </c>
+      <c r="BO5" s="25" t="s">
+        <v>293</v>
+      </c>
+      <c r="BP5" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="BQ5" s="25" t="s">
+        <v>219</v>
+      </c>
+      <c r="BR5" s="25" t="s">
+        <v>173</v>
+      </c>
+      <c r="BS5" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="BT5" s="25" t="s">
+        <v>343</v>
+      </c>
+      <c r="BU5" s="25">
+        <v>30</v>
+      </c>
+      <c r="BV5" s="25">
+        <v>209908</v>
+      </c>
+      <c r="BW5" s="25" t="s">
+        <v>220</v>
+      </c>
+      <c r="BX5" s="25" t="s">
+        <v>221</v>
+      </c>
+      <c r="BY5" s="28">
+        <v>63</v>
+      </c>
+      <c r="BZ5" s="25" t="s">
+        <v>291</v>
+      </c>
+      <c r="CA5" s="25" t="s">
+        <v>283</v>
+      </c>
+      <c r="CB5" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="CC5" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="CD5" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="CE5" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="CF5" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="CG5" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="CH5" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="CI5" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="CJ5" s="25" t="s">
+        <v>173</v>
+      </c>
+      <c r="CK5" s="25" t="s">
+        <v>258</v>
+      </c>
+      <c r="CL5" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="CM5" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="CN5" s="25" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
@@ -3589,7 +6874,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>26</v>
@@ -3609,13 +6894,13 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="B2" t="s">
         <v>50</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>1</v>
@@ -4521,7 +7806,7 @@
         <v>187</v>
       </c>
       <c r="AD1" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="AE1" s="2" t="s">
         <v>237</v>
@@ -4563,40 +7848,40 @@
         <v>185</v>
       </c>
       <c r="AR1" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AS1" s="2" t="s">
         <v>186</v>
       </c>
       <c r="AT1" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="AU1" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="AU1" s="2" t="s">
+      <c r="AV1" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="AV1" s="2" t="s">
+      <c r="AW1" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="AW1" s="2" t="s">
+      <c r="AX1" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="AX1" s="2" t="s">
+      <c r="AY1" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="AY1" s="2" t="s">
+      <c r="AZ1" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="AZ1" s="2" t="s">
+      <c r="BA1" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="BA1" s="2" t="s">
+      <c r="BB1" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="BC1" s="2" t="s">
         <v>246</v>
-      </c>
-      <c r="BB1" s="2" t="s">
-        <v>253</v>
-      </c>
-      <c r="BC1" s="2" t="s">
-        <v>247</v>
       </c>
       <c r="BD1" s="2" t="s">
         <v>29</v>
@@ -4608,10 +7893,10 @@
         <v>31</v>
       </c>
       <c r="BG1" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="BH1" s="6" t="s">
         <v>248</v>
-      </c>
-      <c r="BH1" s="6" t="s">
-        <v>249</v>
       </c>
       <c r="BI1" s="2" t="s">
         <v>107</v>
@@ -4665,10 +7950,10 @@
         <v>122</v>
       </c>
       <c r="BZ1" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="CA1" s="6" t="s">
         <v>250</v>
-      </c>
-      <c r="CA1" s="6" t="s">
-        <v>251</v>
       </c>
       <c r="CB1" s="2" t="s">
         <v>125</v>
@@ -4826,7 +8111,7 @@
     </row>
     <row r="2" spans="1:130" s="3" customFormat="1" ht="345" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>50</v>
@@ -4916,7 +8201,7 @@
         <v>235</v>
       </c>
       <c r="AE2" s="5" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="AF2" s="3">
         <v>200</v>
@@ -4982,7 +8267,7 @@
         <v>236</v>
       </c>
       <c r="BA2" s="3" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="BB2" s="3" t="s">
         <v>16</v>
@@ -5069,7 +8354,7 @@
         <v>174</v>
       </c>
       <c r="CD2" s="3" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="CE2" s="3" t="s">
         <v>236</v>

--- a/src/test/java/Subscriptions/Data/Option_Positions_Subscription.xlsx
+++ b/src/test/java/Subscriptions/Data/Option_Positions_Subscription.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Automation_OMSAPI\src\test\java\Subscriptions\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\APIAutomation\Automation_OMSAPI\src\test\java\Subscriptions\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{684B943A-E9D0-45B0-9F86-4618340E1858}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{762B0283-C623-4CB6-9E45-81F877C465FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="349" firstSheet="1" activeTab="1" xr2:uid="{A77A0332-03F7-4C79-B0EA-4DB171BB1F0C}"/>
   </bookViews>
@@ -1587,7 +1587,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -1639,14 +1639,7 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -1666,9 +1659,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1706,7 +1699,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1812,7 +1805,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1954,7 +1947,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -3452,8 +3445,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30BCD8FC-EB92-4047-A4A0-66F914093932}">
   <dimension ref="A1:DS5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="CN1" workbookViewId="0">
-      <selection activeCell="CQ33" sqref="CQ33"/>
+    <sheetView tabSelected="1" topLeftCell="AL1" workbookViewId="0">
+      <selection activeCell="AO20" sqref="AO20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5441,7 +5434,7 @@
     <col min="74" max="74" width="42.5703125" style="14" bestFit="1" customWidth="1"/>
     <col min="75" max="75" width="46.85546875" style="14" bestFit="1" customWidth="1"/>
     <col min="76" max="76" width="36.42578125" style="14" bestFit="1" customWidth="1"/>
-    <col min="77" max="77" width="34.140625" style="29" bestFit="1" customWidth="1"/>
+    <col min="77" max="77" width="34.140625" style="22" bestFit="1" customWidth="1"/>
     <col min="78" max="78" width="35.5703125" style="14" bestFit="1" customWidth="1"/>
     <col min="79" max="79" width="33" style="14" bestFit="1" customWidth="1"/>
     <col min="80" max="80" width="22.7109375" style="14"/>
@@ -5459,288 +5452,288 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:92" x14ac:dyDescent="0.25">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="D1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="E1" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="F1" s="22" t="s">
+      <c r="F1" s="4" t="s">
         <v>277</v>
       </c>
-      <c r="G1" s="22" t="s">
+      <c r="G1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="H1" s="21" t="s">
+      <c r="H1" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="I1" s="21" t="s">
+      <c r="I1" s="2" t="s">
         <v>263</v>
       </c>
-      <c r="J1" s="21" t="s">
+      <c r="J1" s="2" t="s">
         <v>264</v>
       </c>
-      <c r="K1" s="21" t="s">
+      <c r="K1" s="2" t="s">
         <v>265</v>
       </c>
-      <c r="L1" s="21" t="s">
+      <c r="L1" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="M1" s="21" t="s">
+      <c r="M1" s="2" t="s">
         <v>267</v>
       </c>
-      <c r="N1" s="21" t="s">
+      <c r="N1" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="O1" s="21" t="s">
+      <c r="O1" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="P1" s="21" t="s">
+      <c r="P1" s="2" t="s">
         <v>270</v>
       </c>
-      <c r="Q1" s="21" t="s">
+      <c r="Q1" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="R1" s="21" t="s">
+      <c r="R1" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="S1" s="21" t="s">
+      <c r="S1" s="2" t="s">
         <v>273</v>
       </c>
-      <c r="T1" s="21" t="s">
+      <c r="T1" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="U1" s="23" t="s">
+      <c r="U1" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="V1" s="21" t="s">
+      <c r="V1" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="W1" s="21" t="s">
+      <c r="W1" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="X1" s="21" t="s">
+      <c r="X1" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="Y1" s="21" t="s">
+      <c r="Y1" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="Z1" s="21" t="s">
+      <c r="Z1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="AA1" s="21" t="s">
+      <c r="AA1" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="AB1" s="21" t="s">
+      <c r="AB1" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="AC1" s="21" t="s">
+      <c r="AC1" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="AD1" s="21" t="s">
+      <c r="AD1" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="AE1" s="21" t="s">
+      <c r="AE1" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="AF1" s="21" t="s">
+      <c r="AF1" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="AG1" s="21" t="s">
+      <c r="AG1" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="AH1" s="21" t="s">
+      <c r="AH1" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="AI1" s="21" t="s">
+      <c r="AI1" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="AJ1" s="21" t="s">
+      <c r="AJ1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="AK1" s="21" t="s">
+      <c r="AK1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="AL1" s="21" t="s">
+      <c r="AL1" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="AM1" s="21" t="s">
+      <c r="AM1" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="AN1" s="24" t="s">
+      <c r="AN1" s="6" t="s">
         <v>250</v>
       </c>
-      <c r="AO1" s="21" t="s">
+      <c r="AO1" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="AP1" s="21" t="s">
+      <c r="AP1" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="AQ1" s="24" t="s">
+      <c r="AQ1" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="AR1" s="24" t="s">
+      <c r="AR1" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="AS1" s="24" t="s">
+      <c r="AS1" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="AT1" s="21" t="s">
+      <c r="AT1" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="AU1" s="21" t="s">
+      <c r="AU1" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="AV1" s="21" t="s">
+      <c r="AV1" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="AW1" s="21" t="s">
+      <c r="AW1" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="AX1" s="21" t="s">
+      <c r="AX1" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="AY1" s="21" t="s">
+      <c r="AY1" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="AZ1" s="21" t="s">
+      <c r="AZ1" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="BA1" s="21" t="s">
+      <c r="BA1" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="BB1" s="21" t="s">
+      <c r="BB1" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="BC1" s="21" t="s">
+      <c r="BC1" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="BD1" s="21" t="s">
+      <c r="BD1" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="BE1" s="21" t="s">
+      <c r="BE1" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="BF1" s="21" t="s">
+      <c r="BF1" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="BG1" s="21" t="s">
+      <c r="BG1" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="BH1" s="21" t="s">
+      <c r="BH1" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="BI1" s="21" t="s">
+      <c r="BI1" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="BJ1" s="21" t="s">
+      <c r="BJ1" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="BK1" s="21" t="s">
+      <c r="BK1" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="BL1" s="21" t="s">
+      <c r="BL1" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="BM1" s="21" t="s">
+      <c r="BM1" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="BN1" s="21" t="s">
+      <c r="BN1" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="BO1" s="21" t="s">
+      <c r="BO1" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="BP1" s="21" t="s">
+      <c r="BP1" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="BQ1" s="21" t="s">
+      <c r="BQ1" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="BR1" s="21" t="s">
+      <c r="BR1" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="BS1" s="21" t="s">
+      <c r="BS1" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="BT1" s="21" t="s">
+      <c r="BT1" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="BU1" s="21" t="s">
+      <c r="BU1" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="BV1" s="21" t="s">
+      <c r="BV1" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="BW1" s="21" t="s">
+      <c r="BW1" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="BX1" s="21" t="s">
+      <c r="BX1" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="BY1" s="27" t="s">
+      <c r="BY1" s="21" t="s">
         <v>206</v>
       </c>
-      <c r="BZ1" s="21" t="s">
+      <c r="BZ1" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="CA1" s="21" t="s">
+      <c r="CA1" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="CB1" s="21" t="s">
+      <c r="CB1" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="CC1" s="21" t="s">
+      <c r="CC1" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="CD1" s="21" t="s">
+      <c r="CD1" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="CE1" s="21" t="s">
+      <c r="CE1" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="CF1" s="21" t="s">
+      <c r="CF1" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="CG1" s="21" t="s">
+      <c r="CG1" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="CH1" s="21" t="s">
+      <c r="CH1" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="CI1" s="21" t="s">
+      <c r="CI1" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="CJ1" s="21" t="s">
+      <c r="CJ1" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="CK1" s="21" t="s">
+      <c r="CK1" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="CL1" s="21" t="s">
+      <c r="CL1" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="CM1" s="21" t="s">
+      <c r="CM1" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="CN1" s="21" t="s">
+      <c r="CN1" s="2" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="2" spans="1:92" x14ac:dyDescent="0.25">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="14" t="s">
         <v>256</v>
       </c>
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="14" t="s">
         <v>50</v>
       </c>
       <c r="C2" s="3" t="s">
@@ -5755,7 +5748,7 @@
       <c r="F2" s="3" t="s">
         <v>332</v>
       </c>
-      <c r="G2" s="26" t="s">
+      <c r="G2" t="s">
         <v>17</v>
       </c>
       <c r="H2" s="3" t="s">
@@ -5923,102 +5916,102 @@
       <c r="BJ2" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="BK2" s="25">
+      <c r="BK2" s="14">
         <v>2</v>
       </c>
-      <c r="BL2" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="BM2" s="25">
+      <c r="BL2" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="BM2" s="14">
         <v>0</v>
       </c>
-      <c r="BN2" s="25">
+      <c r="BN2" s="14">
         <v>0</v>
       </c>
-      <c r="BO2" s="25" t="s">
+      <c r="BO2" s="14" t="s">
         <v>174</v>
       </c>
-      <c r="BP2" s="25" t="s">
+      <c r="BP2" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="BQ2" s="25" t="s">
+      <c r="BQ2" s="14" t="s">
         <v>219</v>
       </c>
-      <c r="BR2" s="25" t="s">
+      <c r="BR2" s="14" t="s">
         <v>173</v>
       </c>
-      <c r="BS2" s="25" t="s">
-        <v>59</v>
-      </c>
-      <c r="BT2" s="25" t="s">
+      <c r="BS2" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="BT2" s="14" t="s">
         <v>340</v>
       </c>
-      <c r="BU2" s="25">
+      <c r="BU2" s="14">
         <v>30</v>
       </c>
-      <c r="BV2" s="25">
+      <c r="BV2" s="14">
         <v>209908</v>
       </c>
-      <c r="BW2" s="25" t="s">
+      <c r="BW2" s="14" t="s">
         <v>220</v>
       </c>
-      <c r="BX2" s="25" t="s">
+      <c r="BX2" s="14" t="s">
         <v>221</v>
       </c>
-      <c r="BY2" s="28">
+      <c r="BY2" s="22">
         <v>60</v>
       </c>
-      <c r="BZ2" s="25" t="s">
+      <c r="BZ2" s="14" t="s">
         <v>223</v>
       </c>
-      <c r="CA2" s="25" t="s">
+      <c r="CA2" s="14" t="s">
         <v>160</v>
       </c>
-      <c r="CB2" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="CC2" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="CD2" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="CE2" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="CF2" s="25" t="s">
-        <v>59</v>
-      </c>
-      <c r="CG2" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="CH2" s="25" t="s">
-        <v>59</v>
-      </c>
-      <c r="CI2" s="25" t="s">
-        <v>59</v>
-      </c>
-      <c r="CJ2" s="25" t="s">
+      <c r="CB2" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="CC2" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="CD2" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="CE2" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="CF2" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="CG2" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="CH2" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="CI2" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="CJ2" s="14" t="s">
         <v>173</v>
       </c>
-      <c r="CK2" s="25" t="s">
+      <c r="CK2" s="14" t="s">
         <v>258</v>
       </c>
-      <c r="CL2" s="25" t="s">
+      <c r="CL2" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="CM2" s="25" t="s">
-        <v>59</v>
-      </c>
-      <c r="CN2" s="25" t="s">
+      <c r="CM2" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="CN2" s="14" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="3" spans="1:92" x14ac:dyDescent="0.25">
-      <c r="A3" s="25" t="s">
+      <c r="A3" s="14" t="s">
         <v>292</v>
       </c>
-      <c r="B3" s="25" t="s">
+      <c r="B3" s="14" t="s">
         <v>50</v>
       </c>
       <c r="C3" s="3" t="s">
@@ -6033,7 +6026,7 @@
       <c r="F3" s="3" t="s">
         <v>333</v>
       </c>
-      <c r="G3" s="26" t="s">
+      <c r="G3" t="s">
         <v>17</v>
       </c>
       <c r="H3" s="3" t="s">
@@ -6201,102 +6194,102 @@
       <c r="BJ3" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="BK3" s="25">
+      <c r="BK3" s="14">
         <v>2</v>
       </c>
-      <c r="BL3" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="BM3" s="25">
+      <c r="BL3" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="BM3" s="14">
         <v>0</v>
       </c>
-      <c r="BN3" s="25">
+      <c r="BN3" s="14">
         <v>0</v>
       </c>
-      <c r="BO3" s="25" t="s">
+      <c r="BO3" s="14" t="s">
         <v>293</v>
       </c>
-      <c r="BP3" s="25" t="s">
+      <c r="BP3" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="BQ3" s="25" t="s">
+      <c r="BQ3" s="14" t="s">
         <v>219</v>
       </c>
-      <c r="BR3" s="25" t="s">
+      <c r="BR3" s="14" t="s">
         <v>173</v>
       </c>
-      <c r="BS3" s="25" t="s">
-        <v>59</v>
-      </c>
-      <c r="BT3" s="25" t="s">
+      <c r="BS3" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="BT3" s="14" t="s">
         <v>341</v>
       </c>
-      <c r="BU3" s="25">
+      <c r="BU3" s="14">
         <v>30</v>
       </c>
-      <c r="BV3" s="25">
+      <c r="BV3" s="14">
         <v>209908</v>
       </c>
-      <c r="BW3" s="25" t="s">
+      <c r="BW3" s="14" t="s">
         <v>220</v>
       </c>
-      <c r="BX3" s="25" t="s">
+      <c r="BX3" s="14" t="s">
         <v>221</v>
       </c>
-      <c r="BY3" s="28">
+      <c r="BY3" s="22">
         <v>61</v>
       </c>
-      <c r="BZ3" s="25" t="s">
+      <c r="BZ3" s="14" t="s">
         <v>223</v>
       </c>
-      <c r="CA3" s="25" t="s">
+      <c r="CA3" s="14" t="s">
         <v>160</v>
       </c>
-      <c r="CB3" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="CC3" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="CD3" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="CE3" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="CF3" s="25" t="s">
-        <v>59</v>
-      </c>
-      <c r="CG3" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="CH3" s="25" t="s">
-        <v>59</v>
-      </c>
-      <c r="CI3" s="25" t="s">
-        <v>59</v>
-      </c>
-      <c r="CJ3" s="25" t="s">
+      <c r="CB3" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="CC3" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="CD3" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="CE3" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="CF3" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="CG3" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="CH3" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="CI3" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="CJ3" s="14" t="s">
         <v>173</v>
       </c>
-      <c r="CK3" s="25" t="s">
+      <c r="CK3" s="14" t="s">
         <v>258</v>
       </c>
-      <c r="CL3" s="25" t="s">
+      <c r="CL3" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="CM3" s="25" t="s">
-        <v>59</v>
-      </c>
-      <c r="CN3" s="25" t="s">
+      <c r="CM3" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="CN3" s="14" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:92" x14ac:dyDescent="0.25">
-      <c r="A4" s="25" t="s">
+      <c r="A4" s="14" t="s">
         <v>330</v>
       </c>
-      <c r="B4" s="25" t="s">
+      <c r="B4" s="14" t="s">
         <v>50</v>
       </c>
       <c r="C4" s="3" t="s">
@@ -6311,7 +6304,7 @@
       <c r="F4" s="3" t="s">
         <v>334</v>
       </c>
-      <c r="G4" s="26" t="s">
+      <c r="G4" t="s">
         <v>17</v>
       </c>
       <c r="H4" s="3" t="s">
@@ -6479,102 +6472,102 @@
       <c r="BJ4" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="BK4" s="25">
+      <c r="BK4" s="14">
         <v>2</v>
       </c>
-      <c r="BL4" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="BM4" s="25">
+      <c r="BL4" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="BM4" s="14">
         <v>0</v>
       </c>
-      <c r="BN4" s="25">
+      <c r="BN4" s="14">
         <v>0</v>
       </c>
-      <c r="BO4" s="25" t="s">
+      <c r="BO4" s="14" t="s">
         <v>174</v>
       </c>
-      <c r="BP4" s="25" t="s">
+      <c r="BP4" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="BQ4" s="25" t="s">
+      <c r="BQ4" s="14" t="s">
         <v>219</v>
       </c>
-      <c r="BR4" s="25" t="s">
+      <c r="BR4" s="14" t="s">
         <v>173</v>
       </c>
-      <c r="BS4" s="25" t="s">
-        <v>59</v>
-      </c>
-      <c r="BT4" s="25" t="s">
+      <c r="BS4" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="BT4" s="14" t="s">
         <v>342</v>
       </c>
-      <c r="BU4" s="25">
+      <c r="BU4" s="14">
         <v>30</v>
       </c>
-      <c r="BV4" s="25">
+      <c r="BV4" s="14">
         <v>209908</v>
       </c>
-      <c r="BW4" s="25" t="s">
+      <c r="BW4" s="14" t="s">
         <v>220</v>
       </c>
-      <c r="BX4" s="25" t="s">
+      <c r="BX4" s="14" t="s">
         <v>221</v>
       </c>
-      <c r="BY4" s="28">
+      <c r="BY4" s="22">
         <v>62</v>
       </c>
-      <c r="BZ4" s="25" t="s">
+      <c r="BZ4" s="14" t="s">
         <v>291</v>
       </c>
-      <c r="CA4" s="25" t="s">
+      <c r="CA4" s="14" t="s">
         <v>283</v>
       </c>
-      <c r="CB4" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="CC4" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="CD4" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="CE4" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="CF4" s="25" t="s">
-        <v>59</v>
-      </c>
-      <c r="CG4" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="CH4" s="25" t="s">
-        <v>59</v>
-      </c>
-      <c r="CI4" s="25" t="s">
-        <v>59</v>
-      </c>
-      <c r="CJ4" s="25" t="s">
+      <c r="CB4" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="CC4" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="CD4" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="CE4" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="CF4" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="CG4" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="CH4" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="CI4" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="CJ4" s="14" t="s">
         <v>173</v>
       </c>
-      <c r="CK4" s="25" t="s">
+      <c r="CK4" s="14" t="s">
         <v>258</v>
       </c>
-      <c r="CL4" s="25" t="s">
+      <c r="CL4" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="CM4" s="25" t="s">
-        <v>59</v>
-      </c>
-      <c r="CN4" s="25" t="s">
+      <c r="CM4" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="CN4" s="14" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="5" spans="1:92" x14ac:dyDescent="0.25">
-      <c r="A5" s="25" t="s">
+      <c r="A5" s="14" t="s">
         <v>331</v>
       </c>
-      <c r="B5" s="25" t="s">
+      <c r="B5" s="14" t="s">
         <v>50</v>
       </c>
       <c r="C5" s="3" t="s">
@@ -6589,7 +6582,7 @@
       <c r="F5" s="3" t="s">
         <v>335</v>
       </c>
-      <c r="G5" s="26" t="s">
+      <c r="G5" t="s">
         <v>17</v>
       </c>
       <c r="H5" s="3" t="s">
@@ -6757,94 +6750,94 @@
       <c r="BJ5" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="BK5" s="25">
+      <c r="BK5" s="14">
         <v>2</v>
       </c>
-      <c r="BL5" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="BM5" s="25">
+      <c r="BL5" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="BM5" s="14">
         <v>0</v>
       </c>
-      <c r="BN5" s="25">
+      <c r="BN5" s="14">
         <v>0</v>
       </c>
-      <c r="BO5" s="25" t="s">
+      <c r="BO5" s="14" t="s">
         <v>293</v>
       </c>
-      <c r="BP5" s="25" t="s">
+      <c r="BP5" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="BQ5" s="25" t="s">
+      <c r="BQ5" s="14" t="s">
         <v>219</v>
       </c>
-      <c r="BR5" s="25" t="s">
+      <c r="BR5" s="14" t="s">
         <v>173</v>
       </c>
-      <c r="BS5" s="25" t="s">
-        <v>59</v>
-      </c>
-      <c r="BT5" s="25" t="s">
+      <c r="BS5" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="BT5" s="14" t="s">
         <v>343</v>
       </c>
-      <c r="BU5" s="25">
+      <c r="BU5" s="14">
         <v>30</v>
       </c>
-      <c r="BV5" s="25">
+      <c r="BV5" s="14">
         <v>209908</v>
       </c>
-      <c r="BW5" s="25" t="s">
+      <c r="BW5" s="14" t="s">
         <v>220</v>
       </c>
-      <c r="BX5" s="25" t="s">
+      <c r="BX5" s="14" t="s">
         <v>221</v>
       </c>
-      <c r="BY5" s="28">
+      <c r="BY5" s="22">
         <v>63</v>
       </c>
-      <c r="BZ5" s="25" t="s">
+      <c r="BZ5" s="14" t="s">
         <v>291</v>
       </c>
-      <c r="CA5" s="25" t="s">
+      <c r="CA5" s="14" t="s">
         <v>283</v>
       </c>
-      <c r="CB5" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="CC5" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="CD5" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="CE5" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="CF5" s="25" t="s">
-        <v>59</v>
-      </c>
-      <c r="CG5" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="CH5" s="25" t="s">
-        <v>59</v>
-      </c>
-      <c r="CI5" s="25" t="s">
-        <v>59</v>
-      </c>
-      <c r="CJ5" s="25" t="s">
+      <c r="CB5" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="CC5" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="CD5" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="CE5" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="CF5" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="CG5" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="CH5" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="CI5" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="CJ5" s="14" t="s">
         <v>173</v>
       </c>
-      <c r="CK5" s="25" t="s">
+      <c r="CK5" s="14" t="s">
         <v>258</v>
       </c>
-      <c r="CL5" s="25" t="s">
+      <c r="CL5" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="CM5" s="25" t="s">
-        <v>59</v>
-      </c>
-      <c r="CN5" s="25" t="s">
+      <c r="CM5" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="CN5" s="14" t="s">
         <v>53</v>
       </c>
     </row>
